--- a/ADM/ADM.xlsx
+++ b/ADM/ADM.xlsx
@@ -1,27 +1,473 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\ADM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A3907-3532-4806-9B4A-8474116C62C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19080" yWindow="530" windowWidth="19220" windowHeight="19690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="model_notes" sheetId="3" r:id="rId3"/>
+    <sheet name="acquisitions" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="127">
+  <si>
+    <t>use for scripting</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>Inc affiliates</t>
+  </si>
+  <si>
+    <t>Loss affiliates</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Delta Inventories</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>CPLTD</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Noncontrolling interests</t>
+  </si>
+  <si>
+    <t>Ag Services &amp; Oilseeds</t>
+  </si>
+  <si>
+    <t>Carbohydrate Solutions</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Starches and Sweeteners</t>
+  </si>
+  <si>
+    <t>Wilmar</t>
+  </si>
+  <si>
+    <t>Ag Services</t>
+  </si>
+  <si>
+    <t>Crushing</t>
+  </si>
+  <si>
+    <t>Refined Products and Other</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Vantage Corn Processors</t>
+  </si>
+  <si>
+    <t>YoY</t>
+  </si>
+  <si>
+    <t>Lower due to stabilization of trade flows leading to lower Global Trade and risk management results when compared to years prior. Slower farmer selling also negatively impacted export volumes and margins in South America.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower as increased imports of used cooking oil and the anticipation of large South American supplies negatively impacted North American soy crush margins. </t>
+  </si>
+  <si>
+    <t>Lower due to increased imports of used cooking oil negatively impacted refining margins in North America.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Lower - strong starches and sweeteners margins were offset by lower domestic ethanol margins due to strong industry production and elevated stocks, moderating margins in the EMEA region.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher - strong demand for sustainably certified exports of ethanol supported volumes and higher margins. </t>
+  </si>
+  <si>
+    <t>Lower - unplanned downtime at Decatur East and a normalizing of the texturants market negatively impacting margins.</t>
+  </si>
+  <si>
+    <t>Higher - cost optimization efforts and lower input costs.</t>
+  </si>
+  <si>
+    <t>Higher - higher Captive Insurance results due to higher program premiums and lower claims. Unallocated corporate costs up due to higher tech investments to support digital transformation, Investment from ADM Ventures portfolio posted losses of $18M.</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COPS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Adjusted segment Gross Profit</t>
+  </si>
+  <si>
+    <t>Asset impair, exit, and restruct cost</t>
+  </si>
+  <si>
+    <t>Earnings from affiliates</t>
+  </si>
+  <si>
+    <t>Interest and investment income</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Other (income) expense - net</t>
+  </si>
+  <si>
+    <t>Total Exp</t>
+  </si>
+  <si>
+    <t>Earnings before taxes</t>
+  </si>
+  <si>
+    <t>Income Taxes</t>
+  </si>
+  <si>
+    <t>Average shares - basic</t>
+  </si>
+  <si>
+    <t>Average shares - diluted</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Asset impairment charges</t>
+  </si>
+  <si>
+    <t>Deferred income taxes</t>
+  </si>
+  <si>
+    <t>Stock compensation</t>
+  </si>
+  <si>
+    <t>Deferred CF Hedges</t>
+  </si>
+  <si>
+    <t>(Gain) losses on sales/revaluation of assets</t>
+  </si>
+  <si>
+    <t>Delta Seg. Investments</t>
+  </si>
+  <si>
+    <t>Delta Trade AR</t>
+  </si>
+  <si>
+    <t>Delta other current assets</t>
+  </si>
+  <si>
+    <t>Delta Trade AP</t>
+  </si>
+  <si>
+    <t>Delta AP Brokerage customers</t>
+  </si>
+  <si>
+    <t>Delta accrued exp</t>
+  </si>
+  <si>
+    <t>Segregated Cash &amp; Investments</t>
+  </si>
+  <si>
+    <t>Trade AR</t>
+  </si>
+  <si>
+    <t>Other Curr Assets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Investment in affiliates</t>
+  </si>
+  <si>
+    <t>Goodwill and intangible</t>
+  </si>
+  <si>
+    <t>Right of use assets</t>
+  </si>
+  <si>
+    <t>Other assets</t>
+  </si>
+  <si>
+    <t>Total Investments/Other</t>
+  </si>
+  <si>
+    <t>Land and improvements</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Machinery and equipment</t>
+  </si>
+  <si>
+    <t>Construction in progress</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Net PPE</t>
+  </si>
+  <si>
+    <t>Short-term debt</t>
+  </si>
+  <si>
+    <t>Trade AP</t>
+  </si>
+  <si>
+    <t>AP to Brokers</t>
+  </si>
+  <si>
+    <t>Accr Expenses</t>
+  </si>
+  <si>
+    <t>Total Current Liab</t>
+  </si>
+  <si>
+    <t>Curr Lease Liab</t>
+  </si>
+  <si>
+    <t>Def Inc Tax</t>
+  </si>
+  <si>
+    <t>Non-curr leas Liab</t>
+  </si>
+  <si>
+    <t>Total Liab</t>
+  </si>
+  <si>
+    <t>Temp equity - noncontrolling</t>
+  </si>
+  <si>
+    <t>Reinvested earnings</t>
+  </si>
+  <si>
+    <t>Accum other income</t>
+  </si>
+  <si>
+    <t>Total LT Liab</t>
+  </si>
+  <si>
+    <t>Liab+Equity</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Adjusted segment Revenues</t>
+  </si>
+  <si>
+    <t>Revenue descriptions:</t>
+  </si>
+  <si>
+    <t>Ag Services and Oilseeds:</t>
+  </si>
+  <si>
+    <t>Sale of commodities, service/transportation of goods, sale of products manufactured in its global processing facilities, and structured trade finance activities</t>
+  </si>
+  <si>
+    <t>Carbohydrate Solutions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale of products manufactured at the company's global corn and wheat milling facilities around the world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products are shipped to customers from the company's various facilities and from network of storage terminals. </t>
+  </si>
+  <si>
+    <t>Nutrition:</t>
+  </si>
+  <si>
+    <t>Sells ingredients and solutions including plant-based proteins, natural flavors, flavor systems, natural colors, emulsifiers, prebiotics, enzymes, botanical extracts, edible beans, formula feeds, animal health and nutrition products, pet food and treats, and other specialty food and feed ingredients.</t>
+  </si>
+  <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>Futures commision and brokerage income for executing orders and clearings futures contracts on behalf of its customers.</t>
+  </si>
+  <si>
+    <t>Revela Foods, a Wisconsin-based developer and manufacturer of innovative dairy flavor ingredients and solutions.</t>
+  </si>
+  <si>
+    <t>FDL, a UK-based leading developer and producer of premium flavor and functional ingredient systems.</t>
+  </si>
+  <si>
+    <t>PT Trouw Nutrition Indonesia ("PT"), a subsidiary of Nutreco and leading provider of functional and nutritional solutions for livestock farming in Indonesia.</t>
+  </si>
+  <si>
+    <t>$650M</t>
+  </si>
+  <si>
+    <t>$250M</t>
+  </si>
+  <si>
+    <t>$15M</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +495,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +807,3306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="K6:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K6" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K8" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K11" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K15" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K16" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+    </row>
+    <row r="18" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+    </row>
+    <row r="20" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K20" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K16:T18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9C194D-55E7-45EF-80C0-6A51647FC0FD}">
+  <dimension ref="A1:AF153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2023</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="12">
+        <v>45016</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45382</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="15">
+        <f>(F6-B6)/F6</f>
+        <v>-0.10184464686226942</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" ref="B6" si="0">+B7+B12+B15+B18</f>
+        <v>24072</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" ref="C6" si="1">+C7+C12+C15+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6" si="2">+D7+D12+D15+D18</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6" si="3">+E7+E12+E15+E18</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f>+F7+F12+F15+F18</f>
+        <v>21847</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7">
+        <f>+SUM(B8:B11)</f>
+        <v>18579</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ref="C7" si="4">+SUM(C8:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7" si="5">+SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7" si="6">+SUM(E8:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7" si="7">+SUM(F8:F11)</f>
+        <v>17219</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9">
+        <v>11695</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>11197</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3683</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>3327</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3201</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>2695</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7">
+        <f>SUM(B13:B14)</f>
+        <v>3537</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" ref="C12" si="8">SUM(C13:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12" si="9">SUM(D13:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12" si="10">SUM(E13:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12" si="11">SUM(F13:F14)</f>
+        <v>2683</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2737</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>2156</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6">
+        <v>800</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>527</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7">
+        <f>SUM(B16:B17)</f>
+        <v>1853</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15" si="12">SUM(C16:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" ref="D15" si="13">SUM(D16:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" ref="E15" si="14">SUM(E16:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15" si="15">SUM(F16:F17)</f>
+        <v>1836</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6">
+        <v>936</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>964</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6">
+        <v>917</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>872</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6">
+        <v>103</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>109</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="15">
+        <f>(F22-B22)/F22</f>
+        <v>-0.30979498861047838</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" ref="B22:E22" si="16">+B23+B28+B31+B34</f>
+        <v>1725</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <f>+F23+F28+F31+F34</f>
+        <v>1317</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="7">
+        <f>+SUM(B24:B27)</f>
+        <v>1211</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" ref="C23:F23" si="17">+SUM(C24:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="17"/>
+        <v>864</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9">
+        <v>348</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>232</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="9">
+        <v>427</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>313</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="9">
+        <v>327</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>170</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="9">
+        <v>109</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>149</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7">
+        <f>SUM(B29:B30)</f>
+        <v>279</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:F28" si="18">SUM(C29:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="18"/>
+        <v>248</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6">
+        <v>313</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>261</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-34</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>-13</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="7">
+        <f>SUM(B32:B33)</f>
+        <v>138</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31" si="19">SUM(C32:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" ref="D31" si="20">SUM(D32:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" ref="E31" si="21">SUM(E32:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" ref="F31" si="22">SUM(F32:F33)</f>
+        <v>84</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6">
+        <v>138</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>76</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="6">
+        <v>97</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
+        <v>121</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="J35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="J36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="9">
+        <v>24072</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
+        <v>21847</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="9">
+        <v>21992</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
+        <v>20188</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+    </row>
+    <row r="39" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="7">
+        <f t="shared" ref="B39:E39" si="23">+B37-B38</f>
+        <v>2080</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <f>+F37-F38</f>
+        <v>1659</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="9">
+        <v>881</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
+        <v>951</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="9">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9">
+        <v>18</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="9">
+        <v>-174</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
+        <v>-212</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="9">
+        <v>-134</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
+        <v>-123</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="9">
+        <v>147</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
+        <v>166</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="9">
+        <v>-44</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9">
+        <v>-26</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+    </row>
+    <row r="47" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="7">
+        <f t="shared" ref="B47:E47" si="24">SUM(B41:B46)</f>
+        <v>683</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <f>SUM(F41:F46)</f>
+        <v>774</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+    </row>
+    <row r="48" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="7">
+        <f t="shared" ref="B48:E48" si="25">B39-B47</f>
+        <v>1397</v>
+      </c>
+      <c r="C48" s="7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <f>F39-F47</f>
+        <v>885</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="9">
+        <v>225</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
+        <v>166</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+    </row>
+    <row r="50" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9">
+        <v>-10</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+    </row>
+    <row r="51" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="7">
+        <f>B48-B49-B50</f>
+        <v>1170</v>
+      </c>
+      <c r="C51" s="7">
+        <f t="shared" ref="C51:F51" si="26">C48-C49-C50</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="26"/>
+        <v>729</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="9">
+        <v>550</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9">
+        <v>513</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="9">
+        <v>551</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9">
+        <v>514</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+    </row>
+    <row r="55" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="14">
+        <f>B51/B53</f>
+        <v>2.1272727272727274</v>
+      </c>
+      <c r="C55" s="14" t="e">
+        <f t="shared" ref="C55:F55" si="27">C51/C53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="14" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="14" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="27"/>
+        <v>1.4210526315789473</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="14">
+        <f>B51/B54</f>
+        <v>2.1234119782214158</v>
+      </c>
+      <c r="C56" s="14" t="e">
+        <f t="shared" ref="C56:F56" si="28">C51/C54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="28"/>
+        <v>1.4182879377431907</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="J58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="J59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="3" t="str">
+        <f>B2</f>
+        <v>Q123</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" ref="C60:I60" si="29">C2</f>
+        <v>Q223</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>Q323</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>Q423</v>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>Q124</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>Q224</v>
+      </c>
+      <c r="H60" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>Q324</v>
+      </c>
+      <c r="I60" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>Q424</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" ref="K60:M60" si="30">K2</f>
+        <v>2023</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="30"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="7">
+        <f>B51</f>
+        <v>1170</v>
+      </c>
+      <c r="C61" s="7">
+        <f t="shared" ref="C61:F61" si="31">C51</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" si="31"/>
+        <v>729</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1172</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9">
+        <v>719</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="9">
+        <v>259</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9">
+        <v>280</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="6">
+        <v>3</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
+        <v>3</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="6">
+        <v>47</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
+        <v>-64</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="6">
+        <v>-113</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
+        <v>-136</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="6">
+        <v>65</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
+        <v>66</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="6">
+        <v>-104</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
+        <v>-69</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="6">
+        <v>-11</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
+        <v>14</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="6">
+        <v>-8</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
+        <v>69</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="6">
+        <v>-935</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
+        <v>-159</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="6">
+        <v>488</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
+        <v>61</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="6">
+        <v>52</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
+        <v>295</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="6">
+        <v>328</v>
+      </c>
+      <c r="F74" s="6">
+        <v>163</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="6">
+        <v>-1556</v>
+      </c>
+      <c r="F75" s="6">
+        <v>-713</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="6">
+        <v>-460</v>
+      </c>
+      <c r="F76" s="6">
+        <v>319</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="6">
+        <v>-837</v>
+      </c>
+      <c r="F77" s="6">
+        <v>-148</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="7">
+        <f>+SUM(B62:B77)</f>
+        <v>-1610</v>
+      </c>
+      <c r="C78" s="7">
+        <f t="shared" ref="C78:F78" si="32">+SUM(C62:C77)</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="32"/>
+        <v>700</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1368</v>
+      </c>
+      <c r="F80" s="6">
+        <v>830</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>7228</v>
+      </c>
+      <c r="F81" s="6">
+        <v>7381</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6">
+        <v>4232</v>
+      </c>
+      <c r="F82" s="6">
+        <v>4178</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="6">
+        <v>11957</v>
+      </c>
+      <c r="F83" s="6">
+        <v>11634</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="6">
+        <v>4982</v>
+      </c>
+      <c r="F84" s="6">
+        <v>4983</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <f>+SUM(B80:B84)</f>
+        <v>29767</v>
+      </c>
+      <c r="C85" s="7">
+        <f t="shared" ref="C85:F85" si="33">+SUM(C80:C84)</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="33"/>
+        <v>29006</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9">
+        <v>5500</v>
+      </c>
+      <c r="F86" s="6">
+        <v>5566</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9">
+        <v>6341</v>
+      </c>
+      <c r="F87" s="6">
+        <v>7051</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9">
+        <v>1211</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1285</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9">
+        <v>1304</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1327</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7">
+        <f>+SUM(B86:B89)</f>
+        <v>14356</v>
+      </c>
+      <c r="C90" s="7">
+        <f t="shared" ref="C90:F90" si="34">+SUM(C86:C89)</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <f t="shared" si="34"/>
+        <v>15229</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9">
+        <v>573</v>
+      </c>
+      <c r="F91" s="6">
+        <v>573</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9">
+        <v>5876</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5940</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9">
+        <v>20223</v>
+      </c>
+      <c r="F93" s="6">
+        <v>20298</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9">
+        <v>1360</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1421</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="6">
+        <v>-17524</v>
+      </c>
+      <c r="F95" s="6">
+        <v>-17636</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="7">
+        <f>+SUM(B91:B95)</f>
+        <v>10508</v>
+      </c>
+      <c r="C96" s="7">
+        <f t="shared" ref="C96:F96" si="35">+SUM(C91:C95)</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="35"/>
+        <v>10596</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="7">
+        <f>+B96+B90+B85</f>
+        <v>54631</v>
+      </c>
+      <c r="C97" s="7">
+        <f t="shared" ref="C97:F97" si="36">+C96+C90+C85</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="36"/>
+        <v>54831</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="J98" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="9">
+        <v>105</v>
+      </c>
+      <c r="F99" s="9">
+        <v>1734</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="9">
+        <v>6313</v>
+      </c>
+      <c r="F100" s="9">
+        <v>5599</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="9">
+        <v>7867</v>
+      </c>
+      <c r="F101" s="9">
+        <v>8176</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="9">
+        <v>4076</v>
+      </c>
+      <c r="F102" s="9">
+        <v>3922</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="9">
+        <v>300</v>
+      </c>
+      <c r="F103" s="9">
+        <v>298</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="9">
+        <v>1</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7">
+        <f>+SUM(B99:B104)</f>
+        <v>18662</v>
+      </c>
+      <c r="C105" s="7">
+        <f t="shared" ref="C105:F105" si="37">+SUM(C99:C104)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="37"/>
+        <v>19730</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="9">
+        <v>8259</v>
+      </c>
+      <c r="F106" s="9">
+        <v>8245</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="9">
+        <v>1309</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1291</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="9">
+        <v>931</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1010</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="9">
+        <v>1005</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1016</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="7">
+        <f>+SUM(B106:B109)</f>
+        <v>11504</v>
+      </c>
+      <c r="C110" s="7">
+        <f t="shared" ref="C110:F110" si="38">+SUM(C106:C109)</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="7">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="7">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
+        <f t="shared" si="38"/>
+        <v>11562</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111" s="7">
+        <f>+B110+B105</f>
+        <v>30166</v>
+      </c>
+      <c r="C111" s="7">
+        <f t="shared" ref="C111:F111" si="39">+C110+C105</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="7">
+        <f t="shared" si="39"/>
+        <v>31292</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="9">
+        <v>320</v>
+      </c>
+      <c r="F112" s="9">
+        <v>307</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="J113" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="9">
+        <v>3154</v>
+      </c>
+      <c r="F114" s="9">
+        <v>2720</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="9">
+        <v>23465</v>
+      </c>
+      <c r="F115" s="9">
+        <v>23069</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="9">
+        <v>-2487</v>
+      </c>
+      <c r="F116" s="9">
+        <v>-2570</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="9">
+        <v>13</v>
+      </c>
+      <c r="F117" s="9">
+        <v>13</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="7">
+        <f>+SUM(B114:B117)</f>
+        <v>24145</v>
+      </c>
+      <c r="C118" s="7">
+        <f t="shared" ref="C118:F118" si="40">+SUM(C114:C117)</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="7">
+        <f t="shared" si="40"/>
+        <v>23232</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" s="7">
+        <f>+B118+B112+B111</f>
+        <v>54631</v>
+      </c>
+      <c r="C119" s="7">
+        <f t="shared" ref="C119:F119" si="41">+C118+C112+C111</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="7">
+        <f t="shared" si="41"/>
+        <v>54831</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80BCE32-EBB1-4332-BAC6-9431E8A89844}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2023</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DEFED-7DE7-459F-B276-0EC106F80814}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ADM/ADM.xlsx
+++ b/ADM/ADM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\ADM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A3907-3532-4806-9B4A-8474116C62C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C328667B-F981-4FEA-B83C-132FB1A7D7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="530" windowWidth="19220" windowHeight="19690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="190" windowWidth="18700" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="131">
   <si>
     <t>use for scripting</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Lower due to increased imports of used cooking oil negatively impacted refining margins in North America.</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Lower - strong starches and sweeteners margins were offset by lower domestic ethanol margins due to strong industry production and elevated stocks, moderating margins in the EMEA region.</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>Nutrition:</t>
   </si>
   <si>
-    <t>Sells ingredients and solutions including plant-based proteins, natural flavors, flavor systems, natural colors, emulsifiers, prebiotics, enzymes, botanical extracts, edible beans, formula feeds, animal health and nutrition products, pet food and treats, and other specialty food and feed ingredients.</t>
-  </si>
-  <si>
     <t>Other:</t>
   </si>
   <si>
@@ -420,6 +414,24 @@
   </si>
   <si>
     <t>$15M</t>
+  </si>
+  <si>
+    <t>Todo:</t>
+  </si>
+  <si>
+    <t>edible beans, formula feeds, animal health and nutrition products, pet food and treats, and other specialty food and feed ingredients.</t>
+  </si>
+  <si>
+    <t>Sells ingredients and solutions including plant-based proteins, natural flavors, flavor systems, natural colors, emulsifiers, prebiotics, enzymes, botanical extracts</t>
+  </si>
+  <si>
+    <t>Dive more into contracts, hedges, etc.</t>
+  </si>
+  <si>
+    <t>Read Management discussion and analysis</t>
+  </si>
+  <si>
+    <t>Fill in historicals</t>
   </si>
 </sst>
 </file>
@@ -495,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,17 +515,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -808,101 +815,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="K6:T21"/>
+  <dimension ref="B4:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="6" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K6" s="18" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K8" s="17" t="s">
+    <row r="16" spans="2:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K9" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K11" s="17" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K12" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K13" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K15" s="17" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="16"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K16" s="19" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-    </row>
-    <row r="20" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K20" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="K21" t="s">
-        <v>120</v>
-      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K16:T18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -997,10 +1007,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>45016</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <v>45382</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1009,7 +1019,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1027,41 +1037,41 @@
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <f>(F6-B6)/F6</f>
         <v>-0.10184464686226942</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="7">
+        <v>109</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" ref="B6" si="0">+B7+B12+B15+B18</f>
         <v>24072</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" ref="C6" si="1">+C7+C12+C15+C18</f>
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" ref="D6" si="2">+D7+D12+D15+D18</f>
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" ref="E6" si="3">+E7+E12+E15+E18</f>
         <v>0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>+F7+F12+F15+F18</f>
         <v>21847</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1070,105 +1080,105 @@
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>+SUM(B8:B11)</f>
         <v>18579</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" ref="C7" si="4">+SUM(C8:C11)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" ref="D7" si="5">+SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" ref="E7" si="6">+SUM(E8:E11)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" ref="F7" si="7">+SUM(F8:F11)</f>
         <v>17219</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>11695</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>11197</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>3683</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>3327</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>3201</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>2695</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1177,69 +1187,69 @@
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f>SUM(B13:B14)</f>
         <v>3537</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" ref="C12" si="8">SUM(C13:C14)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" ref="D12" si="9">SUM(D13:D14)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" ref="E12" si="10">SUM(E13:E14)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" ref="F12" si="11">SUM(F13:F14)</f>
         <v>2683</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2737</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <v>2156</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>800</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>527</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1248,108 +1258,108 @@
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>SUM(B16:B17)</f>
         <v>1853</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" ref="C15" si="12">SUM(C16:C17)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" ref="D15" si="13">SUM(D16:D17)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" ref="E15" si="14">SUM(E16:E17)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" ref="F15" si="15">SUM(F16:F17)</f>
         <v>1836</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>936</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>964</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>917</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
         <v>872</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>103</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>109</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>2</v>
@@ -1360,356 +1370,356 @@
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="12">
         <f>(F22-B22)/F22</f>
         <v>-0.30979498861047838</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="7">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6">
         <f t="shared" ref="B22:E22" si="16">+B23+B28+B31+B34</f>
         <v>1725</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f>+F23+F28+F31+F34</f>
         <v>1317</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f>+SUM(B24:B27)</f>
         <v>1211</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f t="shared" ref="C23:F23" si="17">+SUM(C24:C27)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="17"/>
         <v>864</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="5">
         <v>348</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <v>232</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="5">
         <v>427</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <v>313</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="5">
         <v>327</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <v>170</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="5">
         <v>109</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
         <v>149</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f>SUM(B29:B30)</f>
         <v>279</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <f t="shared" ref="C28:F28" si="18">SUM(C29:C30)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="18"/>
         <v>248</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>313</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
         <v>261</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>-34</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
         <v>-13</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f>SUM(B32:B33)</f>
         <v>138</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f t="shared" ref="C31" si="19">SUM(C32:C33)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" ref="D31" si="20">SUM(D32:D33)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" ref="E31" si="21">SUM(E32:E33)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" ref="F31" si="22">SUM(F32:F33)</f>
         <v>84</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>138</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <v>76</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <v>8</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>97</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
         <v>121</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="J35" s="1" t="s">
@@ -1723,893 +1733,893 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="9">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5">
         <v>24072</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
         <v>21847</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="9">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5">
         <v>21992</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <v>20188</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
     </row>
     <row r="39" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="7">
+        <v>52</v>
+      </c>
+      <c r="B39" s="6">
         <f t="shared" ref="B39:E39" si="23">+B37-B38</f>
         <v>2080</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f>+F37-F38</f>
         <v>1659</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="5">
         <v>881</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
         <v>951</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="5">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <v>18</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="9">
-        <v>7</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9">
-        <v>18</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="B43" s="5">
+        <v>-174</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <v>-212</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="9">
-        <v>-174</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9">
-        <v>-212</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="B44" s="5">
+        <v>-134</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <v>-123</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="9">
-        <v>-134</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9">
-        <v>-123</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="5">
+        <v>147</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <v>166</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="9">
-        <v>147</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9">
-        <v>166</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="9">
+      <c r="B46" s="5">
         <v>-44</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
         <v>-26</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
     </row>
     <row r="47" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="7">
+        <v>59</v>
+      </c>
+      <c r="B47" s="6">
         <f t="shared" ref="B47:E47" si="24">SUM(B41:B46)</f>
         <v>683</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f>SUM(F41:F46)</f>
         <v>774</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
     </row>
     <row r="48" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="7">
+        <v>60</v>
+      </c>
+      <c r="B48" s="6">
         <f t="shared" ref="B48:E48" si="25">B39-B47</f>
         <v>1397</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <f>F39-F47</f>
         <v>885</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="9">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="5">
         <v>225</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
         <v>166</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-    </row>
-    <row r="50" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="9">
-        <v>2</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9">
+      <c r="B50" s="5">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
         <v>-10</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
     </row>
     <row r="51" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <f>B48-B49-B50</f>
         <v>1170</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <f t="shared" ref="C51:F51" si="26">C48-C49-C50</f>
         <v>0</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <f t="shared" si="26"/>
         <v>729</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="9">
+        <v>62</v>
+      </c>
+      <c r="B53" s="5">
         <v>550</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
         <v>513</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="9">
+        <v>63</v>
+      </c>
+      <c r="B54" s="5">
         <v>551</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
         <v>514</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
     </row>
     <row r="55" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="14">
+        <v>64</v>
+      </c>
+      <c r="B55" s="11">
         <f>B51/B53</f>
         <v>2.1272727272727274</v>
       </c>
-      <c r="C55" s="14" t="e">
+      <c r="C55" s="11" t="e">
         <f t="shared" ref="C55:F55" si="27">C51/C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D55" s="14" t="e">
+      <c r="D55" s="11" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="14" t="e">
+      <c r="E55" s="11" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="11">
         <f t="shared" si="27"/>
         <v>1.4210526315789473</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
     </row>
     <row r="56" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="14">
+        <v>65</v>
+      </c>
+      <c r="B56" s="11">
         <f>B51/B54</f>
         <v>2.1234119782214158</v>
       </c>
-      <c r="C56" s="14" t="e">
+      <c r="C56" s="11" t="e">
         <f t="shared" ref="C56:F56" si="28">C51/C54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="14" t="e">
+      <c r="D56" s="11" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E56" s="14" t="e">
+      <c r="E56" s="11" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="11">
         <f t="shared" si="28"/>
         <v>1.4182879377431907</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="13">
+        <v>66</v>
+      </c>
+      <c r="B57" s="10">
         <v>0.45</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10">
         <v>0.5</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="J58" s="1" t="s">
@@ -2672,364 +2682,364 @@
     </row>
     <row r="61" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="7">
+        <v>67</v>
+      </c>
+      <c r="B61" s="6">
         <f>B51</f>
         <v>1170</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <f t="shared" ref="C61:F61" si="31">C51</f>
         <v>0</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <f t="shared" si="31"/>
         <v>729</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="5">
         <v>1172</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
         <v>719</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="5">
         <v>259</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
         <v>280</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-    </row>
-    <row r="64" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="6">
-        <v>3</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6">
-        <v>3</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-    </row>
-    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
+      <c r="B65" s="5">
+        <v>47</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
+        <v>-64</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="5">
+        <v>-113</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <v>-136</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="6">
-        <v>47</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6">
-        <v>-64</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-    </row>
-    <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
+      <c r="B67" s="5">
+        <v>65</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <v>66</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="5">
+        <v>-104</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <v>-69</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="5">
+        <v>-11</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
         <v>14</v>
       </c>
-      <c r="B66" s="6">
-        <v>-113</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
-        <v>-136</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-    </row>
-    <row r="67" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="6">
-        <v>65</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
-        <v>66</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="6">
-        <v>-104</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6">
-        <v>-69</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="5">
+        <v>-8</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <v>69</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="6">
-        <v>-11</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <v>14</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-    </row>
-    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="6">
-        <v>-8</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
-        <v>69</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-    </row>
-    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="B71" s="5">
+        <v>-935</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <v>-159</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="6">
-        <v>-935</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6">
-        <v>-159</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+      <c r="B72" s="5">
+        <v>488</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <v>61</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="5">
+        <v>52</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
+        <v>295</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="6">
-        <v>488</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
-        <v>61</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-    </row>
-    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="6">
-        <v>52</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
-        <v>295</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-    </row>
-    <row r="74" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+      <c r="B74" s="5">
+        <v>328</v>
+      </c>
+      <c r="F74" s="5">
+        <v>163</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="6">
-        <v>328</v>
-      </c>
-      <c r="F74" s="6">
-        <v>163</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+      <c r="B75" s="5">
+        <v>-1556</v>
+      </c>
+      <c r="F75" s="5">
+        <v>-713</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="6">
-        <v>-1556</v>
-      </c>
-      <c r="F75" s="6">
-        <v>-713</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+      <c r="B76" s="5">
+        <v>-460</v>
+      </c>
+      <c r="F76" s="5">
+        <v>319</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="6">
-        <v>-460</v>
-      </c>
-      <c r="F76" s="6">
-        <v>319</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>-837</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>-148</v>
       </c>
       <c r="J77" s="1" t="s">
@@ -3040,29 +3050,29 @@
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <f>+SUM(B62:B77)</f>
         <v>-1610</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <f t="shared" ref="C78:F78" si="32">+SUM(C62:C77)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="6">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="32"/>
         <v>700</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="1" t="s">
         <v>2</v>
       </c>
@@ -3076,10 +3086,10 @@
       <c r="A80" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>1368</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="5">
         <v>830</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -3088,12 +3098,12 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="6">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5">
         <v>7228</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>7381</v>
       </c>
       <c r="J81" s="1" t="s">
@@ -3102,12 +3112,12 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5">
         <v>4232</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="5">
         <v>4178</v>
       </c>
       <c r="J82" s="1" t="s">
@@ -3118,10 +3128,10 @@
       <c r="A83" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>11957</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="5">
         <v>11634</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -3130,12 +3140,12 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="6">
+        <v>81</v>
+      </c>
+      <c r="B84" s="5">
         <v>4982</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>4983</v>
       </c>
       <c r="J84" s="1" t="s">
@@ -3144,25 +3154,25 @@
     </row>
     <row r="85" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="7">
+        <v>82</v>
+      </c>
+      <c r="B85" s="6">
         <f>+SUM(B80:B84)</f>
         <v>29767</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <f t="shared" ref="C85:F85" si="33">+SUM(C80:C84)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <f t="shared" si="33"/>
         <v>29006</v>
       </c>
@@ -3172,12 +3182,12 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="9">
+        <v>83</v>
+      </c>
+      <c r="B86" s="5">
         <v>5500</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="5">
         <v>5566</v>
       </c>
       <c r="J86" s="1" t="s">
@@ -3186,12 +3196,12 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="9">
+        <v>84</v>
+      </c>
+      <c r="B87" s="5">
         <v>6341</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="5">
         <v>7051</v>
       </c>
       <c r="J87" s="1" t="s">
@@ -3200,12 +3210,12 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="9">
+        <v>85</v>
+      </c>
+      <c r="B88" s="5">
         <v>1211</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>1285</v>
       </c>
       <c r="J88" s="1" t="s">
@@ -3214,12 +3224,12 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="9">
+        <v>86</v>
+      </c>
+      <c r="B89" s="5">
         <v>1304</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="5">
         <v>1327</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -3228,25 +3238,25 @@
     </row>
     <row r="90" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="7">
+        <v>87</v>
+      </c>
+      <c r="B90" s="6">
         <f>+SUM(B86:B89)</f>
         <v>14356</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <f t="shared" ref="C90:F90" si="34">+SUM(C86:C89)</f>
         <v>0</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <f t="shared" si="34"/>
         <v>15229</v>
       </c>
@@ -3256,12 +3266,12 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="9">
+        <v>88</v>
+      </c>
+      <c r="B91" s="5">
         <v>573</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>573</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -3270,12 +3280,12 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="9">
+        <v>89</v>
+      </c>
+      <c r="B92" s="5">
         <v>5876</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>5940</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -3284,12 +3294,12 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="9">
+        <v>90</v>
+      </c>
+      <c r="B93" s="5">
         <v>20223</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>20298</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -3298,26 +3308,26 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1360</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1421</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="9">
-        <v>1360</v>
-      </c>
-      <c r="F94" s="6">
-        <v>1421</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>-17524</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>-17636</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -3326,25 +3336,25 @@
     </row>
     <row r="96" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="7">
+        <v>93</v>
+      </c>
+      <c r="B96" s="6">
         <f>+SUM(B91:B95)</f>
         <v>10508</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <f t="shared" ref="C96:F96" si="35">+SUM(C91:C95)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <f t="shared" si="35"/>
         <v>10596</v>
       </c>
@@ -3356,23 +3366,23 @@
       <c r="A97" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <f>+B96+B90+B85</f>
         <v>54631</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <f t="shared" ref="C97:F97" si="36">+C96+C90+C85</f>
         <v>0</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <f t="shared" si="36"/>
         <v>54831</v>
       </c>
@@ -3387,55 +3397,55 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
+      <c r="A99" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="5">
+        <v>105</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1734</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="9">
-        <v>105</v>
-      </c>
-      <c r="F99" s="9">
-        <v>1734</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
+      <c r="B100" s="5">
+        <v>6313</v>
+      </c>
+      <c r="F100" s="5">
+        <v>5599</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="9">
-        <v>6313</v>
-      </c>
-      <c r="F100" s="9">
-        <v>5599</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
+      <c r="B101" s="5">
+        <v>7867</v>
+      </c>
+      <c r="F101" s="5">
+        <v>8176</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="9">
-        <v>7867</v>
-      </c>
-      <c r="F101" s="9">
-        <v>8176</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="9">
+      <c r="B102" s="5">
         <v>4076</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="5">
         <v>3922</v>
       </c>
       <c r="J102" s="1" t="s">
@@ -3443,13 +3453,13 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="9">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="5">
         <v>300</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="5">
         <v>298</v>
       </c>
       <c r="J103" s="1" t="s">
@@ -3457,13 +3467,13 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
+      <c r="A104" t="s">
         <v>25</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="5">
         <v>1</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="5">
         <v>1</v>
       </c>
       <c r="J104" s="1" t="s">
@@ -3472,25 +3482,25 @@
     </row>
     <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="7">
+        <v>98</v>
+      </c>
+      <c r="B105" s="6">
         <f>+SUM(B99:B104)</f>
         <v>18662</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <f t="shared" ref="C105:F105" si="37">+SUM(C99:C104)</f>
         <v>0</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="6">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="6">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <f t="shared" si="37"/>
         <v>19730</v>
       </c>
@@ -3499,13 +3509,13 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+      <c r="A106" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="5">
         <v>8259</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106" s="5">
         <v>8245</v>
       </c>
       <c r="J106" s="1" t="s">
@@ -3513,27 +3523,27 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="5">
+        <v>1309</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1291</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="9">
-        <v>1309</v>
-      </c>
-      <c r="F107" s="9">
-        <v>1291</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="9">
+      <c r="B108" s="5">
         <v>931</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="5">
         <v>1010</v>
       </c>
       <c r="J108" s="1" t="s">
@@ -3541,13 +3551,13 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
+      <c r="A109" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="5">
         <v>1005</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109" s="5">
         <v>1016</v>
       </c>
       <c r="J109" s="1" t="s">
@@ -3556,25 +3566,25 @@
     </row>
     <row r="110" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" s="7">
+        <v>106</v>
+      </c>
+      <c r="B110" s="6">
         <f>+SUM(B106:B109)</f>
         <v>11504</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <f t="shared" ref="C110:F110" si="38">+SUM(C106:C109)</f>
         <v>0</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <f t="shared" si="38"/>
         <v>11562</v>
       </c>
@@ -3584,25 +3594,25 @@
     </row>
     <row r="111" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" s="7">
+        <v>102</v>
+      </c>
+      <c r="B111" s="6">
         <f>+B110+B105</f>
         <v>30166</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="6">
         <f t="shared" ref="C111:F111" si="39">+C110+C105</f>
         <v>0</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="6">
         <f t="shared" si="39"/>
         <v>31292</v>
       </c>
@@ -3611,13 +3621,13 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="9">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="5">
         <v>320</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="5">
         <v>307</v>
       </c>
       <c r="J112" s="1" t="s">
@@ -3625,8 +3635,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="9"/>
-      <c r="F113" s="9"/>
+      <c r="B113" s="5"/>
+      <c r="F113" s="5"/>
       <c r="J113" s="1" t="s">
         <v>2</v>
       </c>
@@ -3635,10 +3645,10 @@
       <c r="A114" t="s">
         <v>27</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="5">
         <v>3154</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="5">
         <v>2720</v>
       </c>
       <c r="J114" s="1" t="s">
@@ -3647,12 +3657,12 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="9">
+        <v>104</v>
+      </c>
+      <c r="B115" s="5">
         <v>23465</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F115" s="5">
         <v>23069</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -3661,12 +3671,12 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="9">
+        <v>105</v>
+      </c>
+      <c r="B116" s="5">
         <v>-2487</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="5">
         <v>-2570</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -3677,10 +3687,10 @@
       <c r="A117" t="s">
         <v>29</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="5">
         <v>13</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="5">
         <v>13</v>
       </c>
       <c r="J117" s="1" t="s">
@@ -3691,23 +3701,23 @@
       <c r="A118" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="6">
         <f>+SUM(B114:B117)</f>
         <v>24145</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <f t="shared" ref="C118:F118" si="40">+SUM(C114:C117)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="6">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="6">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="6">
         <f t="shared" si="40"/>
         <v>23232</v>
       </c>
@@ -3717,25 +3727,25 @@
     </row>
     <row r="119" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B119" s="7">
+        <v>107</v>
+      </c>
+      <c r="B119" s="6">
         <f>+B118+B112+B111</f>
         <v>54631</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="6">
         <f t="shared" ref="C119:F119" si="41">+C118+C112+C111</f>
         <v>0</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="6">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="6">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="6">
         <f t="shared" si="41"/>
         <v>54831</v>
       </c>
@@ -3780,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80BCE32-EBB1-4332-BAC6-9431E8A89844}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3873,7 +3883,7 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="4"/>
@@ -3887,7 +3897,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -3896,22 +3906,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3921,12 +3931,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3936,12 +3946,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3955,7 +3965,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -3965,7 +3975,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -3974,7 +3984,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -3982,7 +3992,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F26" t="s">
@@ -3990,7 +4000,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F27" t="s">
@@ -3998,11 +4008,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -4011,19 +4018,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -4032,19 +4039,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -4052,7 +4059,7 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4078,10 +4085,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -4089,10 +4096,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
@@ -4100,10 +4107,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/ADM/ADM.xlsx
+++ b/ADM/ADM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\ADM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9DF607-5A66-4389-866A-2839264DD253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B7016-6EE2-4021-8AEA-CAFFAD8ABD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1510" windowWidth="9160" windowHeight="18520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17320" yWindow="0" windowWidth="20100" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="158">
   <si>
     <t>use for scripting</t>
   </si>
@@ -510,12 +510,18 @@
   </si>
   <si>
     <t>Q422</t>
+  </si>
+  <si>
+    <t>Loss on debt extinguishment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,12 +578,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -592,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,11 +637,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,16 +663,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>687294</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:colOff>5229</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>107985</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -675,8 +687,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9917545" y="25400"/>
-          <a:ext cx="12700" cy="23180964"/>
+          <a:off x="10862235" y="17930"/>
+          <a:ext cx="12700" cy="23435643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1079,17 +1091,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9C194D-55E7-45EF-80C0-6A51647FC0FD}">
-  <dimension ref="A1:AP158"/>
+  <dimension ref="A1:AP159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
@@ -1187,9 +1201,7 @@
       <c r="R2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="4">
-        <v>2023</v>
-      </c>
+      <c r="S2" s="4"/>
       <c r="T2" s="19">
         <v>2021</v>
       </c>
@@ -1256,7 +1268,7 @@
         <f>(C6-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="12" t="e">
+      <c r="D5" s="22" t="e">
         <f>(D6-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
@@ -1268,11 +1280,11 @@
         <f t="shared" si="0"/>
         <v>0.25178637590642039</v>
       </c>
-      <c r="G5" s="12" t="e">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="12" t="e">
+        <v>0.19008985431387942</v>
+      </c>
+      <c r="H5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1284,9 +1296,9 @@
         <f t="shared" si="0"/>
         <v>1.7843551797040169E-2</v>
       </c>
-      <c r="K5" s="12" t="e">
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-7.6748277378683477E-2</v>
       </c>
       <c r="L5" s="12" t="e">
         <f t="shared" si="0"/>
@@ -1322,9 +1334,9 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
+        <v>22926</v>
+      </c>
+      <c r="D6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1338,9 +1350,9 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+        <v>27284</v>
+      </c>
+      <c r="H6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1382,11 +1394,11 @@
       </c>
       <c r="T6" s="6">
         <f t="shared" ref="T6:U6" si="6">+T7+T12+T15+T18</f>
-        <v>0</v>
+        <v>41819</v>
       </c>
       <c r="U6" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50934</v>
       </c>
       <c r="V6" s="6">
         <f t="shared" ref="V6:W6" si="7">+V7+V12+V15+V18</f>
@@ -1407,9 +1419,9 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
+        <v>18271</v>
+      </c>
+      <c r="D7" s="23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1423,9 +1435,9 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+        <v>21429</v>
+      </c>
+      <c r="H7" s="23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1467,11 +1479,11 @@
       </c>
       <c r="T7" s="6">
         <f t="shared" ref="T7:U7" si="14">+SUM(T8:T11)</f>
-        <v>0</v>
+        <v>33278</v>
       </c>
       <c r="U7" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>39682</v>
       </c>
       <c r="V7" s="6">
         <f t="shared" ref="V7:W7" si="15">+SUM(V8:V11)</f>
@@ -1489,14 +1501,18 @@
       <c r="B8" s="5">
         <v>10146</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5">
+        <v>12815</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
         <v>11847</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5">
+        <v>14333</v>
+      </c>
+      <c r="H8" s="24"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5">
         <v>11695</v>
@@ -1521,8 +1537,14 @@
       <c r="R8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="T8" s="5">
+        <f t="shared" ref="T8:T11" si="16">SUM(B8:E8)</f>
+        <v>22961</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" ref="U8:U11" si="17">SUM(F8:I8)</f>
+        <v>26180</v>
+      </c>
       <c r="V8" s="5">
         <f>SUM(J8:M8)</f>
         <v>35259</v>
@@ -1539,14 +1561,18 @@
       <c r="B9" s="5">
         <v>2742</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5">
+        <v>2827</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
         <v>3222</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5">
+        <v>3362</v>
+      </c>
+      <c r="H9" s="24"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5">
         <v>3683</v>
@@ -1571,14 +1597,20 @@
       <c r="R9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="T9" s="5">
+        <f t="shared" si="16"/>
+        <v>5569</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="17"/>
+        <v>6584</v>
+      </c>
       <c r="V9" s="5">
-        <f t="shared" ref="V9:V11" si="16">SUM(J9:M9)</f>
+        <f t="shared" ref="V9:V11" si="18">SUM(J9:M9)</f>
         <v>10515</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" ref="W9:W11" si="17">SUM(N9:Q9)</f>
+        <f t="shared" ref="W9:W11" si="19">SUM(N9:Q9)</f>
         <v>9046</v>
       </c>
     </row>
@@ -1589,14 +1621,18 @@
       <c r="B10" s="5">
         <v>2119</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5">
+        <v>2629</v>
+      </c>
+      <c r="D10" s="24"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
         <v>3184</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5">
+        <v>3734</v>
+      </c>
+      <c r="H10" s="24"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5">
         <v>3201</v>
@@ -1621,14 +1657,20 @@
       <c r="R10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="T10" s="5">
+        <f t="shared" si="16"/>
+        <v>4748</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="17"/>
+        <v>6918</v>
+      </c>
       <c r="V10" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9128</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7999</v>
       </c>
     </row>
@@ -1638,11 +1680,11 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1655,14 +1697,20 @@
       <c r="R11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="T11" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="V11" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -1671,35 +1719,35 @@
         <v>31</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" ref="B12:I12" si="18">SUM(B13:B14)</f>
+        <f t="shared" ref="B12:I12" si="20">SUM(B13:B14)</f>
         <v>2223</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>2820</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3366</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>3751</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1707,27 +1755,27 @@
         <v>3537</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" ref="K12" si="19">SUM(K13:K14)</f>
+        <f t="shared" ref="K12" si="21">SUM(K13:K14)</f>
         <v>3381</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" ref="L12" si="20">SUM(L13:L14)</f>
+        <f t="shared" ref="L12" si="22">SUM(L13:L14)</f>
         <v>3325</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" ref="M12" si="21">SUM(M13:M14)</f>
+        <f t="shared" ref="M12" si="23">SUM(M13:M14)</f>
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" ref="N12:O12" si="22">SUM(N13:N14)</f>
+        <f t="shared" ref="N12:O12" si="24">SUM(N13:N14)</f>
         <v>2683</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2894</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" ref="P12" si="23">SUM(P13:P14)</f>
+        <f t="shared" ref="P12" si="25">SUM(P13:P14)</f>
         <v>2908</v>
       </c>
       <c r="Q12" s="6"/>
@@ -1735,19 +1783,19 @@
         <v>2</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" ref="T12:U12" si="24">SUM(T13:T14)</f>
-        <v>0</v>
+        <f t="shared" ref="T12:U12" si="26">SUM(T13:T14)</f>
+        <v>5043</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>7117</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" ref="V12:W12" si="25">SUM(V13:V14)</f>
+        <f t="shared" ref="V12:W12" si="27">SUM(V13:V14)</f>
         <v>10243</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8485</v>
       </c>
     </row>
@@ -1758,14 +1806,18 @@
       <c r="B13" s="5">
         <v>1745</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5">
+        <v>1846</v>
+      </c>
+      <c r="D13" s="24"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
         <v>2498</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="5">
+        <v>2519</v>
+      </c>
+      <c r="H13" s="24"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5">
         <v>2737</v>
@@ -1790,14 +1842,20 @@
       <c r="R13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="T13" s="5">
+        <f t="shared" ref="T13:T14" si="28">SUM(B13:E13)</f>
+        <v>3591</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" ref="U13:U14" si="29">SUM(F13:I13)</f>
+        <v>5017</v>
+      </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13:V14" si="26">SUM(J13:M13)</f>
+        <f t="shared" ref="V13:V14" si="30">SUM(J13:M13)</f>
         <v>7660</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" ref="W13:W14" si="27">SUM(N13:Q13)</f>
+        <f t="shared" ref="W13:W14" si="31">SUM(N13:Q13)</f>
         <v>6559</v>
       </c>
     </row>
@@ -1808,14 +1866,18 @@
       <c r="B14" s="5">
         <v>478</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5">
+        <v>974</v>
+      </c>
+      <c r="D14" s="24"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
         <v>868</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="5">
+        <v>1232</v>
+      </c>
+      <c r="H14" s="24"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5">
         <v>800</v>
@@ -1840,14 +1902,20 @@
       <c r="R14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="T14" s="5">
+        <f t="shared" si="28"/>
+        <v>1452</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="29"/>
+        <v>2100</v>
+      </c>
       <c r="V14" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2583</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1926</v>
       </c>
     </row>
@@ -1856,35 +1924,35 @@
         <v>32</v>
       </c>
       <c r="B15" s="6">
-        <f t="shared" ref="B15:I15" si="28">SUM(B16:B17)</f>
+        <f t="shared" ref="B15:I15" si="32">SUM(B16:B17)</f>
         <v>1563</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
+        <v>1733</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1924</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
+        <v>2003</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1892,27 +1960,27 @@
         <v>1853</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15" si="29">SUM(K16:K17)</f>
+        <f t="shared" ref="K15" si="33">SUM(K16:K17)</f>
         <v>1853</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15" si="30">SUM(L16:L17)</f>
+        <f t="shared" ref="L15" si="34">SUM(L16:L17)</f>
         <v>1784</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" ref="M15" si="31">SUM(M16:M17)</f>
+        <f t="shared" ref="M15" si="35">SUM(M16:M17)</f>
         <v>0</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15:O15" si="32">SUM(N16:N17)</f>
+        <f t="shared" ref="N15:O15" si="36">SUM(N16:N17)</f>
         <v>1836</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1908</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" ref="P15" si="33">SUM(P16:P17)</f>
+        <f t="shared" ref="P15" si="37">SUM(P16:P17)</f>
         <v>1831</v>
       </c>
       <c r="Q15" s="6"/>
@@ -1920,19 +1988,19 @@
         <v>2</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" ref="T15:U15" si="34">SUM(T16:T17)</f>
-        <v>0</v>
+        <f t="shared" ref="T15:U15" si="38">SUM(T16:T17)</f>
+        <v>3296</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>3927</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" ref="V15:W15" si="35">SUM(V16:V17)</f>
+        <f t="shared" ref="V15:W15" si="39">SUM(V16:V17)</f>
         <v>5490</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5575</v>
       </c>
     </row>
@@ -1943,14 +2011,18 @@
       <c r="B16" s="5">
         <v>754</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5">
+        <v>848</v>
+      </c>
+      <c r="D16" s="24"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
         <v>958</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5">
+        <v>1020</v>
+      </c>
+      <c r="H16" s="24"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5">
         <v>936</v>
@@ -1975,14 +2047,20 @@
       <c r="R16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="T16" s="5">
+        <f t="shared" ref="T16:T18" si="40">SUM(B16:E16)</f>
+        <v>1602</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" ref="U16:U18" si="41">SUM(F16:I16)</f>
+        <v>1978</v>
+      </c>
       <c r="V16" s="5">
-        <f t="shared" ref="V16:V18" si="36">SUM(J16:M16)</f>
+        <f t="shared" ref="V16:V18" si="42">SUM(J16:M16)</f>
         <v>2802</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" ref="W16:W18" si="37">SUM(N16:Q16)</f>
+        <f t="shared" ref="W16:W18" si="43">SUM(N16:Q16)</f>
         <v>3029</v>
       </c>
     </row>
@@ -1993,14 +2071,18 @@
       <c r="B17" s="5">
         <v>809</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5">
+        <v>885</v>
+      </c>
+      <c r="D17" s="24"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
         <v>966</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5">
+        <v>983</v>
+      </c>
+      <c r="H17" s="24"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5">
         <v>917</v>
@@ -2025,14 +2107,20 @@
       <c r="R17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="T17" s="5">
+        <f t="shared" si="40"/>
+        <v>1694</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="41"/>
+        <v>1949</v>
+      </c>
       <c r="V17" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>2688</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>2546</v>
       </c>
     </row>
@@ -2043,14 +2131,18 @@
       <c r="B18" s="5">
         <v>100</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5">
+        <v>102</v>
+      </c>
+      <c r="D18" s="24"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
         <v>107</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5">
+        <v>101</v>
+      </c>
+      <c r="H18" s="24"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5">
         <v>103</v>
@@ -2075,14 +2167,20 @@
       <c r="R18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="T18" s="5">
+        <f t="shared" si="40"/>
+        <v>202</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="41"/>
+        <v>208</v>
+      </c>
       <c r="V18" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>322</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>331</v>
       </c>
     </row>
@@ -2139,39 +2237,39 @@
         <v>#REF!</v>
       </c>
       <c r="E21" s="12" t="e">
-        <f t="shared" ref="E21:M21" si="38">(E22-A22)/A22</f>
+        <f t="shared" ref="E21:M21" si="44">(E22-A22)/A22</f>
         <v>#VALUE!</v>
       </c>
       <c r="F21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="12" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="12">
@@ -2195,51 +2293,51 @@
         <v>53</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" ref="B22:I22" si="39">+B23+B28+B31+B34</f>
+        <f t="shared" ref="B22:I22" si="45">+B23+B28+B31+B34</f>
         <v>0</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" ref="J22:M22" si="40">+J23+J28+J31+J34</f>
+        <f t="shared" ref="J22:M22" si="46">+J23+J28+J31+J34</f>
         <v>1725</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1628</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" ref="L22" si="41">+L23+L28+L31+L34</f>
+        <f t="shared" ref="L22" si="47">+L23+L28+L31+L34</f>
         <v>1446</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N22" s="6">
@@ -2259,14 +2357,20 @@
         <v>2</v>
       </c>
       <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="T22" s="6">
+        <f t="shared" ref="T22:U22" si="48">+T23+T28+T31+T34</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
       <c r="V22" s="6">
-        <f t="shared" ref="V22:W22" si="42">+V23+V28+V31+V34</f>
+        <f t="shared" ref="V22:W22" si="49">+V23+V28+V31+V34</f>
         <v>4799</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>3358</v>
       </c>
     </row>
@@ -2275,35 +2379,35 @@
         <v>30</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" ref="B23:I23" si="43">+SUM(B24:B27)</f>
+        <f t="shared" ref="B23:I23" si="50">+SUM(B24:B27)</f>
         <v>0</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2311,27 +2415,27 @@
         <v>1211</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ref="K23:N23" si="44">+SUM(K24:K27)</f>
+        <f t="shared" ref="K23:N23" si="51">+SUM(K24:K27)</f>
         <v>1054</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ref="L23" si="45">+SUM(L24:L27)</f>
+        <f t="shared" ref="L23" si="52">+SUM(L24:L27)</f>
         <v>848</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>864</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" ref="O23:P23" si="46">+SUM(O24:O27)</f>
+        <f t="shared" ref="O23:P23" si="53">+SUM(O24:O27)</f>
         <v>459</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>480</v>
       </c>
       <c r="Q23" s="6"/>
@@ -2339,14 +2443,20 @@
         <v>2</v>
       </c>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="T23" s="6">
+        <f t="shared" ref="T23:U23" si="54">+SUM(T24:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="V23" s="6">
-        <f t="shared" ref="V23:W23" si="47">+SUM(V24:V27)</f>
+        <f t="shared" ref="V23:W23" si="55">+SUM(V24:V27)</f>
         <v>3113</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>1803</v>
       </c>
     </row>
@@ -2386,14 +2496,20 @@
         <v>2</v>
       </c>
       <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="T24" s="5">
+        <f t="shared" ref="T24:T27" si="56">SUM(B24:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" ref="U24:U27" si="57">SUM(F24:I24)</f>
+        <v>0</v>
+      </c>
       <c r="V24" s="5">
-        <f t="shared" ref="V24:V27" si="48">SUM(J24:M24)</f>
+        <f t="shared" ref="V24:V27" si="58">SUM(J24:M24)</f>
         <v>954</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" ref="W24:W27" si="49">SUM(N24:Q24)</f>
+        <f t="shared" ref="W24:W27" si="59">SUM(N24:Q24)</f>
         <v>461</v>
       </c>
     </row>
@@ -2433,14 +2549,20 @@
         <v>2</v>
       </c>
       <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="T25" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="V25" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>901</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>632</v>
       </c>
     </row>
@@ -2480,14 +2602,20 @@
         <v>2</v>
       </c>
       <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
+      <c r="T26" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="V26" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>1026</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>431</v>
       </c>
     </row>
@@ -2527,14 +2655,20 @@
         <v>2</v>
       </c>
       <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="T27" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="V27" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>232</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>279</v>
       </c>
     </row>
@@ -2543,35 +2677,35 @@
         <v>31</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" ref="B28:I28" si="50">SUM(B29:B30)</f>
+        <f t="shared" ref="B28:I28" si="60">SUM(B29:B30)</f>
         <v>0</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2579,27 +2713,27 @@
         <v>279</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ref="K28:P28" si="51">SUM(K29:K30)</f>
+        <f t="shared" ref="K28:P28" si="61">SUM(K29:K30)</f>
         <v>319</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>468</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>248</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>357</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>452</v>
       </c>
       <c r="Q28" s="6"/>
@@ -2607,14 +2741,20 @@
         <v>2</v>
       </c>
       <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+      <c r="T28" s="6">
+        <f t="shared" ref="T28:U28" si="62">SUM(T29:T30)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28:W28" si="52">SUM(V29:V30)</f>
+        <f t="shared" ref="V28:W28" si="63">SUM(V29:V30)</f>
         <v>1066</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>1057</v>
       </c>
     </row>
@@ -2654,14 +2794,20 @@
         <v>2</v>
       </c>
       <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="T29" s="5">
+        <f t="shared" ref="T29:T34" si="64">SUM(B29:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" ref="U29:U30" si="65">SUM(F29:I29)</f>
+        <v>0</v>
+      </c>
       <c r="V29" s="5">
-        <f t="shared" ref="V29:V30" si="53">SUM(J29:M29)</f>
+        <f t="shared" ref="V29:V30" si="66">SUM(J29:M29)</f>
         <v>1017</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" ref="W29:W30" si="54">SUM(N29:Q29)</f>
+        <f t="shared" ref="W29:W30" si="67">SUM(N29:Q29)</f>
         <v>1039</v>
       </c>
     </row>
@@ -2701,14 +2847,20 @@
         <v>2</v>
       </c>
       <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
+      <c r="T30" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="V30" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>49</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>18</v>
       </c>
     </row>
@@ -2717,35 +2869,35 @@
         <v>32</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" ref="B31:I31" si="55">SUM(B32:B33)</f>
+        <f t="shared" ref="B31:I31" si="68">SUM(B32:B33)</f>
         <v>0</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2753,27 +2905,27 @@
         <v>138</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ref="K31:L31" si="56">SUM(K32:K33)</f>
+        <f t="shared" ref="K31:L31" si="69">SUM(K32:K33)</f>
         <v>169</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>130</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" ref="M31" si="57">SUM(M32:M33)</f>
+        <f t="shared" ref="M31" si="70">SUM(M32:M33)</f>
         <v>0</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31:P31" si="58">SUM(N32:N33)</f>
+        <f t="shared" ref="N31:P31" si="71">SUM(N32:N33)</f>
         <v>84</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>109</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>105</v>
       </c>
       <c r="Q31" s="6"/>
@@ -2781,14 +2933,20 @@
         <v>2</v>
       </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="T31" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" ref="U31" si="72">SUM(U32:U33)</f>
+        <v>0</v>
+      </c>
       <c r="V31" s="6">
-        <f t="shared" ref="V31:W31" si="59">SUM(V32:V33)</f>
+        <f t="shared" ref="V31:W31" si="73">SUM(V32:V33)</f>
         <v>437</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="73"/>
         <v>298</v>
       </c>
     </row>
@@ -2828,14 +2986,20 @@
         <v>2</v>
       </c>
       <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="T32" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" ref="U32:U34" si="74">SUM(F32:I32)</f>
+        <v>0</v>
+      </c>
       <c r="V32" s="5">
-        <f t="shared" ref="V32:V40" si="60">SUM(J32:M32)</f>
+        <f t="shared" ref="V32:V40" si="75">SUM(J32:M32)</f>
         <v>441</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" ref="W32:W40" si="61">SUM(N32:Q32)</f>
+        <f t="shared" ref="W32:W40" si="76">SUM(N32:Q32)</f>
         <v>265</v>
       </c>
     </row>
@@ -2875,14 +3039,20 @@
         <v>2</v>
       </c>
       <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
+      <c r="T33" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="V33" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="75"/>
         <v>-4</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="76"/>
         <v>33</v>
       </c>
     </row>
@@ -2920,14 +3090,20 @@
         <v>2</v>
       </c>
       <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
+      <c r="T34" s="5">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="V34" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="75"/>
         <v>183</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="76"/>
         <v>200</v>
       </c>
     </row>
@@ -2958,35 +3134,35 @@
     </row>
     <row r="36" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="17" t="str">
-        <f t="shared" ref="B36:J36" si="62">B2</f>
+        <f t="shared" ref="B36:I36" si="77">B2</f>
         <v>Q121</v>
       </c>
       <c r="C36" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>Q221</v>
       </c>
       <c r="D36" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>Q321</v>
       </c>
       <c r="E36" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>Q421</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>Q122</v>
       </c>
       <c r="G36" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>Q222</v>
       </c>
       <c r="H36" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>Q322</v>
       </c>
       <c r="I36" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>Q422</v>
       </c>
       <c r="J36" s="17" t="str">
@@ -2994,47 +3170,51 @@
         <v>Q123</v>
       </c>
       <c r="K36" s="17" t="str">
-        <f t="shared" ref="K36:W36" si="63">K2</f>
+        <f t="shared" ref="K36:W36" si="78">K2</f>
         <v>Q223</v>
       </c>
       <c r="L36" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>Q323</v>
       </c>
       <c r="M36" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>Q423</v>
       </c>
       <c r="N36" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>Q124</v>
       </c>
       <c r="O36" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>Q224</v>
       </c>
       <c r="P36" s="17" t="str">
-        <f t="shared" ref="P36" si="64">P2</f>
+        <f t="shared" ref="P36" si="79">P2</f>
         <v>Q324</v>
       </c>
       <c r="Q36" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>Q424</v>
       </c>
       <c r="R36" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>xxx</v>
       </c>
-      <c r="S36" s="17">
-        <f t="shared" si="63"/>
+      <c r="T36" s="17">
+        <f t="shared" ref="T36:U36" si="80">T2</f>
+        <v>2021</v>
+      </c>
+      <c r="U36" s="17">
+        <f t="shared" si="80"/>
+        <v>2022</v>
+      </c>
+      <c r="V36" s="17">
+        <f t="shared" si="78"/>
         <v>2023</v>
       </c>
-      <c r="V36" s="17">
-        <f t="shared" si="63"/>
-        <v>2023</v>
-      </c>
       <c r="W36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>2024</v>
       </c>
     </row>
@@ -3042,65 +3222,61 @@
       <c r="R37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V37" s="5">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
     </row>
     <row r="38" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="12" t="e">
-        <f t="shared" ref="B38:F38" si="65">(B39-#REF!)/#REF!</f>
+        <f t="shared" ref="B38" si="81">(B39-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="C38" s="12" t="e">
-        <f t="shared" ref="C38:F38" si="66">(C39-#REF!)/#REF!</f>
+        <f t="shared" ref="C38" si="82">(C39-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D38" s="12" t="e">
-        <f t="shared" ref="D38:F38" si="67">(D39-#REF!)/#REF!</f>
+        <f t="shared" ref="D38:E38" si="83">(D39-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E38" s="12" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>#REF!</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" ref="F38:M38" si="68">(F39-B39)/B39</f>
+        <f t="shared" ref="F38:M38" si="84">(F39-B39)/B39</f>
         <v>0.25178637590642039</v>
       </c>
-      <c r="G38" s="12" t="e">
-        <f t="shared" si="68"/>
+      <c r="G38" s="12">
+        <f t="shared" si="84"/>
+        <v>0.19008985431387942</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="84"/>
+        <v>0.21352015732546706</v>
+      </c>
+      <c r="I38" s="12" t="e">
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="12" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="12" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J38" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="84"/>
         <v>1.7843551797040169E-2</v>
       </c>
-      <c r="K38" s="12" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="12" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
+      <c r="K38" s="12">
+        <f t="shared" si="84"/>
+        <v>-7.6748277378683477E-2</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="84"/>
+        <v>-0.12105497710975165</v>
       </c>
       <c r="M38" s="12" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="12">
@@ -3118,13 +3294,21 @@
       <c r="R38" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="V38" s="5" t="e">
-        <f t="shared" si="60"/>
+      <c r="T38" s="20" t="e">
+        <f t="shared" ref="T38:V38" si="85">(T39-S39)/S39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W38" s="5">
-        <f t="shared" si="61"/>
-        <v>-0.29025591410725698</v>
+      <c r="U38" s="20">
+        <f t="shared" si="85"/>
+        <v>0.21650927460222977</v>
+      </c>
+      <c r="V38" s="20">
+        <f t="shared" si="85"/>
+        <v>-6.162635386222675E-2</v>
+      </c>
+      <c r="W38" s="20">
+        <f>(W39-V39)/V39</f>
+        <v>-9.7594317685358742E-2</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.35">
@@ -3134,14 +3318,22 @@
       <c r="B39" s="5">
         <v>18893</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="5">
+        <v>22926</v>
+      </c>
+      <c r="D39" s="5">
+        <v>20340</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
         <v>23650</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="G39" s="5">
+        <v>27284</v>
+      </c>
+      <c r="H39" s="5">
+        <v>24683</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5">
         <v>24072</v>
@@ -3167,14 +3359,20 @@
         <v>2</v>
       </c>
       <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="T39" s="5">
+        <f>SUM(B39:E39)</f>
+        <v>62159</v>
+      </c>
+      <c r="U39" s="5">
+        <f>SUM(F39:I39)</f>
+        <v>75617</v>
+      </c>
       <c r="V39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="75"/>
         <v>70957</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="76"/>
         <v>64032</v>
       </c>
       <c r="X39" s="5"/>
@@ -3204,14 +3402,22 @@
       <c r="B40" s="5">
         <v>17345</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="5">
+        <v>21463</v>
+      </c>
+      <c r="D40" s="5">
+        <v>19014</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
         <v>21753</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="G40" s="5">
+        <v>25184</v>
+      </c>
+      <c r="H40" s="5">
+        <v>22872</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5">
         <v>21992</v>
@@ -3237,14 +3443,20 @@
         <v>2</v>
       </c>
       <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
+      <c r="T40" s="5">
+        <f>SUM(B40:E40)</f>
+        <v>57822</v>
+      </c>
+      <c r="U40" s="5">
+        <f>SUM(F40:I40)</f>
+        <v>69809</v>
+      </c>
       <c r="V40" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="75"/>
         <v>65184</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="76"/>
         <v>59612</v>
       </c>
       <c r="X40" s="5"/>
@@ -3272,51 +3484,51 @@
         <v>52</v>
       </c>
       <c r="B41" s="6">
-        <f t="shared" ref="B41:I41" si="69">+B39-B40</f>
+        <f t="shared" ref="B41:I41" si="86">+B39-B40</f>
         <v>1548</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>1463</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>1326</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="86"/>
         <v>1897</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>2100</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>1811</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" ref="J41:M41" si="70">+J39-J40</f>
+        <f t="shared" ref="J41:M41" si="87">+J39-J40</f>
         <v>2080</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>1883</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>1810</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N41" s="6">
@@ -3336,14 +3548,20 @@
         <v>2</v>
       </c>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
+      <c r="T41" s="6">
+        <f t="shared" ref="T41:U41" si="88">+T39-T40</f>
+        <v>4337</v>
+      </c>
+      <c r="U41" s="6">
+        <f t="shared" si="88"/>
+        <v>5808</v>
+      </c>
       <c r="V41" s="6">
-        <f t="shared" ref="V41:W41" si="71">+V39-V40</f>
+        <f t="shared" ref="V41:W41" si="89">+V39-V40</f>
         <v>5773</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="89"/>
         <v>4420</v>
       </c>
       <c r="X41" s="6"/>
@@ -3370,40 +3588,52 @@
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="12" t="e">
+        <f t="shared" ref="B42:F42" si="90">(B41-#REF!)/B41</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C42" s="12" t="e">
+        <f t="shared" ref="C42:F42" si="91">(C41-#REF!)/C41</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="12" t="e">
+        <f t="shared" ref="D42:F42" si="92">(D41-#REF!)/D41</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E42" s="12" t="e">
+        <f t="shared" si="92"/>
+        <v>#REF!</v>
+      </c>
       <c r="F42" s="12">
-        <f t="shared" ref="F42:M42" si="72">(F41-B41)/F41</f>
+        <f t="shared" ref="F42:M42" si="93">(F41-B41)/F41</f>
         <v>0.18397469688982604</v>
       </c>
-      <c r="G42" s="12" t="e">
-        <f t="shared" si="72"/>
+      <c r="G42" s="12">
+        <f t="shared" si="93"/>
+        <v>0.30333333333333334</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="93"/>
+        <v>0.26780784097183874</v>
+      </c>
+      <c r="I42" s="12" t="e">
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="12" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="12" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J42" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>8.7980769230769237E-2</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="72"/>
-        <v>1</v>
+        <f t="shared" si="93"/>
+        <v>-0.11524163568773234</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="72"/>
-        <v>1</v>
+        <f t="shared" si="93"/>
+        <v>-5.5248618784530391E-4</v>
       </c>
       <c r="M42" s="12" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="12">
@@ -3489,14 +3719,22 @@
       <c r="B44" s="5">
         <v>749</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="5">
+        <v>739</v>
+      </c>
+      <c r="D44" s="5">
+        <v>720</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
         <v>829</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="G44" s="5">
+        <v>814</v>
+      </c>
+      <c r="H44" s="5">
+        <v>818</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5">
         <v>881</v>
@@ -3522,14 +3760,20 @@
         <v>2</v>
       </c>
       <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
+      <c r="T44" s="5">
+        <f t="shared" ref="T44:T49" si="94">SUM(B44:E44)</f>
+        <v>2208</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" ref="U44:U49" si="95">SUM(F44:I44)</f>
+        <v>2461</v>
+      </c>
       <c r="V44" s="5">
-        <f t="shared" ref="V44:V49" si="73">SUM(J44:M44)</f>
+        <f t="shared" ref="V44:V49" si="96">SUM(J44:M44)</f>
         <v>2537</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" ref="W44:W49" si="74">SUM(N44:Q44)</f>
+        <f t="shared" ref="W44:W49" si="97">SUM(N44:Q44)</f>
         <v>2763</v>
       </c>
       <c r="X44" s="5"/>
@@ -3559,14 +3803,22 @@
       <c r="B45" s="5">
         <v>59</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="5">
+        <v>23</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>1</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>28</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5">
         <v>7</v>
@@ -3592,14 +3844,20 @@
         <v>2</v>
       </c>
       <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
+      <c r="T45" s="5">
+        <f t="shared" si="94"/>
+        <v>84</v>
+      </c>
+      <c r="U45" s="5">
+        <f t="shared" si="95"/>
+        <v>30</v>
+      </c>
       <c r="V45" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="96"/>
         <v>146</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="97"/>
         <v>532</v>
       </c>
       <c r="X45" s="5"/>
@@ -3629,14 +3887,22 @@
       <c r="B46" s="5">
         <v>-125</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="5">
+        <v>-163</v>
+      </c>
+      <c r="D46" s="5">
+        <v>-110</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
         <v>-204</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="G46" s="5">
+        <v>-192</v>
+      </c>
+      <c r="H46" s="5">
+        <v>-210</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5">
         <v>-174</v>
@@ -3662,14 +3928,20 @@
         <v>2</v>
       </c>
       <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
+      <c r="T46" s="5">
+        <f t="shared" si="94"/>
+        <v>-398</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="95"/>
+        <v>-606</v>
+      </c>
       <c r="V46" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="96"/>
         <v>-408</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="97"/>
         <v>-498</v>
       </c>
       <c r="X46" s="5"/>
@@ -3699,14 +3971,22 @@
       <c r="B47" s="5">
         <v>-13</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="5">
+        <v>-50</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-20</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
         <v>-59</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="5">
+        <v>-32</v>
+      </c>
+      <c r="H47" s="5">
+        <v>-85</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5">
         <v>-134</v>
@@ -3732,14 +4012,20 @@
         <v>2</v>
       </c>
       <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
+      <c r="T47" s="5">
+        <f t="shared" si="94"/>
+        <v>-83</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="95"/>
+        <v>-176</v>
+      </c>
       <c r="V47" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="96"/>
         <v>-428</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="97"/>
         <v>-400</v>
       </c>
       <c r="X47" s="5"/>
@@ -3769,14 +4055,22 @@
       <c r="B48" s="5">
         <v>87</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="C48" s="5">
+        <v>40</v>
+      </c>
+      <c r="D48" s="5">
+        <v>61</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5">
         <v>92</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="G48" s="5">
+        <v>73</v>
+      </c>
+      <c r="H48" s="5">
+        <v>97</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5">
         <v>147</v>
@@ -3802,14 +4096,20 @@
         <v>2</v>
       </c>
       <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
+      <c r="T48" s="5">
+        <f t="shared" si="94"/>
+        <v>188</v>
+      </c>
+      <c r="U48" s="5">
+        <f t="shared" si="95"/>
+        <v>262</v>
+      </c>
       <c r="V48" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="96"/>
         <v>482</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="97"/>
         <v>527</v>
       </c>
       <c r="X48" s="5"/>
@@ -3839,14 +4139,22 @@
       <c r="B49" s="5">
         <v>-33</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="C49" s="5">
+        <v>49</v>
+      </c>
+      <c r="D49" s="5">
+        <v>20</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
         <v>-33</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="G49" s="5">
+        <v>-83</v>
+      </c>
+      <c r="H49" s="5">
+        <v>-67</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5">
         <v>-44</v>
@@ -3872,14 +4180,20 @@
         <v>2</v>
       </c>
       <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
+      <c r="T49" s="5">
+        <f t="shared" si="94"/>
+        <v>36</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" si="95"/>
+        <v>-183</v>
+      </c>
       <c r="V49" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="96"/>
         <v>-116</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="97"/>
         <v>-93</v>
       </c>
       <c r="X49" s="5"/>
@@ -3907,51 +4221,51 @@
         <v>59</v>
       </c>
       <c r="B50" s="6">
-        <f t="shared" ref="B50:I50" si="75">SUM(B44:B49)</f>
+        <f t="shared" ref="B50:I50" si="98">SUM(B44:B49)</f>
         <v>724</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="98"/>
+        <v>638</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="98"/>
+        <v>673</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="98"/>
         <v>626</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="98"/>
+        <v>581</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="98"/>
+        <v>581</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" ref="J50:M50" si="76">SUM(J44:J49)</f>
+        <f t="shared" ref="J50:M50" si="99">SUM(J44:J49)</f>
         <v>683</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="99"/>
         <v>751</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="99"/>
         <v>779</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N50" s="6">
@@ -3971,14 +4285,20 @@
         <v>2</v>
       </c>
       <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
+      <c r="T50" s="6">
+        <f t="shared" ref="T50:U50" si="100">SUM(T44:T49)</f>
+        <v>2035</v>
+      </c>
+      <c r="U50" s="6">
+        <f t="shared" si="100"/>
+        <v>1788</v>
+      </c>
       <c r="V50" s="6">
-        <f t="shared" ref="V50:W50" si="77">SUM(V44:V49)</f>
+        <f t="shared" ref="V50:W50" si="101">SUM(V44:V49)</f>
         <v>2213</v>
       </c>
       <c r="W50" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="101"/>
         <v>2831</v>
       </c>
       <c r="X50" s="6"/>
@@ -4006,51 +4326,51 @@
         <v>60</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" ref="B51:I51" si="78">B41-B50</f>
+        <f t="shared" ref="B51:I51" si="102">B41-B50</f>
         <v>824</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>825</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>653</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>1271</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>1519</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>1230</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" ref="J51:M51" si="79">J41-J50</f>
+        <f t="shared" ref="J51:M51" si="103">J41-J50</f>
         <v>1397</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>1132</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>1031</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N51" s="6">
@@ -4070,14 +4390,20 @@
         <v>2</v>
       </c>
       <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
+      <c r="T51" s="6">
+        <f t="shared" ref="T51:U51" si="104">T41-T50</f>
+        <v>2302</v>
+      </c>
+      <c r="U51" s="6">
+        <f t="shared" si="104"/>
+        <v>4020</v>
+      </c>
       <c r="V51" s="6">
-        <f t="shared" ref="V51:W51" si="80">V41-V50</f>
+        <f t="shared" ref="V51:W51" si="105">V41-V50</f>
         <v>3560</v>
       </c>
       <c r="W51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>1589</v>
       </c>
       <c r="X51" s="6"/>
@@ -4107,14 +4433,22 @@
       <c r="B52" s="5">
         <v>131</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="C52" s="5">
+        <v>113</v>
+      </c>
+      <c r="D52" s="5">
+        <v>120</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
         <v>207</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="5">
+        <v>279</v>
+      </c>
+      <c r="H52" s="5">
+        <v>193</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5">
         <v>225</v>
@@ -4140,14 +4474,20 @@
         <v>2</v>
       </c>
       <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
+      <c r="T52" s="5">
+        <f t="shared" ref="T52:T53" si="106">SUM(B52:E52)</f>
+        <v>364</v>
+      </c>
+      <c r="U52" s="5">
+        <f t="shared" ref="U52:U53" si="107">SUM(F52:I52)</f>
+        <v>679</v>
+      </c>
       <c r="V52" s="5">
-        <f t="shared" ref="V52:V53" si="81">SUM(J52:M52)</f>
+        <f t="shared" ref="V52:V53" si="108">SUM(J52:M52)</f>
         <v>636</v>
       </c>
       <c r="W52" s="5">
-        <f t="shared" ref="W52:W53" si="82">SUM(N52:Q52)</f>
+        <f t="shared" ref="W52:W53" si="109">SUM(N52:Q52)</f>
         <v>371</v>
       </c>
       <c r="X52" s="5"/>
@@ -4177,14 +4517,22 @@
       <c r="B53" s="5">
         <v>4</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>7</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5">
         <v>10</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="G53" s="5">
+        <v>4</v>
+      </c>
+      <c r="H53" s="5">
+        <v>6</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5">
         <v>2</v>
@@ -4210,14 +4558,20 @@
         <v>2</v>
       </c>
       <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
+      <c r="T53" s="5">
+        <f t="shared" si="106"/>
+        <v>11</v>
+      </c>
+      <c r="U53" s="5">
+        <f t="shared" si="107"/>
+        <v>20</v>
+      </c>
       <c r="V53" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="108"/>
         <v>6</v>
       </c>
       <c r="W53" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="109"/>
         <v>-15</v>
       </c>
       <c r="X53" s="5"/>
@@ -4245,35 +4599,35 @@
         <v>16</v>
       </c>
       <c r="B54" s="6">
-        <f t="shared" ref="B54:I54" si="83">B51-B52-B53</f>
+        <f t="shared" ref="B54:I54" si="110">B51-B52-B53</f>
         <v>689</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>712</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>526</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="110"/>
         <v>1054</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>1236</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>1031</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -4281,27 +4635,27 @@
         <v>1170</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" ref="K54:O54" si="84">K51-K52-K53</f>
+        <f t="shared" ref="K54:O54" si="111">K51-K52-K53</f>
         <v>927</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="111"/>
         <v>821</v>
       </c>
       <c r="M54" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="111"/>
         <v>729</v>
       </c>
       <c r="O54" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="111"/>
         <v>486</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" ref="P54" si="85">P51-P52-P53</f>
+        <f t="shared" ref="P54" si="112">P51-P52-P53</f>
         <v>18</v>
       </c>
       <c r="Q54" s="6"/>
@@ -4309,14 +4663,20 @@
         <v>2</v>
       </c>
       <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
+      <c r="T54" s="6">
+        <f t="shared" ref="T54:U54" si="113">T51-T52-T53</f>
+        <v>1927</v>
+      </c>
+      <c r="U54" s="6">
+        <f t="shared" si="113"/>
+        <v>3321</v>
+      </c>
       <c r="V54" s="6">
-        <f t="shared" ref="V54:W54" si="86">V51-V52-V53</f>
+        <f t="shared" ref="V54:W54" si="114">V51-V52-V53</f>
         <v>2918</v>
       </c>
       <c r="W54" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>1233</v>
       </c>
       <c r="X54" s="6"/>
@@ -4403,14 +4763,22 @@
       <c r="B56" s="3">
         <v>563</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="C56" s="3">
+        <v>564</v>
+      </c>
+      <c r="D56" s="3">
+        <v>564</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3">
         <v>566</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="G56" s="3">
+        <v>566</v>
+      </c>
+      <c r="H56" s="3">
+        <v>561</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="5">
         <v>550</v>
@@ -4467,14 +4835,22 @@
       <c r="B57" s="3">
         <v>564</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="C57" s="3">
+        <v>566</v>
+      </c>
+      <c r="D57" s="3">
+        <v>566</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3">
         <v>568</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="G57" s="3">
+        <v>568</v>
+      </c>
+      <c r="H57" s="3">
+        <v>563</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5">
         <v>551</v>
@@ -4529,35 +4905,35 @@
         <v>64</v>
       </c>
       <c r="B58" s="11">
-        <f t="shared" ref="B58:I58" si="87">B54/B56</f>
+        <f t="shared" ref="B58:I58" si="115">B54/B56</f>
         <v>1.2238010657193605</v>
       </c>
-      <c r="C58" s="11" t="e">
-        <f t="shared" si="87"/>
+      <c r="C58" s="11">
+        <f t="shared" si="115"/>
+        <v>1.2624113475177305</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" si="115"/>
+        <v>0.93262411347517726</v>
+      </c>
+      <c r="E58" s="11" t="e">
+        <f t="shared" si="115"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="11" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E58" s="11" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F58" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>1.862190812720848</v>
       </c>
-      <c r="G58" s="11" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="11" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+      <c r="G58" s="11">
+        <f t="shared" si="115"/>
+        <v>2.1837455830388692</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="115"/>
+        <v>1.8377896613190732</v>
       </c>
       <c r="I58" s="11" t="e">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="11">
@@ -4565,27 +4941,27 @@
         <v>2.1272727272727274</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" ref="K58:N58" si="88">K54/K56</f>
+        <f t="shared" ref="K58:N58" si="116">K54/K56</f>
         <v>1.7009174311926605</v>
       </c>
       <c r="L58" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>1.5203703703703704</v>
       </c>
       <c r="M58" s="11" t="e">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N58" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>1.4210526315789473</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" ref="O58:P58" si="89">O54/O56</f>
+        <f t="shared" ref="O58:P58" si="117">O54/O56</f>
         <v>0.98780487804878048</v>
       </c>
       <c r="P58" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>3.7344398340248962E-2</v>
       </c>
       <c r="Q58" s="11"/>
@@ -4593,14 +4969,20 @@
         <v>2</v>
       </c>
       <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
+      <c r="T58" s="11" t="e">
+        <f t="shared" ref="T58:U58" si="118">T54/T56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U58" s="11" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V58" s="11" t="e">
-        <f t="shared" ref="V58:W58" si="90">V54/V56</f>
+        <f t="shared" ref="V58:W58" si="119">V54/V56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W58" s="11" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="119"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X58" s="11"/>
@@ -4613,35 +4995,35 @@
         <v>65</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" ref="B59:I59" si="91">B54/B57</f>
+        <f t="shared" ref="B59:I59" si="120">B54/B57</f>
         <v>1.2216312056737588</v>
       </c>
-      <c r="C59" s="11" t="e">
-        <f t="shared" si="91"/>
+      <c r="C59" s="11">
+        <f t="shared" si="120"/>
+        <v>1.2579505300353357</v>
+      </c>
+      <c r="D59" s="11">
+        <f t="shared" si="120"/>
+        <v>0.92932862190812726</v>
+      </c>
+      <c r="E59" s="11" t="e">
+        <f t="shared" si="120"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="11" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E59" s="11" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="120"/>
         <v>1.8556338028169015</v>
       </c>
-      <c r="G59" s="11" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H59" s="11" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
+      <c r="G59" s="11">
+        <f t="shared" si="120"/>
+        <v>2.176056338028169</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="120"/>
+        <v>1.8312611012433393</v>
       </c>
       <c r="I59" s="11" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="120"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J59" s="11">
@@ -4649,27 +5031,27 @@
         <v>2.1234119782214158</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" ref="K59:N59" si="92">K54/K57</f>
+        <f t="shared" ref="K59:N59" si="121">K54/K57</f>
         <v>1.6978021978021978</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="121"/>
         <v>1.5203703703703704</v>
       </c>
       <c r="M59" s="11" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="121"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="121"/>
         <v>1.4182879377431907</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" ref="O59:P59" si="93">O54/O57</f>
+        <f t="shared" ref="O59:P59" si="122">O54/O57</f>
         <v>0.98580121703853951</v>
       </c>
       <c r="P59" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="122"/>
         <v>3.7267080745341616E-2</v>
       </c>
       <c r="Q59" s="11"/>
@@ -4677,14 +5059,20 @@
         <v>2</v>
       </c>
       <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
+      <c r="T59" s="11" t="e">
+        <f t="shared" ref="T59:U59" si="123">T54/T57</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" s="11" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V59" s="11" t="e">
-        <f t="shared" ref="V59:W59" si="94">V54/V57</f>
+        <f t="shared" ref="V59:W59" si="124">V54/V57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W59" s="11" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X59" s="11"/>
@@ -4699,14 +5087,22 @@
       <c r="B60" s="3">
         <v>0.37</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="C60" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.37</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3">
         <v>0.4</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="G60" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.4</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="10">
         <v>0.45</v>
@@ -4732,14 +5128,20 @@
         <v>2</v>
       </c>
       <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
+      <c r="T60" s="10">
+        <f t="shared" ref="T60" si="125">SUM(H60:K60)</f>
+        <v>1.3</v>
+      </c>
+      <c r="U60" s="10">
+        <f t="shared" ref="U60" si="126">SUM(I60:L60)</f>
+        <v>1.35</v>
+      </c>
       <c r="V60" s="10">
-        <f t="shared" ref="V60" si="95">SUM(J60:M60)</f>
+        <f t="shared" ref="V60" si="127">SUM(J60:M60)</f>
         <v>1.35</v>
       </c>
       <c r="W60" s="10">
-        <f t="shared" ref="W60" si="96">SUM(N60:Q60)</f>
+        <f t="shared" ref="W60" si="128">SUM(N60:Q60)</f>
         <v>1.5</v>
       </c>
       <c r="X60" s="10"/>
@@ -4778,35 +5180,35 @@
     </row>
     <row r="62" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="17" t="str">
-        <f t="shared" ref="B62:J62" si="97">B36</f>
+        <f t="shared" ref="B62:I62" si="129">B36</f>
         <v>Q121</v>
       </c>
       <c r="C62" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="129"/>
         <v>Q221</v>
       </c>
       <c r="D62" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="129"/>
         <v>Q321</v>
       </c>
       <c r="E62" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="129"/>
         <v>Q421</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="129"/>
         <v>Q122</v>
       </c>
       <c r="G62" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="129"/>
         <v>Q222</v>
       </c>
       <c r="H62" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="129"/>
         <v>Q322</v>
       </c>
       <c r="I62" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="129"/>
         <v>Q422</v>
       </c>
       <c r="J62" s="17" t="str">
@@ -4814,47 +5216,51 @@
         <v>Q123</v>
       </c>
       <c r="K62" s="17" t="str">
-        <f t="shared" ref="K62:W62" si="98">K36</f>
+        <f t="shared" ref="K62:W62" si="130">K36</f>
         <v>Q223</v>
       </c>
       <c r="L62" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="130"/>
         <v>Q323</v>
       </c>
       <c r="M62" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="130"/>
         <v>Q423</v>
       </c>
       <c r="N62" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="130"/>
         <v>Q124</v>
       </c>
       <c r="O62" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="130"/>
         <v>Q224</v>
       </c>
       <c r="P62" s="17" t="str">
-        <f t="shared" ref="P62" si="99">P36</f>
+        <f t="shared" ref="P62" si="131">P36</f>
         <v>Q324</v>
       </c>
       <c r="Q62" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="130"/>
         <v>Q424</v>
       </c>
       <c r="R62" s="18" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="130"/>
         <v>xxx</v>
       </c>
-      <c r="S62" s="17">
-        <f t="shared" si="98"/>
+      <c r="T62" s="17">
+        <f t="shared" ref="T62:U62" si="132">T36</f>
+        <v>2021</v>
+      </c>
+      <c r="U62" s="17">
+        <f t="shared" si="132"/>
+        <v>2022</v>
+      </c>
+      <c r="V62" s="17">
+        <f t="shared" si="130"/>
         <v>2023</v>
       </c>
-      <c r="V62" s="17">
-        <f t="shared" si="98"/>
-        <v>2023</v>
-      </c>
       <c r="W62" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="130"/>
         <v>2024</v>
       </c>
     </row>
@@ -4868,63 +5274,63 @@
         <v>67</v>
       </c>
       <c r="B64" s="6">
-        <f t="shared" ref="B64:J64" si="100">B54</f>
+        <f t="shared" ref="B64:I64" si="133">B54</f>
         <v>689</v>
       </c>
       <c r="C64" s="6">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f t="shared" si="133"/>
+        <v>712</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f t="shared" si="133"/>
+        <v>526</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="133"/>
         <v>1054</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f t="shared" si="133"/>
+        <v>1236</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f t="shared" si="133"/>
+        <v>1031</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <f>J54</f>
+        <f t="shared" ref="J64:P64" si="134">J54</f>
         <v>1170</v>
       </c>
       <c r="K64" s="6">
-        <f>K54</f>
+        <f t="shared" si="134"/>
         <v>927</v>
       </c>
       <c r="L64" s="6">
-        <f>L54</f>
+        <f t="shared" si="134"/>
         <v>821</v>
       </c>
       <c r="M64" s="6">
-        <f>M54</f>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="N64" s="6">
-        <f>N54</f>
+        <f t="shared" si="134"/>
         <v>729</v>
       </c>
       <c r="O64" s="6">
-        <f>O54</f>
+        <f t="shared" si="134"/>
         <v>486</v>
       </c>
       <c r="P64" s="6">
-        <f>P54</f>
+        <f t="shared" si="134"/>
         <v>18</v>
       </c>
       <c r="Q64" s="6"/>
@@ -4932,8 +5338,14 @@
         <v>2</v>
       </c>
       <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
+      <c r="T64" s="6">
+        <f t="shared" ref="T64:U64" si="135">T54</f>
+        <v>1927</v>
+      </c>
+      <c r="U64" s="6">
+        <f t="shared" si="135"/>
+        <v>3321</v>
+      </c>
       <c r="V64" s="6">
         <f>V54</f>
         <v>2918</v>
@@ -4950,8 +5362,21 @@
       <c r="B65">
         <v>693</v>
       </c>
+      <c r="C65">
+        <f>1405-B65</f>
+        <v>712</v>
+      </c>
+      <c r="D65" s="21"/>
       <c r="F65">
         <v>1064</v>
+      </c>
+      <c r="G65">
+        <f>2304-F65</f>
+        <v>1240</v>
+      </c>
+      <c r="H65">
+        <f>3341-SUM(F65:G65)</f>
+        <v>1037</v>
       </c>
       <c r="J65" s="5">
         <v>1172</v>
@@ -4981,14 +5406,20 @@
         <v>2</v>
       </c>
       <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
+      <c r="T65" s="5">
+        <f>SUM(B65:E65)</f>
+        <v>1405</v>
+      </c>
+      <c r="U65" s="5">
+        <f t="shared" ref="U65:U81" si="136">SUM(F65:I65)</f>
+        <v>3341</v>
+      </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65" si="101">SUM(J65:M65)</f>
+        <f t="shared" ref="V65" si="137">SUM(J65:M65)</f>
         <v>2924</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" ref="W65" si="102">SUM(N65:Q65)</f>
+        <f t="shared" ref="W65" si="138">SUM(N65:Q65)</f>
         <v>1218</v>
       </c>
     </row>
@@ -4999,8 +5430,21 @@
       <c r="B66">
         <v>249</v>
       </c>
+      <c r="C66">
+        <f>492-B66</f>
+        <v>243</v>
+      </c>
+      <c r="D66" s="21"/>
       <c r="F66">
         <v>257</v>
+      </c>
+      <c r="G66">
+        <f>514-F66</f>
+        <v>257</v>
+      </c>
+      <c r="H66">
+        <f>774-SUM(F66:G66)</f>
+        <v>260</v>
       </c>
       <c r="J66" s="5">
         <v>259</v>
@@ -5030,14 +5474,20 @@
         <v>2</v>
       </c>
       <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
+      <c r="T66" s="5">
+        <f t="shared" ref="T66:T81" si="139">SUM(B66:E66)</f>
+        <v>492</v>
+      </c>
+      <c r="U66" s="5">
+        <f t="shared" si="136"/>
+        <v>774</v>
+      </c>
       <c r="V66" s="5">
-        <f t="shared" ref="V66:V80" si="103">SUM(J66:M66)</f>
+        <f t="shared" ref="V66:V81" si="140">SUM(J66:M66)</f>
         <v>782</v>
       </c>
       <c r="W66" s="5">
-        <f t="shared" ref="W66:W80" si="104">SUM(N66:Q66)</f>
+        <f t="shared" ref="W66:W81" si="141">SUM(N66:Q66)</f>
         <v>854</v>
       </c>
     </row>
@@ -5048,8 +5498,21 @@
       <c r="B67">
         <v>31</v>
       </c>
+      <c r="C67">
+        <f>54-B67</f>
+        <v>23</v>
+      </c>
+      <c r="D67" s="21"/>
       <c r="F67">
         <v>1</v>
+      </c>
+      <c r="G67">
+        <f>4-F67</f>
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <f>20-SUM(F67:G67)</f>
+        <v>16</v>
       </c>
       <c r="J67" s="5">
         <v>3</v>
@@ -5079,14 +5542,20 @@
         <v>2</v>
       </c>
       <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
+      <c r="T67" s="5">
+        <f t="shared" si="139"/>
+        <v>54</v>
+      </c>
+      <c r="U67" s="5">
+        <f t="shared" si="136"/>
+        <v>20</v>
+      </c>
       <c r="V67" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="140"/>
         <v>120</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="141"/>
         <v>517</v>
       </c>
     </row>
@@ -5097,8 +5566,21 @@
       <c r="B68">
         <v>-7</v>
       </c>
+      <c r="C68">
+        <f>-37-B68</f>
+        <v>-30</v>
+      </c>
+      <c r="D68" s="21"/>
       <c r="F68">
         <v>144</v>
+      </c>
+      <c r="G68">
+        <f>-15-F68</f>
+        <v>-159</v>
+      </c>
+      <c r="H68">
+        <f>-39-SUM(F68:G68)</f>
+        <v>-24</v>
       </c>
       <c r="J68" s="5">
         <v>47</v>
@@ -5128,14 +5610,20 @@
         <v>2</v>
       </c>
       <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
+      <c r="T68" s="5">
+        <f t="shared" si="139"/>
+        <v>-37</v>
+      </c>
+      <c r="U68" s="5">
+        <f t="shared" si="136"/>
+        <v>-39</v>
+      </c>
       <c r="V68" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="140"/>
         <v>17</v>
       </c>
       <c r="W68" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="141"/>
         <v>-107</v>
       </c>
     </row>
@@ -5146,8 +5634,21 @@
       <c r="B69">
         <v>-81</v>
       </c>
+      <c r="C69">
+        <f>-23-B69</f>
+        <v>58</v>
+      </c>
+      <c r="D69" s="21"/>
       <c r="F69">
         <v>-159</v>
+      </c>
+      <c r="G69">
+        <f>-162-F69</f>
+        <v>-3</v>
+      </c>
+      <c r="H69">
+        <f>-279-SUM(F69:G69)</f>
+        <v>-117</v>
       </c>
       <c r="J69" s="5">
         <v>-113</v>
@@ -5177,14 +5678,20 @@
         <v>2</v>
       </c>
       <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
+      <c r="T69" s="5">
+        <f t="shared" si="139"/>
+        <v>-23</v>
+      </c>
+      <c r="U69" s="5">
+        <f t="shared" si="136"/>
+        <v>-279</v>
+      </c>
       <c r="V69" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="140"/>
         <v>-64</v>
       </c>
       <c r="W69" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="141"/>
         <v>-151</v>
       </c>
     </row>
@@ -5195,8 +5702,21 @@
       <c r="B70">
         <v>76</v>
       </c>
+      <c r="C70">
+        <f>114-B70</f>
+        <v>38</v>
+      </c>
+      <c r="D70" s="21"/>
       <c r="F70">
         <v>69</v>
+      </c>
+      <c r="G70">
+        <f>97-F70</f>
+        <v>28</v>
+      </c>
+      <c r="H70">
+        <f>123-SUM(F70:G70)</f>
+        <v>26</v>
       </c>
       <c r="J70" s="5">
         <v>65</v>
@@ -5226,2518 +5746,3106 @@
         <v>2</v>
       </c>
       <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
+      <c r="T70" s="5">
+        <f t="shared" si="139"/>
+        <v>114</v>
+      </c>
+      <c r="U70" s="5">
+        <f t="shared" si="136"/>
+        <v>123</v>
+      </c>
       <c r="V70" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="140"/>
         <v>98</v>
       </c>
       <c r="W70" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="141"/>
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>102</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D71" s="21"/>
       <c r="F71">
-        <v>283</v>
-      </c>
-      <c r="J71" s="5">
-        <v>-104</v>
-      </c>
-      <c r="K71" s="5">
-        <f>-141-J71</f>
-        <v>-37</v>
-      </c>
-      <c r="L71" s="5">
-        <f>-13-SUM(J71:K71)</f>
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
       </c>
       <c r="M71" s="5"/>
-      <c r="N71" s="5">
-        <v>-69</v>
-      </c>
-      <c r="O71" s="5">
-        <f>-118-N71</f>
-        <v>-49</v>
-      </c>
-      <c r="P71" s="5">
-        <f>-115-SUM(N71:O71)</f>
-        <v>3</v>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
       </c>
       <c r="Q71" s="5"/>
-      <c r="R71" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="R71" s="1"/>
       <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
+      <c r="T71" s="5">
+        <f t="shared" ref="T71" si="142">SUM(B71:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="U71" s="5">
+        <f t="shared" ref="U71" si="143">SUM(F71:I71)</f>
+        <v>0</v>
+      </c>
       <c r="V71" s="5">
-        <f t="shared" si="103"/>
-        <v>-13</v>
+        <f t="shared" ref="V71" si="144">SUM(J71:M71)</f>
+        <v>0</v>
       </c>
       <c r="W71" s="5">
-        <f t="shared" si="104"/>
-        <v>-115</v>
+        <f t="shared" ref="W71" si="145">SUM(N71:Q71)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>-11</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C72">
+        <f>183-B72</f>
+        <v>81</v>
+      </c>
+      <c r="D72" s="21"/>
       <c r="F72">
-        <v>-34</v>
+        <v>283</v>
+      </c>
+      <c r="G72">
+        <f>206-F72</f>
+        <v>-77</v>
+      </c>
+      <c r="H72">
+        <f>245-SUM(F72:G72)</f>
+        <v>39</v>
       </c>
       <c r="J72" s="5">
-        <v>-11</v>
+        <v>-104</v>
       </c>
       <c r="K72" s="5">
-        <f>-32-J72</f>
-        <v>-21</v>
+        <f>-141-J72</f>
+        <v>-37</v>
       </c>
       <c r="L72" s="5">
-        <f>-33-SUM(J72:K72)</f>
-        <v>-1</v>
+        <f>-13-SUM(J72:K72)</f>
+        <v>128</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5">
-        <v>14</v>
+        <v>-69</v>
       </c>
       <c r="O72" s="5">
-        <f>9-N72</f>
-        <v>-5</v>
+        <f>-118-N72</f>
+        <v>-49</v>
       </c>
       <c r="P72" s="5">
-        <f>9-SUM(N72:O72)</f>
-        <v>0</v>
+        <f>-115-SUM(N72:O72)</f>
+        <v>3</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
+      <c r="T72" s="5">
+        <f t="shared" si="139"/>
+        <v>183</v>
+      </c>
+      <c r="U72" s="5">
+        <f t="shared" si="136"/>
+        <v>245</v>
+      </c>
       <c r="V72" s="5">
-        <f t="shared" si="103"/>
-        <v>-33</v>
+        <f t="shared" si="140"/>
+        <v>-13</v>
       </c>
       <c r="W72" s="5">
-        <f t="shared" si="104"/>
-        <v>9</v>
+        <f t="shared" si="141"/>
+        <v>-115</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>150</v>
-      </c>
+        <v>-11</v>
+      </c>
+      <c r="C73">
+        <f>-79-B73</f>
+        <v>-68</v>
+      </c>
+      <c r="D73" s="21"/>
       <c r="F73">
-        <v>-9</v>
+        <v>-34</v>
+      </c>
+      <c r="G73">
+        <f>-42-F73</f>
+        <v>-8</v>
+      </c>
+      <c r="H73">
+        <f>-77-SUM(F73:G73)</f>
+        <v>-35</v>
       </c>
       <c r="J73" s="5">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="K73" s="5">
-        <f>-18-J73</f>
-        <v>-10</v>
+        <f>-32-J73</f>
+        <v>-21</v>
       </c>
       <c r="L73" s="5">
-        <f>-27-SUM(J73:K73)</f>
-        <v>-9</v>
+        <f>-33-SUM(J73:K73)</f>
+        <v>-1</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O73" s="5">
-        <f>154-N73</f>
-        <v>85</v>
+        <f>9-N73</f>
+        <v>-5</v>
       </c>
       <c r="P73" s="5">
-        <f>42-SUM(N73:O73)</f>
-        <v>-112</v>
+        <f>9-SUM(N73:O73)</f>
+        <v>0</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
+      <c r="T73" s="5">
+        <f t="shared" si="139"/>
+        <v>-79</v>
+      </c>
+      <c r="U73" s="5">
+        <f t="shared" si="136"/>
+        <v>-77</v>
+      </c>
       <c r="V73" s="5">
-        <f t="shared" si="103"/>
-        <v>-27</v>
+        <f t="shared" si="140"/>
+        <v>-33</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" si="104"/>
-        <v>42</v>
+        <f t="shared" si="141"/>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>666</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C74">
+        <f>93-B74</f>
+        <v>-57</v>
+      </c>
+      <c r="D74" s="21"/>
       <c r="F74">
-        <v>-482</v>
+        <v>-9</v>
+      </c>
+      <c r="G74">
+        <f>312-F74</f>
+        <v>321</v>
+      </c>
+      <c r="H74">
+        <f>549-SUM(F74:G74)</f>
+        <v>237</v>
       </c>
       <c r="J74" s="5">
-        <v>-935</v>
+        <v>-8</v>
       </c>
       <c r="K74" s="5">
-        <f>-1392-J74</f>
-        <v>-457</v>
+        <f>-18-J74</f>
+        <v>-10</v>
       </c>
       <c r="L74" s="5">
-        <f>-1183-SUM(J74:K74)</f>
-        <v>209</v>
+        <f>-27-SUM(J74:K74)</f>
+        <v>-9</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5">
-        <v>-159</v>
+        <v>69</v>
       </c>
       <c r="O74" s="5">
-        <f>-261-N74</f>
-        <v>-102</v>
+        <f>154-N74</f>
+        <v>85</v>
       </c>
       <c r="P74" s="5">
-        <f>-257-SUM(N74:O74)</f>
-        <v>4</v>
+        <f>42-SUM(N74:O74)</f>
+        <v>-112</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
+      <c r="T74" s="5">
+        <f t="shared" si="139"/>
+        <v>93</v>
+      </c>
+      <c r="U74" s="5">
+        <f t="shared" si="136"/>
+        <v>549</v>
+      </c>
       <c r="V74" s="5">
-        <f t="shared" si="103"/>
-        <v>-1183</v>
+        <f t="shared" si="140"/>
+        <v>-27</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" si="104"/>
-        <v>-257</v>
+        <f t="shared" si="141"/>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>-515</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="C75">
+        <f>610-B75</f>
+        <v>-56</v>
+      </c>
+      <c r="D75" s="21"/>
       <c r="F75">
-        <v>-937</v>
+        <v>-482</v>
+      </c>
+      <c r="G75">
+        <f>-1753-F75</f>
+        <v>-1271</v>
+      </c>
+      <c r="H75">
+        <f>-1452-SUM(F75:G75)</f>
+        <v>301</v>
       </c>
       <c r="J75" s="5">
-        <v>488</v>
+        <v>-935</v>
       </c>
       <c r="K75" s="5">
-        <f>846-J75</f>
-        <v>358</v>
+        <f>-1392-J75</f>
+        <v>-457</v>
       </c>
       <c r="L75" s="5">
-        <f>443-SUM(J75:K75)</f>
-        <v>-403</v>
+        <f>-1183-SUM(J75:K75)</f>
+        <v>209</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5">
-        <v>61</v>
+        <v>-159</v>
       </c>
       <c r="O75" s="5">
-        <f>-180-N75</f>
-        <v>-241</v>
+        <f>-261-N75</f>
+        <v>-102</v>
       </c>
       <c r="P75" s="5">
-        <f>476-SUM(N75:O75)</f>
-        <v>656</v>
+        <f>-257-SUM(N75:O75)</f>
+        <v>4</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
+      <c r="T75" s="5">
+        <f t="shared" si="139"/>
+        <v>610</v>
+      </c>
+      <c r="U75" s="5">
+        <f t="shared" si="136"/>
+        <v>-1452</v>
+      </c>
       <c r="V75" s="5">
-        <f t="shared" si="103"/>
-        <v>443</v>
+        <f t="shared" si="140"/>
+        <v>-1183</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" si="104"/>
-        <v>476</v>
+        <f t="shared" si="141"/>
+        <v>-257</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>-1138</v>
-      </c>
+        <v>-515</v>
+      </c>
+      <c r="C76">
+        <f>-710-B76</f>
+        <v>-195</v>
+      </c>
+      <c r="D76" s="21"/>
       <c r="F76">
-        <v>-2881</v>
+        <v>-937</v>
+      </c>
+      <c r="G76">
+        <f>-2155-F76</f>
+        <v>-1218</v>
+      </c>
+      <c r="H76">
+        <f>-1613-SUM(F76:G76)</f>
+        <v>542</v>
       </c>
       <c r="J76" s="5">
-        <v>52</v>
+        <v>488</v>
       </c>
       <c r="K76" s="5">
-        <f>2917-J76</f>
-        <v>2865</v>
+        <f>846-J76</f>
+        <v>358</v>
       </c>
       <c r="L76" s="5">
-        <f>3501-SUM(J76:K76)</f>
-        <v>584</v>
+        <f>443-SUM(J76:K76)</f>
+        <v>-403</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="O76" s="5">
-        <f>1443-N76</f>
-        <v>1148</v>
+        <f>-180-N76</f>
+        <v>-241</v>
       </c>
       <c r="P76" s="5">
-        <f>1233-SUM(N76:O76)</f>
-        <v>-210</v>
+        <f>476-SUM(N76:O76)</f>
+        <v>656</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
+      <c r="T76" s="5">
+        <f t="shared" si="139"/>
+        <v>-710</v>
+      </c>
+      <c r="U76" s="5">
+        <f t="shared" si="136"/>
+        <v>-1613</v>
+      </c>
       <c r="V76" s="5">
-        <f t="shared" si="103"/>
-        <v>3501</v>
+        <f t="shared" si="140"/>
+        <v>443</v>
       </c>
       <c r="W76" s="5">
-        <f t="shared" si="104"/>
-        <v>1233</v>
+        <f t="shared" si="141"/>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B77">
-        <v>413</v>
-      </c>
+        <v>-1138</v>
+      </c>
+      <c r="C77">
+        <f>223-B77</f>
+        <v>1361</v>
+      </c>
+      <c r="D77" s="21"/>
       <c r="F77">
-        <v>-2141</v>
+        <v>-2881</v>
+      </c>
+      <c r="G77">
+        <f>-349-F77</f>
+        <v>2532</v>
+      </c>
+      <c r="H77">
+        <f>590-SUM(F77:G77)</f>
+        <v>939</v>
       </c>
       <c r="J77" s="5">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="K77" s="5">
-        <f>582-J77</f>
-        <v>254</v>
+        <f>2917-J77</f>
+        <v>2865</v>
       </c>
       <c r="L77" s="5">
-        <f>126-SUM(J77:K77)</f>
-        <v>-456</v>
-      </c>
+        <f>3501-SUM(J77:K77)</f>
+        <v>584</v>
+      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="O77" s="5">
-        <f>628-N77</f>
-        <v>465</v>
+        <f>1443-N77</f>
+        <v>1148</v>
       </c>
       <c r="P77" s="5">
-        <f>745-SUM(N77:O77)</f>
-        <v>117</v>
-      </c>
+        <f>1233-SUM(N77:O77)</f>
+        <v>-210</v>
+      </c>
+      <c r="Q77" s="5"/>
       <c r="R77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5">
+        <f t="shared" si="139"/>
+        <v>223</v>
+      </c>
+      <c r="U77" s="5">
+        <f t="shared" si="136"/>
+        <v>590</v>
+      </c>
       <c r="V77" s="5">
-        <f t="shared" si="103"/>
-        <v>126</v>
+        <f t="shared" si="140"/>
+        <v>3501</v>
       </c>
       <c r="W77" s="5">
-        <f t="shared" si="104"/>
-        <v>745</v>
+        <f t="shared" si="141"/>
+        <v>1233</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>-441</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C78">
+        <f>780-B78</f>
+        <v>367</v>
+      </c>
+      <c r="D78" s="21"/>
       <c r="F78">
-        <v>-245</v>
+        <v>-2141</v>
+      </c>
+      <c r="G78">
+        <f>-1593-F78</f>
+        <v>548</v>
+      </c>
+      <c r="H78">
+        <f>-929-SUM(F78:G78)</f>
+        <v>664</v>
       </c>
       <c r="J78" s="5">
-        <v>-1556</v>
+        <v>328</v>
       </c>
       <c r="K78" s="5">
-        <f>-2762-J78</f>
-        <v>-1206</v>
+        <f>582-J78</f>
+        <v>254</v>
       </c>
       <c r="L78" s="5">
-        <f>-2561-SUM(J78:K78)</f>
-        <v>201</v>
+        <f>126-SUM(J78:K78)</f>
+        <v>-456</v>
       </c>
       <c r="N78" s="5">
-        <v>-713</v>
+        <v>163</v>
       </c>
       <c r="O78" s="5">
-        <f>-1257-N78</f>
-        <v>-544</v>
+        <f>628-N78</f>
+        <v>465</v>
       </c>
       <c r="P78" s="5">
-        <f>-1418-SUM(N78:O78)</f>
-        <v>-161</v>
+        <f>745-SUM(N78:O78)</f>
+        <v>117</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T78" s="5">
+        <f t="shared" si="139"/>
+        <v>780</v>
+      </c>
+      <c r="U78" s="5">
+        <f t="shared" si="136"/>
+        <v>-929</v>
+      </c>
       <c r="V78" s="5">
-        <f t="shared" si="103"/>
-        <v>-2561</v>
+        <f t="shared" si="140"/>
+        <v>126</v>
       </c>
       <c r="W78" s="5">
-        <f t="shared" si="104"/>
-        <v>-1418</v>
+        <f t="shared" si="141"/>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>561</v>
-      </c>
+        <v>-441</v>
+      </c>
+      <c r="C79">
+        <f>-1023-B79</f>
+        <v>-582</v>
+      </c>
+      <c r="D79" s="21"/>
       <c r="F79">
-        <v>2501</v>
+        <v>-245</v>
+      </c>
+      <c r="G79">
+        <f>-710-F79</f>
+        <v>-465</v>
+      </c>
+      <c r="H79">
+        <f>305-SUM(F79:G79)</f>
+        <v>1015</v>
       </c>
       <c r="J79" s="5">
-        <v>-460</v>
+        <v>-1556</v>
       </c>
       <c r="K79" s="5">
-        <f>-1213-J79</f>
-        <v>-753</v>
+        <f>-2762-J79</f>
+        <v>-1206</v>
       </c>
       <c r="L79" s="5">
-        <f>-1580-SUM(J79:K79)</f>
-        <v>-367</v>
+        <f>-2561-SUM(J79:K79)</f>
+        <v>201</v>
       </c>
       <c r="N79" s="5">
-        <v>319</v>
+        <v>-713</v>
       </c>
       <c r="O79" s="5">
-        <f>-390-N79</f>
-        <v>-709</v>
+        <f>-1257-N79</f>
+        <v>-544</v>
       </c>
       <c r="P79" s="5">
-        <f>-249-SUM(N79:O79)</f>
-        <v>141</v>
+        <f>-1418-SUM(N79:O79)</f>
+        <v>-161</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T79" s="5">
+        <f t="shared" si="139"/>
+        <v>-1023</v>
+      </c>
+      <c r="U79" s="5">
+        <f t="shared" si="136"/>
+        <v>305</v>
+      </c>
       <c r="V79" s="5">
-        <f t="shared" si="103"/>
-        <v>-1580</v>
+        <f t="shared" si="140"/>
+        <v>-2561</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="104"/>
-        <v>-249</v>
+        <f t="shared" si="141"/>
+        <v>-1418</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>561</v>
+      </c>
+      <c r="C80">
+        <f>1349-B80</f>
+        <v>788</v>
+      </c>
+      <c r="D80" s="21"/>
+      <c r="F80">
+        <v>2501</v>
+      </c>
+      <c r="G80">
+        <f>2520-F80</f>
+        <v>19</v>
+      </c>
+      <c r="H80">
+        <f>1706-SUM(F80:G80)</f>
+        <v>-814</v>
+      </c>
+      <c r="J80" s="5">
+        <v>-460</v>
+      </c>
+      <c r="K80" s="5">
+        <f>-1213-J80</f>
+        <v>-753</v>
+      </c>
+      <c r="L80" s="5">
+        <f>-1580-SUM(J80:K80)</f>
+        <v>-367</v>
+      </c>
+      <c r="N80" s="5">
+        <v>319</v>
+      </c>
+      <c r="O80" s="5">
+        <f>-390-N80</f>
+        <v>-709</v>
+      </c>
+      <c r="P80" s="5">
+        <f>-249-SUM(N80:O80)</f>
+        <v>141</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T80" s="5">
+        <f t="shared" si="139"/>
+        <v>1349</v>
+      </c>
+      <c r="U80" s="5">
+        <f t="shared" si="136"/>
+        <v>1706</v>
+      </c>
+      <c r="V80" s="5">
+        <f t="shared" si="140"/>
+        <v>-1580</v>
+      </c>
+      <c r="W80" s="5">
+        <f t="shared" si="141"/>
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>-450</v>
       </c>
-      <c r="F80">
+      <c r="C81">
+        <f>-424-B81</f>
+        <v>26</v>
+      </c>
+      <c r="D81" s="21"/>
+      <c r="F81">
         <v>1363</v>
       </c>
-      <c r="J80" s="5">
+      <c r="G81">
+        <f>147-F81</f>
+        <v>-1216</v>
+      </c>
+      <c r="H81">
+        <f>84-SUM(F81:G81)</f>
+        <v>-63</v>
+      </c>
+      <c r="J81" s="5">
         <v>-837</v>
       </c>
-      <c r="K80" s="5">
-        <f>-569-J80</f>
+      <c r="K81" s="5">
+        <f>-569-J81</f>
         <v>268</v>
       </c>
-      <c r="L80" s="5">
-        <f>-659-SUM(J80:K80)</f>
+      <c r="L81" s="5">
+        <f>-659-SUM(J81:K81)</f>
         <v>-90</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N81" s="5">
         <v>-148</v>
       </c>
-      <c r="O80" s="5">
-        <f>-507-N80</f>
+      <c r="O81" s="5">
+        <f>-507-N81</f>
         <v>-359</v>
       </c>
-      <c r="P80" s="5">
-        <f>-403-SUM(N80:O80)</f>
+      <c r="P81" s="5">
+        <f>-403-SUM(N81:O81)</f>
         <v>104</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V80" s="5">
-        <f t="shared" si="103"/>
+      <c r="R81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T81" s="5">
+        <f t="shared" si="139"/>
+        <v>-424</v>
+      </c>
+      <c r="U81" s="5">
+        <f t="shared" si="136"/>
+        <v>84</v>
+      </c>
+      <c r="V81" s="5">
+        <f t="shared" si="140"/>
         <v>-659</v>
       </c>
-      <c r="W80" s="5">
-        <f t="shared" si="104"/>
+      <c r="W81" s="5">
+        <f t="shared" si="141"/>
         <v>-403</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="6">
-        <f>+SUM(B65:B80)</f>
+      <c r="B82" s="6">
+        <f>+SUM(B65:B81)</f>
         <v>298</v>
       </c>
-      <c r="C81" s="6">
-        <f t="shared" ref="B81:I81" si="105">+SUM(C65:C80)</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="6">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="6">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="105"/>
+      <c r="C82" s="6">
+        <f t="shared" ref="C82:I82" si="146">+SUM(C65:C81)</f>
+        <v>2709</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="146"/>
         <v>-1206</v>
       </c>
-      <c r="G81" s="6">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="6">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="6">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <f>+SUM(J65:J80)</f>
+      <c r="G82" s="6">
+        <f t="shared" si="146"/>
+        <v>531</v>
+      </c>
+      <c r="H82" s="6">
+        <f t="shared" si="146"/>
+        <v>4023</v>
+      </c>
+      <c r="I82" s="6">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
+        <f>+SUM(J65:J81)</f>
         <v>-1610</v>
       </c>
-      <c r="K81" s="6">
-        <f t="shared" ref="K81:P81" si="106">+SUM(K65:K80)</f>
+      <c r="K82" s="6">
+        <f t="shared" ref="K82:P82" si="147">+SUM(K65:K81)</f>
         <v>2509</v>
       </c>
-      <c r="L81" s="6">
-        <f t="shared" si="106"/>
+      <c r="L82" s="6">
+        <f t="shared" si="147"/>
         <v>992</v>
       </c>
-      <c r="M81" s="6">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="6">
-        <f t="shared" si="106"/>
+      <c r="M82" s="6">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" si="147"/>
         <v>700</v>
       </c>
-      <c r="O81" s="6">
-        <f t="shared" si="106"/>
+      <c r="O82" s="6">
+        <f t="shared" si="147"/>
         <v>468</v>
       </c>
-      <c r="P81" s="6">
-        <f t="shared" si="106"/>
+      <c r="P82" s="6">
+        <f t="shared" si="147"/>
         <v>1300</v>
       </c>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V81" s="6">
-        <f t="shared" ref="V81:W81" si="107">+SUM(V65:V80)</f>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T82" s="6">
+        <f t="shared" ref="T82:U82" si="148">+SUM(T65:T81)</f>
+        <v>3007</v>
+      </c>
+      <c r="U82" s="6">
+        <f t="shared" si="148"/>
+        <v>3348</v>
+      </c>
+      <c r="V82" s="6">
+        <f t="shared" ref="V82:W82" si="149">+SUM(V65:V81)</f>
         <v>1891</v>
       </c>
-      <c r="W81" s="6">
-        <f t="shared" si="107"/>
+      <c r="W82" s="6">
+        <f t="shared" si="149"/>
         <v>2468</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="1"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-    </row>
-    <row r="83" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="17" t="str">
-        <f t="shared" ref="B83:I83" si="108">B62</f>
+    <row r="83" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="1"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+    </row>
+    <row r="84" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="17" t="str">
+        <f t="shared" ref="B84:I84" si="150">B62</f>
         <v>Q121</v>
       </c>
-      <c r="C83" s="17" t="str">
-        <f t="shared" si="108"/>
+      <c r="C84" s="17" t="str">
+        <f t="shared" si="150"/>
         <v>Q221</v>
       </c>
-      <c r="D83" s="17" t="str">
-        <f t="shared" si="108"/>
+      <c r="D84" s="17" t="str">
+        <f t="shared" si="150"/>
         <v>Q321</v>
       </c>
-      <c r="E83" s="17" t="str">
-        <f t="shared" si="108"/>
+      <c r="E84" s="17" t="str">
+        <f t="shared" si="150"/>
         <v>Q421</v>
       </c>
-      <c r="F83" s="17" t="str">
-        <f t="shared" si="108"/>
+      <c r="F84" s="17" t="str">
+        <f t="shared" si="150"/>
         <v>Q122</v>
       </c>
-      <c r="G83" s="17" t="str">
-        <f t="shared" si="108"/>
+      <c r="G84" s="17" t="str">
+        <f t="shared" si="150"/>
         <v>Q222</v>
       </c>
-      <c r="H83" s="17" t="str">
-        <f t="shared" si="108"/>
+      <c r="H84" s="17" t="str">
+        <f t="shared" si="150"/>
         <v>Q322</v>
       </c>
-      <c r="I83" s="17" t="str">
-        <f t="shared" si="108"/>
+      <c r="I84" s="17" t="str">
+        <f t="shared" si="150"/>
         <v>Q422</v>
       </c>
-      <c r="J83" s="17" t="str">
-        <f>J62</f>
+      <c r="J84" s="17" t="str">
+        <f t="shared" ref="J84:S84" si="151">J62</f>
         <v>Q123</v>
       </c>
-      <c r="K83" s="17" t="str">
-        <f>K62</f>
+      <c r="K84" s="17" t="str">
+        <f t="shared" si="151"/>
         <v>Q223</v>
       </c>
-      <c r="L83" s="17" t="str">
-        <f>L62</f>
+      <c r="L84" s="17" t="str">
+        <f t="shared" si="151"/>
         <v>Q323</v>
       </c>
-      <c r="M83" s="17" t="str">
-        <f>M62</f>
+      <c r="M84" s="17" t="str">
+        <f t="shared" si="151"/>
         <v>Q423</v>
       </c>
-      <c r="N83" s="17" t="str">
-        <f>N62</f>
+      <c r="N84" s="17" t="str">
+        <f t="shared" si="151"/>
         <v>Q124</v>
       </c>
-      <c r="O83" s="17" t="str">
-        <f>O62</f>
+      <c r="O84" s="17" t="str">
+        <f t="shared" si="151"/>
         <v>Q224</v>
       </c>
-      <c r="P83" s="17" t="str">
-        <f>P62</f>
+      <c r="P84" s="17" t="str">
+        <f t="shared" si="151"/>
         <v>Q324</v>
       </c>
-      <c r="Q83" s="17" t="str">
-        <f>Q62</f>
+      <c r="Q84" s="17" t="str">
+        <f t="shared" si="151"/>
         <v>Q424</v>
       </c>
-      <c r="R83" s="18" t="str">
-        <f>R62</f>
+      <c r="R84" s="18" t="str">
+        <f t="shared" si="151"/>
         <v>xxx</v>
       </c>
-      <c r="S83" s="17">
-        <f>S62</f>
-        <v>2023</v>
-      </c>
-      <c r="V83" s="17">
+      <c r="T84" s="17">
+        <f t="shared" ref="T84:U84" si="152">T62</f>
+        <v>2021</v>
+      </c>
+      <c r="U84" s="17">
+        <f t="shared" si="152"/>
+        <v>2022</v>
+      </c>
+      <c r="V84" s="17">
         <f>V62</f>
         <v>2023</v>
       </c>
-      <c r="W83" s="17">
+      <c r="W84" s="17">
         <f>W62</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="R84" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="R85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5">
         <v>943</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="5">
         <v>1079</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="M85" s="5">
+      <c r="G86" s="5">
+        <v>906</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1099</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="M86" s="5">
         <v>1368</v>
       </c>
-      <c r="N85" s="5">
+      <c r="N86" s="5">
         <v>830</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O86" s="5">
         <v>764</v>
       </c>
-      <c r="P85" s="5">
+      <c r="P86" s="5">
         <v>784</v>
       </c>
-      <c r="R85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V85" s="5">
-        <f>M85</f>
+      <c r="R86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T86" s="5">
+        <f>E86</f>
+        <v>943</v>
+      </c>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5">
+        <f>M86</f>
         <v>1368</v>
       </c>
-      <c r="W85" s="5"/>
-    </row>
-    <row r="86" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21">
-        <v>8016</v>
-      </c>
-      <c r="F86" s="21">
-        <v>10132</v>
-      </c>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="M86" s="21">
-        <v>7228</v>
-      </c>
-      <c r="N86" s="21">
-        <v>7381</v>
-      </c>
-      <c r="O86" s="21">
-        <v>6975</v>
-      </c>
-      <c r="P86" s="21">
-        <v>7077</v>
-      </c>
-      <c r="R86" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V86" s="21">
-        <f t="shared" ref="V86:V89" si="109">M86</f>
-        <v>7228</v>
-      </c>
-      <c r="W86" s="21"/>
+      <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5">
-        <v>3311</v>
+        <v>8016</v>
       </c>
       <c r="F87" s="5">
-        <v>4235</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+        <v>10132</v>
+      </c>
+      <c r="G87" s="5">
+        <v>9974</v>
+      </c>
+      <c r="H87" s="5">
+        <v>9345</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="M87" s="5">
-        <v>4232</v>
+        <v>7228</v>
       </c>
       <c r="N87" s="5">
-        <v>4178</v>
+        <v>7381</v>
       </c>
       <c r="O87" s="5">
-        <v>4382</v>
+        <v>6975</v>
       </c>
       <c r="P87" s="5">
-        <v>3770</v>
+        <v>7077</v>
       </c>
       <c r="R87" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T87" s="5">
+        <f t="shared" ref="T87:T90" si="153">E87</f>
+        <v>8016</v>
+      </c>
+      <c r="U87" s="5"/>
       <c r="V87" s="5">
-        <f t="shared" si="109"/>
-        <v>4232</v>
+        <f t="shared" ref="V87:V90" si="154">M87</f>
+        <v>7228</v>
       </c>
       <c r="W87" s="5"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5">
-        <v>14481</v>
+        <v>3311</v>
       </c>
       <c r="F88" s="5">
-        <v>17290</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+        <v>4235</v>
+      </c>
+      <c r="G88" s="5">
+        <v>5336</v>
+      </c>
+      <c r="H88" s="5">
+        <v>4679</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="M88" s="5">
-        <v>11957</v>
+        <v>4232</v>
       </c>
       <c r="N88" s="5">
-        <v>11634</v>
+        <v>4178</v>
       </c>
       <c r="O88" s="5">
-        <v>10443</v>
+        <v>4382</v>
       </c>
       <c r="P88" s="5">
-        <v>10746</v>
+        <v>3770</v>
       </c>
       <c r="R88" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T88" s="5">
+        <f t="shared" si="153"/>
+        <v>3311</v>
+      </c>
+      <c r="U88" s="5"/>
       <c r="V88" s="5">
-        <f t="shared" si="109"/>
-        <v>11957</v>
+        <f t="shared" si="154"/>
+        <v>4232</v>
       </c>
       <c r="W88" s="5"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5">
-        <v>5158</v>
+        <v>14481</v>
       </c>
       <c r="F89" s="5">
-        <v>7717</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+        <v>17290</v>
+      </c>
+      <c r="G89" s="5">
+        <v>14485</v>
+      </c>
+      <c r="H89" s="5">
+        <v>13282</v>
+      </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="M89" s="5">
+        <v>11957</v>
+      </c>
+      <c r="N89" s="5">
+        <v>11634</v>
+      </c>
+      <c r="O89" s="5">
+        <v>10443</v>
+      </c>
+      <c r="P89" s="5">
+        <v>10746</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T89" s="5">
+        <f t="shared" si="153"/>
+        <v>14481</v>
+      </c>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5">
+        <f t="shared" si="154"/>
+        <v>11957</v>
+      </c>
+      <c r="W89" s="5"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
+        <v>5158</v>
+      </c>
+      <c r="F90" s="5">
+        <v>7717</v>
+      </c>
+      <c r="G90" s="5">
+        <v>6946</v>
+      </c>
+      <c r="H90" s="5">
+        <v>6164</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="M90" s="5">
         <v>4982</v>
       </c>
-      <c r="N89" s="5">
+      <c r="N90" s="5">
         <v>4983</v>
       </c>
-      <c r="O89" s="5">
+      <c r="O90" s="5">
         <v>4398</v>
       </c>
-      <c r="P89" s="5">
+      <c r="P90" s="5">
         <v>4249</v>
       </c>
-      <c r="R89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V89" s="5">
-        <f t="shared" si="109"/>
+      <c r="R90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T90" s="5">
+        <f t="shared" si="153"/>
+        <v>5158</v>
+      </c>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5">
+        <f t="shared" si="154"/>
         <v>4982</v>
       </c>
-      <c r="W89" s="5"/>
-    </row>
-    <row r="90" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="W90" s="5"/>
+    </row>
+    <row r="91" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="6">
-        <f>+SUM(B85:B89)</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="6">
-        <f t="shared" ref="C90:I90" si="110">+SUM(C85:C89)</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="6">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="6">
-        <f t="shared" si="110"/>
+      <c r="B91" s="6">
+        <f>+SUM(B86:B90)</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" ref="C91:I91" si="155">+SUM(C86:C90)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="155"/>
         <v>31909</v>
       </c>
-      <c r="F90" s="6">
-        <f t="shared" si="110"/>
+      <c r="F91" s="6">
+        <f t="shared" si="155"/>
         <v>40453</v>
       </c>
-      <c r="G90" s="6">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="6">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <f>+SUM(J85:J89)</f>
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <f t="shared" ref="K90:P90" si="111">+SUM(K85:K89)</f>
-        <v>0</v>
-      </c>
-      <c r="L90" s="6">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="6">
-        <f t="shared" si="111"/>
+      <c r="G91" s="6">
+        <f t="shared" si="155"/>
+        <v>37647</v>
+      </c>
+      <c r="H91" s="6">
+        <f t="shared" si="155"/>
+        <v>34569</v>
+      </c>
+      <c r="I91" s="6">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
+        <f>+SUM(J86:J90)</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <f t="shared" ref="K91:P91" si="156">+SUM(K86:K90)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="6">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="6">
+        <f t="shared" si="156"/>
         <v>29767</v>
       </c>
-      <c r="N90" s="6">
-        <f t="shared" si="111"/>
+      <c r="N91" s="6">
+        <f t="shared" si="156"/>
         <v>29006</v>
       </c>
-      <c r="O90" s="6">
-        <f t="shared" si="111"/>
+      <c r="O91" s="6">
+        <f t="shared" si="156"/>
         <v>26962</v>
       </c>
-      <c r="P90" s="6">
-        <f t="shared" si="111"/>
+      <c r="P91" s="6">
+        <f t="shared" si="156"/>
         <v>26626</v>
       </c>
-      <c r="R90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V90" s="6">
-        <f t="shared" ref="V90:W90" si="112">+SUM(V85:V89)</f>
+      <c r="R91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T91" s="6">
+        <f t="shared" ref="T91:U91" si="157">+SUM(T86:T90)</f>
+        <v>31909</v>
+      </c>
+      <c r="U91" s="6">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="6">
+        <f t="shared" ref="V91:W91" si="158">+SUM(V86:V90)</f>
         <v>29767</v>
       </c>
-      <c r="W90" s="6">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5">
-        <v>5285</v>
-      </c>
-      <c r="F91" s="5">
-        <v>5404</v>
-      </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="M91" s="5">
-        <v>5500</v>
-      </c>
-      <c r="N91" s="5">
-        <v>5566</v>
-      </c>
-      <c r="O91" s="5">
-        <v>5557</v>
-      </c>
-      <c r="P91" s="5">
-        <v>5142</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V91" s="5">
-        <f t="shared" ref="V91:V94" si="113">M91</f>
-        <v>5500</v>
-      </c>
-      <c r="W91" s="5"/>
+      <c r="W91" s="6">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5">
-        <v>6747</v>
+        <v>5285</v>
       </c>
       <c r="F92" s="5">
-        <v>6750</v>
-      </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+        <v>5404</v>
+      </c>
+      <c r="G92" s="5">
+        <v>5464</v>
+      </c>
+      <c r="H92" s="5">
+        <v>5429</v>
+      </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="M92" s="5">
-        <v>6341</v>
+        <v>5500</v>
       </c>
       <c r="N92" s="5">
-        <v>7051</v>
+        <v>5566</v>
       </c>
       <c r="O92" s="5">
-        <v>6970</v>
+        <v>5557</v>
       </c>
       <c r="P92" s="5">
-        <v>6999</v>
+        <v>5142</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T92" s="5">
+        <f t="shared" ref="T92:T95" si="159">E92</f>
+        <v>5285</v>
+      </c>
+      <c r="U92" s="5"/>
       <c r="V92" s="5">
-        <f t="shared" si="113"/>
-        <v>6341</v>
+        <f t="shared" ref="V92:V95" si="160">M92</f>
+        <v>5500</v>
       </c>
       <c r="W92" s="5"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5">
-        <v>1023</v>
+        <v>6747</v>
       </c>
       <c r="F93" s="5">
-        <v>999</v>
-      </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
+        <v>6750</v>
+      </c>
+      <c r="G93" s="5">
+        <v>6547</v>
+      </c>
+      <c r="H93" s="5">
+        <v>6364</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="M93" s="5">
-        <v>1211</v>
+        <v>6341</v>
       </c>
       <c r="N93" s="5">
-        <v>1285</v>
+        <v>7051</v>
       </c>
       <c r="O93" s="5">
-        <v>1293</v>
+        <v>6970</v>
       </c>
       <c r="P93" s="5">
-        <v>1291</v>
+        <v>6999</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T93" s="5">
+        <f t="shared" si="159"/>
+        <v>6747</v>
+      </c>
+      <c r="U93" s="5"/>
       <c r="V93" s="5">
-        <f t="shared" si="113"/>
-        <v>1211</v>
+        <f t="shared" si="160"/>
+        <v>6341</v>
       </c>
       <c r="W93" s="5"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5">
-        <v>1369</v>
+        <v>1023</v>
       </c>
       <c r="F94" s="5">
-        <v>1466</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+        <v>999</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1002</v>
+      </c>
+      <c r="H94" s="5">
+        <v>983</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="M94" s="5">
+        <v>1211</v>
+      </c>
+      <c r="N94" s="5">
+        <v>1285</v>
+      </c>
+      <c r="O94" s="5">
+        <v>1293</v>
+      </c>
+      <c r="P94" s="5">
+        <v>1291</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T94" s="5">
+        <f t="shared" si="159"/>
+        <v>1023</v>
+      </c>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5">
+        <f t="shared" si="160"/>
+        <v>1211</v>
+      </c>
+      <c r="W94" s="5"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5">
+        <v>1369</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1466</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1488</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1354</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="M95" s="5">
         <v>1304</v>
       </c>
-      <c r="N94" s="5">
+      <c r="N95" s="5">
         <v>1327</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O95" s="5">
         <v>1288</v>
       </c>
-      <c r="P94" s="5">
+      <c r="P95" s="5">
         <v>1313</v>
       </c>
-      <c r="R94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V94" s="5">
-        <f t="shared" si="113"/>
+      <c r="R95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T95" s="5">
+        <f t="shared" si="159"/>
+        <v>1369</v>
+      </c>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5">
+        <f t="shared" si="160"/>
         <v>1304</v>
       </c>
-      <c r="W94" s="5"/>
-    </row>
-    <row r="95" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="W95" s="5"/>
+    </row>
+    <row r="96" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="6">
-        <f t="shared" ref="B95:I95" si="114">+SUM(B91:B94)</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="6">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="D95" s="6">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="6">
-        <f t="shared" si="114"/>
+      <c r="B96" s="6">
+        <f t="shared" ref="B96:I96" si="161">+SUM(B92:B95)</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="6">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
+        <f t="shared" si="161"/>
         <v>14424</v>
       </c>
-      <c r="F95" s="6">
-        <f t="shared" si="114"/>
+      <c r="F96" s="6">
+        <f t="shared" si="161"/>
         <v>14619</v>
       </c>
-      <c r="G95" s="6">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <f>+SUM(J91:J94)</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <f t="shared" ref="K95:P95" si="115">+SUM(K91:K94)</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="6">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="6">
-        <f t="shared" si="115"/>
+      <c r="G96" s="6">
+        <f t="shared" si="161"/>
+        <v>14501</v>
+      </c>
+      <c r="H96" s="6">
+        <f t="shared" si="161"/>
+        <v>14130</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <f>+SUM(J92:J95)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <f t="shared" ref="K96:P96" si="162">+SUM(K92:K95)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="6">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="6">
+        <f t="shared" si="162"/>
         <v>14356</v>
       </c>
-      <c r="N95" s="6">
-        <f t="shared" si="115"/>
+      <c r="N96" s="6">
+        <f t="shared" si="162"/>
         <v>15229</v>
       </c>
-      <c r="O95" s="6">
-        <f t="shared" si="115"/>
+      <c r="O96" s="6">
+        <f t="shared" si="162"/>
         <v>15108</v>
       </c>
-      <c r="P95" s="6">
-        <f t="shared" si="115"/>
+      <c r="P96" s="6">
+        <f t="shared" si="162"/>
         <v>14745</v>
       </c>
-      <c r="R95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V95" s="6">
-        <f t="shared" ref="V95:W95" si="116">+SUM(V91:V94)</f>
+      <c r="R96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T96" s="6">
+        <f t="shared" ref="T96:U96" si="163">+SUM(T92:T95)</f>
+        <v>14424</v>
+      </c>
+      <c r="U96" s="6">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="6">
+        <f t="shared" ref="V96:W96" si="164">+SUM(V92:V95)</f>
         <v>14356</v>
       </c>
-      <c r="W95" s="6">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5">
-        <v>554</v>
-      </c>
-      <c r="F96" s="5">
-        <v>552</v>
-      </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="M96" s="5">
-        <v>573</v>
-      </c>
-      <c r="N96" s="5">
-        <v>573</v>
-      </c>
-      <c r="O96" s="5">
-        <v>570</v>
-      </c>
-      <c r="P96" s="5">
-        <v>578</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V96" s="5">
-        <f t="shared" ref="V96:V100" si="117">M96</f>
-        <v>573</v>
+      <c r="W96" s="6">
+        <f t="shared" si="164"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5">
-        <v>5597</v>
+        <v>554</v>
       </c>
       <c r="F97" s="5">
-        <v>5614</v>
-      </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
+        <v>552</v>
+      </c>
+      <c r="G97" s="5">
+        <v>510</v>
+      </c>
+      <c r="H97" s="5">
+        <v>500</v>
+      </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="M97" s="5">
-        <v>5876</v>
+        <v>573</v>
       </c>
       <c r="N97" s="5">
-        <v>5940</v>
+        <v>573</v>
       </c>
       <c r="O97" s="5">
-        <v>6002</v>
+        <v>570</v>
       </c>
       <c r="P97" s="5">
-        <v>6119</v>
+        <v>578</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T97" s="5">
+        <f t="shared" ref="T97:T101" si="165">E97</f>
+        <v>554</v>
+      </c>
+      <c r="U97" s="5"/>
       <c r="V97" s="5">
-        <f t="shared" si="117"/>
-        <v>5876</v>
+        <f t="shared" ref="V97:V101" si="166">M97</f>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5">
-        <v>19112</v>
+        <v>5597</v>
       </c>
       <c r="F98" s="5">
-        <v>19096</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+        <v>5614</v>
+      </c>
+      <c r="G98" s="5">
+        <v>5596</v>
+      </c>
+      <c r="H98" s="5">
+        <v>5532</v>
+      </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="M98" s="5">
-        <v>20223</v>
+        <v>5876</v>
       </c>
       <c r="N98" s="5">
-        <v>20298</v>
+        <v>5940</v>
       </c>
       <c r="O98" s="5">
-        <v>20397</v>
+        <v>6002</v>
       </c>
       <c r="P98" s="5">
-        <v>20659</v>
+        <v>6119</v>
       </c>
       <c r="R98" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T98" s="5">
+        <f t="shared" si="165"/>
+        <v>5597</v>
+      </c>
+      <c r="U98" s="5"/>
       <c r="V98" s="5">
-        <f t="shared" si="117"/>
-        <v>20223</v>
+        <f t="shared" si="166"/>
+        <v>5876</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5">
-        <v>960</v>
+        <v>19112</v>
       </c>
       <c r="F99" s="5">
-        <v>1086</v>
-      </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+        <v>19096</v>
+      </c>
+      <c r="G99" s="5">
+        <v>18994</v>
+      </c>
+      <c r="H99" s="5">
+        <v>18941</v>
+      </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="M99" s="5">
-        <v>1360</v>
+        <v>20223</v>
       </c>
       <c r="N99" s="5">
-        <v>1421</v>
+        <v>20298</v>
       </c>
       <c r="O99" s="5">
-        <v>1458</v>
+        <v>20397</v>
       </c>
       <c r="P99" s="5">
-        <v>1559</v>
+        <v>20659</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T99" s="5">
+        <f t="shared" si="165"/>
+        <v>19112</v>
+      </c>
+      <c r="U99" s="5"/>
       <c r="V99" s="5">
-        <f t="shared" si="117"/>
-        <v>1360</v>
+        <f t="shared" si="166"/>
+        <v>20223</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5">
-        <v>-16420</v>
+        <v>960</v>
       </c>
       <c r="F100" s="5">
-        <v>-16554</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+        <v>1086</v>
+      </c>
+      <c r="G100" s="5">
+        <v>1175</v>
+      </c>
+      <c r="H100" s="5">
+        <v>1221</v>
+      </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="M100" s="5">
+        <v>1360</v>
+      </c>
+      <c r="N100" s="5">
+        <v>1421</v>
+      </c>
+      <c r="O100" s="5">
+        <v>1458</v>
+      </c>
+      <c r="P100" s="5">
+        <v>1559</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T100" s="5">
+        <f t="shared" si="165"/>
+        <v>960</v>
+      </c>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5">
+        <f t="shared" si="166"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5">
+        <v>-16420</v>
+      </c>
+      <c r="F101" s="5">
+        <v>-16554</v>
+      </c>
+      <c r="G101" s="5">
+        <v>-16595</v>
+      </c>
+      <c r="H101" s="5">
+        <v>-16589</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="M101" s="5">
         <v>-17524</v>
       </c>
-      <c r="N100" s="5">
+      <c r="N101" s="5">
         <v>-17636</v>
       </c>
-      <c r="O100" s="5">
+      <c r="O101" s="5">
         <v>-17799</v>
       </c>
-      <c r="P100" s="5">
+      <c r="P101" s="5">
         <v>-18087</v>
       </c>
-      <c r="R100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V100" s="5">
-        <f t="shared" si="117"/>
+      <c r="R101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T101" s="5">
+        <f t="shared" si="165"/>
+        <v>-16420</v>
+      </c>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5">
+        <f t="shared" si="166"/>
         <v>-17524</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B101" s="6">
-        <f t="shared" ref="B101:I101" si="118">+SUM(B96:B100)</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="6">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="6">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="6">
-        <f t="shared" si="118"/>
-        <v>9803</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" si="118"/>
-        <v>9794</v>
-      </c>
-      <c r="G101" s="6">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="6">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <f>+SUM(J96:J100)</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="6">
-        <f t="shared" ref="K101:N101" si="119">+SUM(K96:K100)</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="6">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="6">
-        <f t="shared" si="119"/>
-        <v>10508</v>
-      </c>
-      <c r="N101" s="6">
-        <f t="shared" si="119"/>
-        <v>10596</v>
-      </c>
-      <c r="O101" s="6">
-        <f t="shared" ref="O101:P101" si="120">+SUM(O96:O100)</f>
-        <v>10628</v>
-      </c>
-      <c r="P101" s="6">
-        <f t="shared" si="120"/>
-        <v>10828</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V101" s="6">
-        <f t="shared" ref="V101:W101" si="121">+SUM(V96:V100)</f>
-        <v>10508</v>
-      </c>
-      <c r="W101" s="6">
-        <f t="shared" si="121"/>
-        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="6">
+        <f t="shared" ref="B102:I102" si="167">+SUM(B97:B101)</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="6">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" si="167"/>
+        <v>9803</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="167"/>
+        <v>9794</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="167"/>
+        <v>9680</v>
+      </c>
+      <c r="H102" s="6">
+        <f t="shared" si="167"/>
+        <v>9605</v>
+      </c>
+      <c r="I102" s="6">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <f>+SUM(J97:J101)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <f t="shared" ref="K102:N102" si="168">+SUM(K97:K101)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="6">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="6">
+        <f t="shared" si="168"/>
+        <v>10508</v>
+      </c>
+      <c r="N102" s="6">
+        <f t="shared" si="168"/>
+        <v>10596</v>
+      </c>
+      <c r="O102" s="6">
+        <f t="shared" ref="O102:P102" si="169">+SUM(O97:O101)</f>
+        <v>10628</v>
+      </c>
+      <c r="P102" s="6">
+        <f t="shared" si="169"/>
+        <v>10828</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T102" s="6">
+        <f t="shared" ref="T102:U102" si="170">+SUM(T97:T101)</f>
+        <v>9803</v>
+      </c>
+      <c r="U102" s="6">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="6">
+        <f t="shared" ref="V102:W102" si="171">+SUM(V97:V101)</f>
+        <v>10508</v>
+      </c>
+      <c r="W102" s="6">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="6">
-        <f t="shared" ref="B102:I102" si="122">+B101+B95+B90</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="6">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="6">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="6">
-        <f t="shared" si="122"/>
+      <c r="B103" s="6">
+        <f t="shared" ref="B103:I103" si="172">+B102+B96+B91</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
+        <f t="shared" si="172"/>
         <v>56136</v>
       </c>
-      <c r="F102" s="6">
-        <f t="shared" si="122"/>
+      <c r="F103" s="6">
+        <f t="shared" si="172"/>
         <v>64866</v>
       </c>
-      <c r="G102" s="6">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="6">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="6">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <f>+J101+J95+J90</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
-        <f t="shared" ref="K102:N102" si="123">+K101+K95+K90</f>
-        <v>0</v>
-      </c>
-      <c r="L102" s="6">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="6">
-        <f t="shared" si="123"/>
+      <c r="G103" s="6">
+        <f t="shared" si="172"/>
+        <v>61828</v>
+      </c>
+      <c r="H103" s="6">
+        <f t="shared" si="172"/>
+        <v>58304</v>
+      </c>
+      <c r="I103" s="6">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <f>+J102+J96+J91</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <f t="shared" ref="K103:N103" si="173">+K102+K96+K91</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="6">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="6">
+        <f t="shared" si="173"/>
         <v>54631</v>
       </c>
-      <c r="N102" s="6">
-        <f t="shared" si="123"/>
+      <c r="N103" s="6">
+        <f t="shared" si="173"/>
         <v>54831</v>
       </c>
-      <c r="O102" s="6">
-        <f t="shared" ref="O102:P102" si="124">+O101+O95+O90</f>
+      <c r="O103" s="6">
+        <f t="shared" ref="O103:P103" si="174">+O102+O96+O91</f>
         <v>52698</v>
       </c>
-      <c r="P102" s="6">
-        <f t="shared" si="124"/>
+      <c r="P103" s="6">
+        <f t="shared" si="174"/>
         <v>52199</v>
       </c>
-      <c r="R102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V102" s="6">
-        <f t="shared" ref="V102:W102" si="125">+V101+V95+V90</f>
+      <c r="R103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T103" s="6">
+        <f t="shared" ref="T103:U103" si="175">+T102+T96+T91</f>
+        <v>56136</v>
+      </c>
+      <c r="U103" s="6">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="6">
+        <f t="shared" ref="V103:W103" si="176">+V102+V96+V91</f>
         <v>54631</v>
       </c>
-      <c r="W102" s="6">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A103" s="3"/>
-      <c r="M103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="R103" s="1" t="s">
-        <v>2</v>
+      <c r="W103" s="6">
+        <f t="shared" si="176"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5">
-        <v>958</v>
-      </c>
-      <c r="F104" s="5">
-        <v>3777</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="M104" s="5">
-        <v>105</v>
-      </c>
-      <c r="N104" s="5">
-        <v>1734</v>
-      </c>
-      <c r="O104" s="5">
-        <v>2312</v>
-      </c>
-      <c r="P104" s="5">
-        <v>1733</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="M104" s="5"/>
+      <c r="O104" s="5"/>
       <c r="R104" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="V104" s="5">
-        <f t="shared" ref="V104:V109" si="126">M104</f>
-        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5">
-        <v>6388</v>
+        <v>958</v>
       </c>
       <c r="F105" s="5">
-        <v>6135</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+        <v>3777</v>
+      </c>
+      <c r="G105" s="5">
+        <v>2352</v>
+      </c>
+      <c r="H105" s="5">
+        <v>181</v>
+      </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="M105" s="5">
-        <v>6313</v>
+        <v>105</v>
       </c>
       <c r="N105" s="5">
-        <v>5599</v>
+        <v>1734</v>
       </c>
       <c r="O105" s="5">
-        <v>5035</v>
+        <v>2312</v>
       </c>
       <c r="P105" s="5">
-        <v>4911</v>
+        <v>1733</v>
       </c>
       <c r="R105" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T105" s="5">
+        <f t="shared" ref="T105:T110" si="177">E105</f>
+        <v>958</v>
+      </c>
+      <c r="U105" s="5"/>
       <c r="V105" s="5">
-        <f t="shared" si="126"/>
-        <v>6313</v>
+        <f t="shared" ref="V105:V110" si="178">M105</f>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5">
-        <v>8965</v>
+        <v>6388</v>
       </c>
       <c r="F106" s="5">
-        <v>11425</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+        <v>6135</v>
+      </c>
+      <c r="G106" s="5">
+        <v>5601</v>
+      </c>
+      <c r="H106" s="5">
+        <v>6543</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="M106" s="5">
-        <v>7867</v>
+        <v>6313</v>
       </c>
       <c r="N106" s="5">
-        <v>8176</v>
+        <v>5599</v>
       </c>
       <c r="O106" s="5">
-        <v>7468</v>
+        <v>5035</v>
       </c>
       <c r="P106" s="5">
-        <v>7669</v>
+        <v>4911</v>
       </c>
       <c r="R106" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T106" s="5">
+        <f t="shared" si="177"/>
+        <v>6388</v>
+      </c>
+      <c r="U106" s="5"/>
       <c r="V106" s="5">
-        <f t="shared" si="126"/>
-        <v>7867</v>
+        <f t="shared" si="178"/>
+        <v>6313</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5">
-        <v>4790</v>
+        <v>8965</v>
       </c>
       <c r="F107" s="5">
-        <v>6363</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+        <v>11425</v>
+      </c>
+      <c r="G107" s="5">
+        <v>11307</v>
+      </c>
+      <c r="H107" s="5">
+        <v>10359</v>
+      </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="M107" s="5">
-        <v>4076</v>
+        <v>7867</v>
       </c>
       <c r="N107" s="5">
-        <v>3922</v>
+        <v>8176</v>
       </c>
       <c r="O107" s="5">
-        <v>3569</v>
+        <v>7468</v>
       </c>
       <c r="P107" s="5">
-        <v>3671</v>
+        <v>7669</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T107" s="5">
+        <f t="shared" si="177"/>
+        <v>8965</v>
+      </c>
+      <c r="U107" s="5"/>
       <c r="V107" s="5">
-        <f t="shared" si="126"/>
-        <v>4076</v>
+        <f t="shared" si="178"/>
+        <v>7867</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5">
-        <v>277</v>
+        <v>4790</v>
       </c>
       <c r="F108" s="5">
-        <v>280</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+        <v>6363</v>
+      </c>
+      <c r="G108" s="5">
+        <v>5014</v>
+      </c>
+      <c r="H108" s="5">
+        <v>4686</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="M108" s="5">
-        <v>300</v>
+        <v>4076</v>
       </c>
       <c r="N108" s="5">
-        <v>298</v>
+        <v>3922</v>
       </c>
       <c r="O108" s="5">
-        <v>299</v>
+        <v>3569</v>
       </c>
       <c r="P108" s="5">
-        <v>294</v>
+        <v>3671</v>
       </c>
       <c r="R108" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T108" s="5">
+        <f t="shared" si="177"/>
+        <v>4790</v>
+      </c>
+      <c r="U108" s="5"/>
       <c r="V108" s="5">
-        <f t="shared" si="126"/>
-        <v>300</v>
+        <f t="shared" si="178"/>
+        <v>4076</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5">
-        <v>570</v>
+        <v>277</v>
       </c>
       <c r="F109" s="5">
-        <v>543</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="G109" s="5">
+        <v>282</v>
+      </c>
+      <c r="H109" s="5">
+        <v>279</v>
+      </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="M109" s="5">
+        <v>300</v>
+      </c>
+      <c r="N109" s="5">
+        <v>298</v>
+      </c>
+      <c r="O109" s="5">
+        <v>299</v>
+      </c>
+      <c r="P109" s="5">
+        <v>294</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T109" s="5">
+        <f t="shared" si="177"/>
+        <v>277</v>
+      </c>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5">
+        <f t="shared" si="178"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5">
+        <v>570</v>
+      </c>
+      <c r="F110" s="5">
+        <v>543</v>
+      </c>
+      <c r="G110" s="5">
+        <v>1104</v>
+      </c>
+      <c r="H110" s="5">
+        <v>888</v>
+      </c>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="M110" s="5">
         <v>1</v>
       </c>
-      <c r="N109" s="5">
+      <c r="N110" s="5">
         <v>1</v>
       </c>
-      <c r="O109" s="5">
+      <c r="O110" s="5">
         <v>1</v>
       </c>
-      <c r="P109" s="5">
+      <c r="P110" s="5">
         <v>725</v>
       </c>
-      <c r="R109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V109" s="5">
-        <f t="shared" si="126"/>
+      <c r="R110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T110" s="5">
+        <f t="shared" si="177"/>
+        <v>570</v>
+      </c>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5">
+        <f t="shared" si="178"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="6">
-        <f t="shared" ref="B110:I110" si="127">+SUM(B104:B109)</f>
-        <v>0</v>
-      </c>
-      <c r="C110" s="6">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="D110" s="6">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="6">
-        <f t="shared" si="127"/>
+      <c r="B111" s="6">
+        <f t="shared" ref="B111:I111" si="179">+SUM(B105:B110)</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
+        <f t="shared" si="179"/>
         <v>21948</v>
       </c>
-      <c r="F110" s="6">
-        <f t="shared" si="127"/>
+      <c r="F111" s="6">
+        <f t="shared" si="179"/>
         <v>28523</v>
       </c>
-      <c r="G110" s="6">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="6">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="6">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="6">
-        <f>+SUM(J104:J109)</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="6">
-        <f t="shared" ref="K110:P110" si="128">+SUM(K104:K109)</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="6">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="6">
-        <f t="shared" si="128"/>
+      <c r="G111" s="6">
+        <f t="shared" si="179"/>
+        <v>25660</v>
+      </c>
+      <c r="H111" s="6">
+        <f t="shared" si="179"/>
+        <v>22936</v>
+      </c>
+      <c r="I111" s="6">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="6">
+        <f>+SUM(J105:J110)</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="6">
+        <f t="shared" ref="K111:P111" si="180">+SUM(K105:K110)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="6">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="6">
+        <f t="shared" si="180"/>
         <v>18662</v>
       </c>
-      <c r="N110" s="6">
-        <f t="shared" si="128"/>
+      <c r="N111" s="6">
+        <f t="shared" si="180"/>
         <v>19730</v>
       </c>
-      <c r="O110" s="6">
-        <f t="shared" si="128"/>
+      <c r="O111" s="6">
+        <f t="shared" si="180"/>
         <v>18684</v>
       </c>
-      <c r="P110" s="6">
-        <f t="shared" si="128"/>
+      <c r="P111" s="6">
+        <f t="shared" si="180"/>
         <v>19003</v>
       </c>
-      <c r="R110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V110" s="6">
-        <f t="shared" ref="V110:W110" si="129">+SUM(V104:V109)</f>
+      <c r="R111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T111" s="6">
+        <f t="shared" ref="T111:U111" si="181">+SUM(T105:T110)</f>
+        <v>21948</v>
+      </c>
+      <c r="U111" s="6">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="6">
+        <f t="shared" ref="V111:W111" si="182">+SUM(V105:V110)</f>
         <v>18662</v>
       </c>
-      <c r="W110" s="6">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>26</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5">
-        <v>8011</v>
-      </c>
-      <c r="F111" s="5">
-        <v>8752</v>
-      </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="M111" s="5">
-        <v>8259</v>
-      </c>
-      <c r="N111" s="5">
-        <v>8245</v>
-      </c>
-      <c r="O111" s="5">
-        <v>8247</v>
-      </c>
-      <c r="P111" s="5">
-        <v>7578</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V111" s="5">
-        <f t="shared" ref="V111:V114" si="130">M111</f>
-        <v>8259</v>
+      <c r="W111" s="6">
+        <f t="shared" si="182"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5">
-        <v>1412</v>
+        <v>8011</v>
       </c>
       <c r="F112" s="5">
-        <v>1604</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+        <v>8752</v>
+      </c>
+      <c r="G112" s="5">
+        <v>8062</v>
+      </c>
+      <c r="H112" s="5">
+        <v>7971</v>
+      </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="M112" s="5">
-        <v>1309</v>
+        <v>8259</v>
       </c>
       <c r="N112" s="5">
-        <v>1291</v>
+        <v>8245</v>
       </c>
       <c r="O112" s="5">
-        <v>1289</v>
+        <v>8247</v>
       </c>
       <c r="P112" s="5">
-        <v>1278</v>
+        <v>7578</v>
       </c>
       <c r="R112" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T112" s="5">
+        <f t="shared" ref="T112:T115" si="183">E112</f>
+        <v>8011</v>
+      </c>
+      <c r="U112" s="5"/>
       <c r="V112" s="5">
-        <f t="shared" si="130"/>
-        <v>1309</v>
+        <f t="shared" ref="V112:V115" si="184">M112</f>
+        <v>8259</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5">
-        <v>765</v>
+        <v>1412</v>
       </c>
       <c r="F113" s="5">
-        <v>739</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+        <v>1604</v>
+      </c>
+      <c r="G113" s="5">
+        <v>1579</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1639</v>
+      </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="M113" s="5">
-        <v>931</v>
+        <v>1309</v>
       </c>
       <c r="N113" s="5">
-        <v>1010</v>
+        <v>1291</v>
       </c>
       <c r="O113" s="5">
-        <v>1017</v>
+        <v>1289</v>
       </c>
       <c r="P113" s="5">
-        <v>1019</v>
+        <v>1278</v>
       </c>
       <c r="R113" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T113" s="5">
+        <f t="shared" si="183"/>
+        <v>1412</v>
+      </c>
+      <c r="U113" s="5"/>
       <c r="V113" s="5">
-        <f t="shared" si="130"/>
-        <v>931</v>
+        <f t="shared" si="184"/>
+        <v>1309</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5">
-        <v>1233</v>
+        <v>765</v>
       </c>
       <c r="F114" s="5">
-        <v>1231</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+        <v>739</v>
+      </c>
+      <c r="G114" s="5">
+        <v>738</v>
+      </c>
+      <c r="H114" s="5">
+        <v>723</v>
+      </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="M114" s="5">
+        <v>931</v>
+      </c>
+      <c r="N114" s="5">
+        <v>1010</v>
+      </c>
+      <c r="O114" s="5">
+        <v>1017</v>
+      </c>
+      <c r="P114" s="5">
+        <v>1019</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T114" s="5">
+        <f t="shared" si="183"/>
+        <v>765</v>
+      </c>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5">
+        <f t="shared" si="184"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5">
+        <v>1233</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1231</v>
+      </c>
+      <c r="G115" s="5">
+        <v>1102</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1016</v>
+      </c>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="M115" s="5">
         <v>1005</v>
       </c>
-      <c r="N114" s="5">
+      <c r="N115" s="5">
         <v>1016</v>
       </c>
-      <c r="O114" s="5">
+      <c r="O115" s="5">
         <v>1000</v>
       </c>
-      <c r="P114" s="5">
+      <c r="P115" s="5">
         <v>1054</v>
       </c>
-      <c r="R114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V114" s="5">
-        <f t="shared" si="130"/>
+      <c r="R115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T115" s="5">
+        <f t="shared" si="183"/>
+        <v>1233</v>
+      </c>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5">
+        <f t="shared" si="184"/>
         <v>1005</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B115" s="6">
-        <f t="shared" ref="B115:I115" si="131">+SUM(B111:B114)</f>
-        <v>0</v>
-      </c>
-      <c r="C115" s="6">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="D115" s="6">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
-        <f t="shared" si="131"/>
-        <v>11421</v>
-      </c>
-      <c r="F115" s="6">
-        <f t="shared" si="131"/>
-        <v>12326</v>
-      </c>
-      <c r="G115" s="6">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="6">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="6">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="6">
-        <f>+SUM(J111:J114)</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="6">
-        <f t="shared" ref="K115:N115" si="132">+SUM(K111:K114)</f>
-        <v>0</v>
-      </c>
-      <c r="L115" s="6">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="6">
-        <f t="shared" si="132"/>
-        <v>11504</v>
-      </c>
-      <c r="N115" s="6">
-        <f t="shared" si="132"/>
-        <v>11562</v>
-      </c>
-      <c r="O115" s="6">
-        <f t="shared" ref="O115:P115" si="133">+SUM(O111:O114)</f>
-        <v>11553</v>
-      </c>
-      <c r="P115" s="6">
-        <f t="shared" si="133"/>
-        <v>10929</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V115" s="6">
-        <f t="shared" ref="V115:W115" si="134">+SUM(V111:V114)</f>
-        <v>11504</v>
-      </c>
-      <c r="W115" s="6">
-        <f t="shared" si="134"/>
-        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="6">
+        <f t="shared" ref="B116:I116" si="185">+SUM(B112:B115)</f>
+        <v>0</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="6">
+        <f t="shared" si="185"/>
+        <v>11421</v>
+      </c>
+      <c r="F116" s="6">
+        <f t="shared" si="185"/>
+        <v>12326</v>
+      </c>
+      <c r="G116" s="6">
+        <f t="shared" si="185"/>
+        <v>11481</v>
+      </c>
+      <c r="H116" s="6">
+        <f t="shared" si="185"/>
+        <v>11349</v>
+      </c>
+      <c r="I116" s="6">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="6">
+        <f>+SUM(J112:J115)</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="6">
+        <f t="shared" ref="K116:N116" si="186">+SUM(K112:K115)</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="6">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="6">
+        <f t="shared" si="186"/>
+        <v>11504</v>
+      </c>
+      <c r="N116" s="6">
+        <f t="shared" si="186"/>
+        <v>11562</v>
+      </c>
+      <c r="O116" s="6">
+        <f t="shared" ref="O116:P116" si="187">+SUM(O112:O115)</f>
+        <v>11553</v>
+      </c>
+      <c r="P116" s="6">
+        <f t="shared" si="187"/>
+        <v>10929</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T116" s="6">
+        <f t="shared" ref="T116:U116" si="188">+SUM(T112:T115)</f>
+        <v>11421</v>
+      </c>
+      <c r="U116" s="6">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="6">
+        <f t="shared" ref="V116:W116" si="189">+SUM(V112:V115)</f>
+        <v>11504</v>
+      </c>
+      <c r="W116" s="6">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B116" s="6">
-        <f t="shared" ref="B116:I116" si="135">+B115+B110</f>
-        <v>0</v>
-      </c>
-      <c r="C116" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="D116" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="E116" s="6">
-        <f t="shared" si="135"/>
+      <c r="B117" s="6">
+        <f t="shared" ref="B117:I117" si="190">+B116+B111</f>
+        <v>0</v>
+      </c>
+      <c r="C117" s="6">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="6">
+        <f t="shared" si="190"/>
         <v>33369</v>
       </c>
-      <c r="F116" s="6">
-        <f t="shared" si="135"/>
+      <c r="F117" s="6">
+        <f t="shared" si="190"/>
         <v>40849</v>
       </c>
-      <c r="G116" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="6">
-        <f>+J115+J110</f>
-        <v>0</v>
-      </c>
-      <c r="K116" s="6">
-        <f t="shared" ref="K116:N116" si="136">+K115+K110</f>
-        <v>0</v>
-      </c>
-      <c r="L116" s="6">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="6">
-        <f t="shared" si="136"/>
+      <c r="G117" s="6">
+        <f t="shared" si="190"/>
+        <v>37141</v>
+      </c>
+      <c r="H117" s="6">
+        <f t="shared" si="190"/>
+        <v>34285</v>
+      </c>
+      <c r="I117" s="6">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="6">
+        <f>+J116+J111</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="6">
+        <f t="shared" ref="K117:N117" si="191">+K116+K111</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="6">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="6">
+        <f t="shared" si="191"/>
         <v>30166</v>
       </c>
-      <c r="N116" s="6">
-        <f t="shared" si="136"/>
+      <c r="N117" s="6">
+        <f t="shared" si="191"/>
         <v>31292</v>
       </c>
-      <c r="O116" s="6">
-        <f t="shared" ref="O116:P116" si="137">+O115+O110</f>
+      <c r="O117" s="6">
+        <f t="shared" ref="O117:P117" si="192">+O116+O111</f>
         <v>30237</v>
       </c>
-      <c r="P116" s="6">
-        <f t="shared" si="137"/>
+      <c r="P117" s="6">
+        <f t="shared" si="192"/>
         <v>29932</v>
       </c>
-      <c r="R116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V116" s="6">
-        <f t="shared" ref="V116:W116" si="138">+V115+V110</f>
+      <c r="R117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T117" s="6">
+        <f t="shared" ref="T117:U117" si="193">+T116+T111</f>
+        <v>33369</v>
+      </c>
+      <c r="U117" s="6">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="6">
+        <f t="shared" ref="V117:W117" si="194">+V116+V111</f>
         <v>30166</v>
       </c>
-      <c r="W116" s="6">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="W117" s="6">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>103</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5">
-        <v>259</v>
-      </c>
-      <c r="F117" s="5">
-        <v>262</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="M117" s="5">
-        <v>320</v>
-      </c>
-      <c r="N117" s="5">
-        <v>307</v>
-      </c>
-      <c r="O117" s="5">
-        <v>302</v>
-      </c>
-      <c r="P117" s="5">
-        <v>283</v>
-      </c>
-      <c r="R117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V117">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="E118" s="5">
+        <v>259</v>
+      </c>
+      <c r="F118" s="5">
+        <v>262</v>
+      </c>
+      <c r="G118" s="5">
+        <v>261</v>
+      </c>
+      <c r="H118" s="5">
+        <v>290</v>
+      </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="M118" s="5">
+        <v>320</v>
+      </c>
+      <c r="N118" s="5">
+        <v>307</v>
+      </c>
+      <c r="O118" s="5">
+        <v>302</v>
+      </c>
+      <c r="P118" s="5">
+        <v>283</v>
+      </c>
       <c r="R118" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="V118">
+        <v>320</v>
+      </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>27</v>
-      </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="5">
-        <v>2994</v>
-      </c>
-      <c r="F119" s="5">
-        <v>3028</v>
-      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-      <c r="M119" s="5">
-        <v>3154</v>
-      </c>
-      <c r="N119" s="5">
-        <v>2720</v>
-      </c>
-      <c r="O119">
-        <v>3200</v>
-      </c>
-      <c r="P119">
-        <v>3208</v>
-      </c>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
       <c r="R119" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="V119" s="5">
-        <f t="shared" ref="V119:V122" si="139">M119</f>
-        <v>3154</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5">
-        <v>21655</v>
+        <v>2994</v>
       </c>
       <c r="F120" s="5">
-        <v>22483</v>
-      </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+        <v>3028</v>
+      </c>
+      <c r="G120" s="5">
+        <v>3066</v>
+      </c>
+      <c r="H120" s="5">
+        <v>3110</v>
+      </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="M120" s="5">
-        <v>23465</v>
+        <v>3154</v>
       </c>
       <c r="N120" s="5">
-        <v>23069</v>
+        <v>2720</v>
       </c>
       <c r="O120">
-        <v>21828</v>
+        <v>3200</v>
       </c>
       <c r="P120">
-        <v>21606</v>
+        <v>3208</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T120" s="5">
+        <f t="shared" ref="T120:T123" si="195">E120</f>
+        <v>2994</v>
+      </c>
+      <c r="U120" s="5"/>
       <c r="V120" s="5">
-        <f t="shared" si="139"/>
-        <v>23465</v>
+        <f t="shared" ref="V120:V123" si="196">M120</f>
+        <v>3154</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5">
-        <v>-2172</v>
+        <v>21655</v>
       </c>
       <c r="F121" s="5">
-        <v>-1789</v>
-      </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+        <v>22483</v>
+      </c>
+      <c r="G121" s="5">
+        <v>23292</v>
+      </c>
+      <c r="H121" s="5">
+        <v>23099</v>
+      </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="M121" s="5">
-        <v>-2487</v>
+        <v>23465</v>
       </c>
       <c r="N121" s="5">
-        <v>-2570</v>
+        <v>23069</v>
       </c>
       <c r="O121">
-        <v>-2880</v>
+        <v>21828</v>
       </c>
       <c r="P121">
-        <v>-2840</v>
+        <v>21606</v>
       </c>
       <c r="R121" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T121" s="5">
+        <f t="shared" si="195"/>
+        <v>21655</v>
+      </c>
+      <c r="U121" s="5"/>
       <c r="V121" s="5">
-        <f t="shared" si="139"/>
-        <v>-2487</v>
+        <f t="shared" si="196"/>
+        <v>23465</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5">
-        <v>31</v>
+        <v>-2172</v>
       </c>
       <c r="F122" s="5">
-        <v>33</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+        <v>-1789</v>
+      </c>
+      <c r="G122" s="5">
+        <v>-1965</v>
+      </c>
+      <c r="H122" s="5">
+        <v>-2212</v>
+      </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="M122" s="5">
+        <v>-2487</v>
+      </c>
+      <c r="N122" s="5">
+        <v>-2570</v>
+      </c>
+      <c r="O122">
+        <v>-2880</v>
+      </c>
+      <c r="P122">
+        <v>-2840</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T122" s="5">
+        <f t="shared" si="195"/>
+        <v>-2172</v>
+      </c>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5">
+        <f t="shared" si="196"/>
+        <v>-2487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5">
+        <v>31</v>
+      </c>
+      <c r="F123" s="5">
+        <v>33</v>
+      </c>
+      <c r="G123" s="5">
+        <v>33</v>
+      </c>
+      <c r="H123" s="5">
+        <v>32</v>
+      </c>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="M123" s="5">
         <v>13</v>
       </c>
-      <c r="N122" s="5">
+      <c r="N123" s="5">
         <v>13</v>
       </c>
-      <c r="O122">
+      <c r="O123">
         <v>11</v>
       </c>
-      <c r="P122">
+      <c r="P123">
         <v>10</v>
       </c>
-      <c r="R122" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V122" s="5">
-        <f t="shared" si="139"/>
+      <c r="R123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T123" s="5">
+        <f t="shared" si="195"/>
+        <v>31</v>
+      </c>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5">
+        <f t="shared" si="196"/>
         <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" s="6">
-        <f t="shared" ref="B123:I123" si="140">+SUM(B119:B122)</f>
-        <v>0</v>
-      </c>
-      <c r="C123" s="6">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="D123" s="6">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="E123" s="6">
-        <f t="shared" si="140"/>
-        <v>22508</v>
-      </c>
-      <c r="F123" s="6">
-        <f t="shared" si="140"/>
-        <v>23755</v>
-      </c>
-      <c r="G123" s="6">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="H123" s="6">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="6">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="6">
-        <f>+SUM(J119:J122)</f>
-        <v>0</v>
-      </c>
-      <c r="K123" s="6">
-        <f t="shared" ref="K123:N123" si="141">+SUM(K119:K122)</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="6">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="6">
-        <f t="shared" si="141"/>
-        <v>24145</v>
-      </c>
-      <c r="N123" s="6">
-        <f t="shared" si="141"/>
-        <v>23232</v>
-      </c>
-      <c r="O123" s="6">
-        <f t="shared" ref="O123:P123" si="142">+SUM(O119:O122)</f>
-        <v>22159</v>
-      </c>
-      <c r="P123" s="6">
-        <f t="shared" si="142"/>
-        <v>21984</v>
-      </c>
-      <c r="R123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V123" s="6">
-        <f t="shared" ref="V123:W123" si="143">+SUM(V119:V122)</f>
-        <v>24145</v>
-      </c>
-      <c r="W123" s="6">
-        <f t="shared" si="143"/>
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" s="6">
+        <f t="shared" ref="B124:I124" si="197">+SUM(B120:B123)</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="6">
+        <f t="shared" si="197"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="6">
+        <f t="shared" si="197"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="6">
+        <f t="shared" si="197"/>
+        <v>22508</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="197"/>
+        <v>23755</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="197"/>
+        <v>24426</v>
+      </c>
+      <c r="H124" s="6">
+        <f t="shared" si="197"/>
+        <v>24029</v>
+      </c>
+      <c r="I124" s="6">
+        <f t="shared" si="197"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="6">
+        <f>+SUM(J120:J123)</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="6">
+        <f t="shared" ref="K124:N124" si="198">+SUM(K120:K123)</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="6">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="6">
+        <f t="shared" si="198"/>
+        <v>24145</v>
+      </c>
+      <c r="N124" s="6">
+        <f t="shared" si="198"/>
+        <v>23232</v>
+      </c>
+      <c r="O124" s="6">
+        <f t="shared" ref="O124:P124" si="199">+SUM(O120:O123)</f>
+        <v>22159</v>
+      </c>
+      <c r="P124" s="6">
+        <f t="shared" si="199"/>
+        <v>21984</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T124" s="6">
+        <f t="shared" ref="T124:U124" si="200">+SUM(T120:T123)</f>
+        <v>22508</v>
+      </c>
+      <c r="U124" s="6">
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="V124" s="6">
+        <f t="shared" ref="V124:W124" si="201">+SUM(V120:V123)</f>
+        <v>24145</v>
+      </c>
+      <c r="W124" s="6">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="6">
-        <f t="shared" ref="B124:I124" si="144">+B123+B117+B116</f>
-        <v>0</v>
-      </c>
-      <c r="C124" s="6">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="D124" s="6">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="E124" s="6">
-        <f t="shared" si="144"/>
+      <c r="B125" s="6">
+        <f t="shared" ref="B125:I125" si="202">+B124+B118+B117</f>
+        <v>0</v>
+      </c>
+      <c r="C125" s="6">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="D125" s="6">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="6">
+        <f t="shared" si="202"/>
         <v>56136</v>
       </c>
-      <c r="F124" s="6">
-        <f t="shared" si="144"/>
+      <c r="F125" s="6">
+        <f t="shared" si="202"/>
         <v>64866</v>
       </c>
-      <c r="G124" s="6">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="H124" s="6">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="6">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="6">
-        <f>+J123+J117+J116</f>
-        <v>0</v>
-      </c>
-      <c r="K124" s="6">
-        <f t="shared" ref="K124:N124" si="145">+K123+K117+K116</f>
-        <v>0</v>
-      </c>
-      <c r="L124" s="6">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="M124" s="6">
-        <f t="shared" si="145"/>
+      <c r="G125" s="6">
+        <f t="shared" si="202"/>
+        <v>61828</v>
+      </c>
+      <c r="H125" s="6">
+        <f t="shared" si="202"/>
+        <v>58604</v>
+      </c>
+      <c r="I125" s="6">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="6">
+        <f>+J124+J118+J117</f>
+        <v>0</v>
+      </c>
+      <c r="K125" s="6">
+        <f t="shared" ref="K125:N125" si="203">+K124+K118+K117</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="6">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="6">
+        <f t="shared" si="203"/>
         <v>54631</v>
       </c>
-      <c r="N124" s="6">
-        <f t="shared" si="145"/>
+      <c r="N125" s="6">
+        <f t="shared" si="203"/>
         <v>54831</v>
       </c>
-      <c r="O124" s="6">
-        <f t="shared" ref="O124:P124" si="146">+O123+O117+O116</f>
+      <c r="O125" s="6">
+        <f t="shared" ref="O125:P125" si="204">+O124+O118+O117</f>
         <v>52698</v>
       </c>
-      <c r="P124" s="6">
-        <f t="shared" si="146"/>
+      <c r="P125" s="6">
+        <f t="shared" si="204"/>
         <v>52199</v>
       </c>
-      <c r="R124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V124" s="6">
-        <f t="shared" ref="V124:W124" si="147">+V123+V117+V116</f>
+      <c r="R125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T125" s="6">
+        <f t="shared" ref="T125:U125" si="205">+T124+T118+T117</f>
+        <v>55877</v>
+      </c>
+      <c r="U125" s="6">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="V125" s="6">
+        <f t="shared" ref="V125:W125" si="206">+V124+V118+V117</f>
         <v>54631</v>
       </c>
-      <c r="W124" s="6">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
+      <c r="W125" s="6">
+        <f t="shared" si="206"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
@@ -7750,27 +8858,38 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ADM/ADM.xlsx
+++ b/ADM/ADM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\ADM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537B882-418F-470F-A03F-EC89CBFF322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FA71B-CFB0-4E9C-BA84-F1CFEC43B354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="0" windowWidth="17760" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14290" yWindow="2610" windowWidth="22070" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="160">
   <si>
     <t>use for scripting</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>Loss of debt extinguishment</t>
+  </si>
+  <si>
+    <t>Deferred Consideration in Securitized Rec.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,13 +583,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -601,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,15 +650,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +687,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>41515</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>135199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -982,7 +996,7 @@
   <dimension ref="B4:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,12 +1107,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9C194D-55E7-45EF-80C0-6A51647FC0FD}">
-  <dimension ref="A1:AQ160"/>
+  <dimension ref="A1:AP161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="U40" sqref="U40"/>
+      <selection pane="topRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,11 +1124,10 @@
     <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" style="2"/>
-    <col min="21" max="21" width="8.7265625" style="2"/>
+    <col min="21" max="21" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,13 +1155,13 @@
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1203,22 +1216,23 @@
       <c r="R2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="S2" s="19">
+        <v>2020</v>
+      </c>
       <c r="T2" s="19">
         <v>2021</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="19">
+      <c r="U2" s="19">
         <v>2022</v>
       </c>
+      <c r="V2" s="3">
+        <v>2023</v>
+      </c>
       <c r="W2" s="3">
-        <v>2023</v>
-      </c>
-      <c r="X2" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="J3" s="9">
         <v>45016</v>
       </c>
@@ -1235,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>108</v>
       </c>
@@ -1259,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1271,7 +1285,7 @@
         <f>(C6-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="21" t="e">
+      <c r="D5" s="12" t="e">
         <f>(D6-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
@@ -1287,13 +1301,13 @@
         <f t="shared" si="0"/>
         <v>0.19008985431387942</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="12">
         <f t="shared" si="0"/>
         <v>0.21352015732546706</v>
       </c>
-      <c r="I5" s="12" t="e">
+      <c r="I5" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.1235327240438342</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
@@ -1307,9 +1321,9 @@
         <f t="shared" si="0"/>
         <v>-0.12105497710975165</v>
       </c>
-      <c r="M5" s="12" t="e">
+      <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="12">
         <f>(N6-J6)/J6</f>
@@ -1326,10 +1340,9 @@
       <c r="R5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>109</v>
       </c>
@@ -1341,13 +1354,13 @@
         <f t="shared" si="1"/>
         <v>22926</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>20340</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23087</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
@@ -1357,13 +1370,13 @@
         <f t="shared" si="1"/>
         <v>27284</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>24683</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25939</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" ref="J6" si="2">+J7+J12+J15+J18</f>
@@ -1397,111 +1410,117 @@
       <c r="R6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S6" s="6">
+        <f t="shared" ref="S6" si="6">+S7+S12+S15+S18</f>
+        <v>64355</v>
+      </c>
       <c r="T6" s="6">
-        <f t="shared" ref="T6:V6" si="6">+T7+T12+T15+T18</f>
-        <v>62159</v>
-      </c>
-      <c r="U6" s="24"/>
+        <f t="shared" ref="T6:U6" si="7">+T7+T12+T15+T18</f>
+        <v>85246</v>
+      </c>
+      <c r="U6" s="22">
+        <f t="shared" si="7"/>
+        <v>101556</v>
+      </c>
       <c r="V6" s="6">
-        <f t="shared" si="6"/>
-        <v>75617</v>
+        <f t="shared" ref="V6:W6" si="8">+V7+V12+V15+V18</f>
+        <v>70957</v>
       </c>
       <c r="W6" s="6">
-        <f t="shared" ref="W6:X6" si="7">+W7+W12+W15+W18</f>
-        <v>70957</v>
-      </c>
-      <c r="X6" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64032</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6">
-        <f t="shared" ref="B7:I7" si="8">+SUM(B8:B11)</f>
+        <f t="shared" ref="B7:I7" si="9">+SUM(B8:B11)</f>
         <v>15007</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18271</v>
       </c>
-      <c r="D7" s="22">
-        <f t="shared" si="8"/>
+      <c r="D7" s="6">
+        <f t="shared" si="9"/>
         <v>15689</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>18080</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18253</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21429</v>
       </c>
-      <c r="H7" s="22">
-        <f t="shared" si="8"/>
+      <c r="H7" s="6">
+        <f t="shared" si="9"/>
         <v>19141</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>20740</v>
       </c>
       <c r="J7" s="6">
         <f>+SUM(J8:J11)</f>
         <v>18579</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" ref="K7" si="9">+SUM(K8:K11)</f>
+        <f t="shared" ref="K7" si="10">+SUM(K8:K11)</f>
         <v>19844</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" ref="L7" si="10">+SUM(L8:L11)</f>
+        <f t="shared" ref="L7" si="11">+SUM(L8:L11)</f>
         <v>16479</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" ref="M7" si="11">+SUM(M8:M11)</f>
+        <f t="shared" ref="M7" si="12">+SUM(M8:M11)</f>
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" ref="N7:O7" si="12">+SUM(N8:N11)</f>
+        <f t="shared" ref="N7:O7" si="13">+SUM(N8:N11)</f>
         <v>17219</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17333</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" ref="P7" si="13">+SUM(P8:P11)</f>
+        <f t="shared" ref="P7" si="14">+SUM(P8:P11)</f>
         <v>15089</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S7" s="6">
+        <f t="shared" ref="S7" si="15">+SUM(S8:S11)</f>
+        <v>49716</v>
+      </c>
       <c r="T7" s="6">
-        <f t="shared" ref="T7:V7" si="14">+SUM(T8:T11)</f>
-        <v>48967</v>
-      </c>
-      <c r="U7" s="24"/>
+        <f t="shared" ref="T7:U7" si="16">+SUM(T8:T11)</f>
+        <v>67047</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" si="16"/>
+        <v>79563</v>
+      </c>
       <c r="V7" s="6">
-        <f t="shared" si="14"/>
-        <v>58823</v>
+        <f t="shared" ref="V7:W7" si="17">+SUM(V8:V11)</f>
+        <v>54902</v>
       </c>
       <c r="W7" s="6">
-        <f t="shared" ref="W7:X7" si="15">+SUM(W8:W11)</f>
-        <v>54902</v>
-      </c>
-      <c r="X7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49641</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -1511,20 +1530,26 @@
       <c r="C8" s="5">
         <v>12815</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="5">
         <v>9899</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <f>T8-SUM(B8:D8)</f>
+        <v>12157</v>
+      </c>
       <c r="F8" s="5">
         <v>11847</v>
       </c>
       <c r="G8" s="5">
         <v>14333</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="5">
         <v>12537</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <f>U8-SUM(F8:H8)</f>
+        <v>14464</v>
+      </c>
       <c r="J8" s="5">
         <v>11695</v>
       </c>
@@ -1548,25 +1573,25 @@
       <c r="R8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S8" s="5">
+        <v>32726</v>
+      </c>
       <c r="T8" s="5">
-        <f>SUM(B8:E8)</f>
-        <v>32860</v>
-      </c>
-      <c r="U8" s="25"/>
+        <v>45017</v>
+      </c>
+      <c r="U8" s="23">
+        <v>53181</v>
+      </c>
       <c r="V8" s="5">
-        <f>SUM(F8:I8)</f>
-        <v>38717</v>
-      </c>
-      <c r="W8" s="5">
         <f>SUM(J8:M8)</f>
         <v>35259</v>
       </c>
-      <c r="X8" s="5">
+      <c r="W8" s="5">
         <f>SUM(N8:Q8)</f>
         <v>32596</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1576,20 +1601,26 @@
       <c r="C9" s="5">
         <v>2827</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="5">
         <v>2842</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:E18" si="18">T9-SUM(B9:D9)</f>
+        <v>2957</v>
+      </c>
       <c r="F9" s="5">
         <v>3222</v>
       </c>
       <c r="G9" s="5">
         <v>3362</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="5">
         <v>3220</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I18" si="19">U9-SUM(F9:H9)</f>
+        <v>3335</v>
+      </c>
       <c r="J9" s="5">
         <v>3683</v>
       </c>
@@ -1613,25 +1644,25 @@
       <c r="R9" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S9" s="5">
+        <v>9593</v>
+      </c>
       <c r="T9" s="5">
-        <f>SUM(B9:E9)</f>
-        <v>8411</v>
-      </c>
-      <c r="U9" s="25"/>
+        <v>11368</v>
+      </c>
+      <c r="U9" s="23">
+        <v>13139</v>
+      </c>
       <c r="V9" s="5">
-        <f>SUM(F9:I9)</f>
-        <v>9804</v>
-      </c>
-      <c r="W9" s="5">
         <f>SUM(J9:M9)</f>
         <v>10515</v>
       </c>
-      <c r="X9" s="5">
+      <c r="W9" s="5">
         <f>SUM(N9:Q9)</f>
         <v>9046</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -1641,20 +1672,26 @@
       <c r="C10" s="5">
         <v>2629</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="5">
         <v>2948</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <f t="shared" si="18"/>
+        <v>2966</v>
+      </c>
       <c r="F10" s="5">
         <v>3184</v>
       </c>
       <c r="G10" s="5">
         <v>3734</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="5">
         <v>3384</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <f t="shared" si="19"/>
+        <v>2941</v>
+      </c>
       <c r="J10" s="5">
         <v>3201</v>
       </c>
@@ -1678,36 +1715,42 @@
       <c r="R10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S10" s="5">
+        <v>7397</v>
+      </c>
       <c r="T10" s="5">
-        <f>SUM(B10:E10)</f>
-        <v>7696</v>
-      </c>
-      <c r="U10" s="25"/>
+        <v>10662</v>
+      </c>
+      <c r="U10" s="23">
+        <v>13243</v>
+      </c>
       <c r="V10" s="5">
-        <f>SUM(F10:I10)</f>
-        <v>10302</v>
-      </c>
-      <c r="W10" s="5">
         <f>SUM(J10:M10)</f>
         <v>9128</v>
       </c>
-      <c r="X10" s="5">
+      <c r="W10" s="5">
         <f>SUM(N10:Q10)</f>
         <v>7999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1719,111 +1762,112 @@
       <c r="R11" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="5">
-        <f>SUM(B11:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="23">
+        <v>0</v>
+      </c>
       <c r="V11" s="5">
-        <f>SUM(F11:I11)</f>
+        <f>SUM(J11:M11)</f>
         <v>0</v>
       </c>
       <c r="W11" s="5">
-        <f>SUM(J11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
         <f>SUM(N11:Q11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" ref="B12:I12" si="16">SUM(B13:B14)</f>
+        <f t="shared" ref="B12:I12" si="20">SUM(B13:B14)</f>
         <v>2223</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2820</v>
       </c>
-      <c r="D12" s="22">
-        <f t="shared" si="16"/>
+      <c r="D12" s="6">
+        <f t="shared" si="20"/>
         <v>2866</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3201</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3366</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3751</v>
       </c>
-      <c r="H12" s="22">
-        <f t="shared" si="16"/>
+      <c r="H12" s="6">
+        <f t="shared" si="20"/>
         <v>3581</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3263</v>
       </c>
       <c r="J12" s="6">
         <f>SUM(J13:J14)</f>
         <v>3537</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" ref="K12" si="17">SUM(K13:K14)</f>
+        <f t="shared" ref="K12" si="21">SUM(K13:K14)</f>
         <v>3381</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" ref="L12" si="18">SUM(L13:L14)</f>
+        <f t="shared" ref="L12" si="22">SUM(L13:L14)</f>
         <v>3325</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" ref="M12" si="19">SUM(M13:M14)</f>
+        <f t="shared" ref="M12" si="23">SUM(M13:M14)</f>
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" ref="N12:O12" si="20">SUM(N13:N14)</f>
+        <f t="shared" ref="N12:O12" si="24">SUM(N13:N14)</f>
         <v>2683</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2894</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" ref="P12" si="21">SUM(P13:P14)</f>
+        <f t="shared" ref="P12" si="25">SUM(P13:P14)</f>
         <v>2908</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S12" s="6">
+        <f t="shared" ref="S12" si="26">SUM(S13:S14)</f>
+        <v>8472</v>
+      </c>
       <c r="T12" s="6">
-        <f t="shared" ref="T12:V12" si="22">SUM(T13:T14)</f>
-        <v>7909</v>
-      </c>
-      <c r="U12" s="24"/>
+        <f t="shared" ref="T12:U12" si="27">SUM(T13:T14)</f>
+        <v>11110</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="27"/>
+        <v>13961</v>
+      </c>
       <c r="V12" s="6">
-        <f t="shared" si="22"/>
-        <v>10698</v>
+        <f t="shared" ref="V12:W12" si="28">SUM(V13:V14)</f>
+        <v>10243</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" ref="W12:X12" si="23">SUM(W13:W14)</f>
-        <v>10243</v>
-      </c>
-      <c r="X12" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8485</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1833,20 +1877,26 @@
       <c r="C13" s="5">
         <v>1846</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="5">
         <v>1972</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <f t="shared" si="18"/>
+        <v>2048</v>
+      </c>
       <c r="F13" s="5">
         <v>2498</v>
       </c>
       <c r="G13" s="5">
         <v>2519</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="5">
         <v>2680</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5">
+        <f t="shared" si="19"/>
+        <v>2554</v>
+      </c>
       <c r="J13" s="5">
         <v>2737</v>
       </c>
@@ -1870,25 +1920,25 @@
       <c r="R13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S13" s="5">
+        <v>6387</v>
+      </c>
       <c r="T13" s="5">
-        <f>SUM(B13:E13)</f>
-        <v>5563</v>
-      </c>
-      <c r="U13" s="25"/>
+        <v>7611</v>
+      </c>
+      <c r="U13" s="23">
+        <v>10251</v>
+      </c>
       <c r="V13" s="5">
-        <f>SUM(F13:I13)</f>
-        <v>7697</v>
-      </c>
-      <c r="W13" s="5">
         <f>SUM(J13:M13)</f>
         <v>7660</v>
       </c>
-      <c r="X13" s="5">
+      <c r="W13" s="5">
         <f>SUM(N13:Q13)</f>
         <v>6559</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1898,20 +1948,26 @@
       <c r="C14" s="5">
         <v>974</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="5">
         <v>894</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <f t="shared" si="18"/>
+        <v>1153</v>
+      </c>
       <c r="F14" s="5">
         <v>868</v>
       </c>
       <c r="G14" s="5">
         <v>1232</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="5">
         <v>901</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5">
+        <f t="shared" si="19"/>
+        <v>709</v>
+      </c>
       <c r="J14" s="5">
         <v>800</v>
       </c>
@@ -1935,111 +1991,114 @@
       <c r="R14" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S14" s="5">
+        <v>2085</v>
+      </c>
       <c r="T14" s="5">
-        <f>SUM(B14:E14)</f>
-        <v>2346</v>
-      </c>
-      <c r="U14" s="25"/>
+        <v>3499</v>
+      </c>
+      <c r="U14" s="23">
+        <v>3710</v>
+      </c>
       <c r="V14" s="5">
-        <f>SUM(F14:I14)</f>
-        <v>3001</v>
-      </c>
-      <c r="W14" s="5">
         <f>SUM(J14:M14)</f>
         <v>2583</v>
       </c>
-      <c r="X14" s="5">
+      <c r="W14" s="5">
         <f>SUM(N14:Q14)</f>
         <v>1926</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="6">
-        <f t="shared" ref="B15:I15" si="24">SUM(B16:B17)</f>
+        <f t="shared" ref="B15:I15" si="29">SUM(B16:B17)</f>
         <v>1563</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1733</v>
       </c>
-      <c r="D15" s="22">
-        <f t="shared" si="24"/>
+      <c r="D15" s="6">
+        <f t="shared" si="29"/>
         <v>1697</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1716</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1924</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2003</v>
       </c>
-      <c r="H15" s="22">
-        <f t="shared" si="24"/>
+      <c r="H15" s="6">
+        <f t="shared" si="29"/>
         <v>1864</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1845</v>
       </c>
       <c r="J15" s="6">
         <f>SUM(J16:J17)</f>
         <v>1853</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15" si="25">SUM(K16:K17)</f>
+        <f t="shared" ref="K15" si="30">SUM(K16:K17)</f>
         <v>1853</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15" si="26">SUM(L16:L17)</f>
+        <f t="shared" ref="L15" si="31">SUM(L16:L17)</f>
         <v>1784</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" ref="M15" si="27">SUM(M16:M17)</f>
+        <f t="shared" ref="M15" si="32">SUM(M16:M17)</f>
         <v>0</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15:O15" si="28">SUM(N16:N17)</f>
+        <f t="shared" ref="N15:O15" si="33">SUM(N16:N17)</f>
         <v>1836</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1908</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" ref="P15" si="29">SUM(P16:P17)</f>
+        <f t="shared" ref="P15" si="34">SUM(P16:P17)</f>
         <v>1831</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S15" s="6">
+        <f t="shared" ref="S15" si="35">SUM(S16:S17)</f>
+        <v>5800</v>
+      </c>
       <c r="T15" s="6">
-        <f t="shared" ref="T15:V15" si="30">SUM(T16:T17)</f>
-        <v>4993</v>
-      </c>
-      <c r="U15" s="24"/>
+        <f t="shared" ref="T15:U15" si="36">SUM(T16:T17)</f>
+        <v>6709</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="36"/>
+        <v>7636</v>
+      </c>
       <c r="V15" s="6">
-        <f t="shared" si="30"/>
-        <v>5791</v>
+        <f t="shared" ref="V15:W15" si="37">SUM(V16:V17)</f>
+        <v>5490</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" ref="W15:X15" si="31">SUM(W16:W17)</f>
-        <v>5490</v>
-      </c>
-      <c r="X15" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5575</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -2049,20 +2108,26 @@
       <c r="C16" s="5">
         <v>848</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="5">
         <v>808</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <f t="shared" si="18"/>
+        <v>776</v>
+      </c>
       <c r="F16" s="5">
         <v>958</v>
       </c>
       <c r="G16" s="5">
         <v>1020</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="5">
         <v>906</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5">
+        <f t="shared" si="19"/>
+        <v>885</v>
+      </c>
       <c r="J16" s="5">
         <v>936</v>
       </c>
@@ -2086,25 +2151,25 @@
       <c r="R16" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S16" s="5">
+        <v>2812</v>
+      </c>
       <c r="T16" s="5">
-        <f>SUM(B16:E16)</f>
-        <v>2410</v>
-      </c>
-      <c r="U16" s="25"/>
+        <v>3186</v>
+      </c>
+      <c r="U16" s="23">
+        <v>3769</v>
+      </c>
       <c r="V16" s="5">
-        <f>SUM(F16:I16)</f>
-        <v>2884</v>
-      </c>
-      <c r="W16" s="5">
         <f>SUM(J16:M16)</f>
         <v>2802</v>
       </c>
-      <c r="X16" s="5">
+      <c r="W16" s="5">
         <f>SUM(N16:Q16)</f>
         <v>3029</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -2114,20 +2179,26 @@
       <c r="C17" s="5">
         <v>885</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="5">
         <v>889</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <f t="shared" si="18"/>
+        <v>940</v>
+      </c>
       <c r="F17" s="5">
         <v>966</v>
       </c>
       <c r="G17" s="5">
         <v>983</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="5">
         <v>958</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5">
+        <f t="shared" si="19"/>
+        <v>960</v>
+      </c>
       <c r="J17" s="5">
         <v>917</v>
       </c>
@@ -2151,25 +2222,25 @@
       <c r="R17" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S17" s="5">
+        <v>2988</v>
+      </c>
       <c r="T17" s="5">
-        <f>SUM(B17:E17)</f>
-        <v>2583</v>
-      </c>
-      <c r="U17" s="25"/>
+        <v>3523</v>
+      </c>
+      <c r="U17" s="23">
+        <v>3867</v>
+      </c>
       <c r="V17" s="5">
-        <f>SUM(F17:I17)</f>
-        <v>2907</v>
-      </c>
-      <c r="W17" s="5">
         <f>SUM(J17:M17)</f>
         <v>2688</v>
       </c>
-      <c r="X17" s="5">
+      <c r="W17" s="5">
         <f>SUM(N17:Q17)</f>
         <v>2546</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2179,20 +2250,26 @@
       <c r="C18" s="5">
         <v>102</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="5">
         <v>88</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
       <c r="F18" s="5">
         <v>107</v>
       </c>
       <c r="G18" s="5">
         <v>101</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="5">
         <v>97</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5">
+        <f t="shared" si="19"/>
+        <v>91</v>
+      </c>
       <c r="J18" s="5">
         <v>103</v>
       </c>
@@ -2216,25 +2293,25 @@
       <c r="R18" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S18" s="5">
+        <v>367</v>
+      </c>
       <c r="T18" s="5">
-        <f>SUM(B18:E18)</f>
-        <v>290</v>
-      </c>
-      <c r="U18" s="25"/>
+        <v>380</v>
+      </c>
+      <c r="U18" s="23">
+        <v>396</v>
+      </c>
       <c r="V18" s="5">
-        <f>SUM(F18:I18)</f>
-        <v>305</v>
-      </c>
-      <c r="W18" s="5">
         <f>SUM(J18:M18)</f>
         <v>322</v>
       </c>
-      <c r="X18" s="5">
+      <c r="W18" s="5">
         <f>SUM(N18:Q18)</f>
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2255,10 +2332,10 @@
       <c r="R19" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-    </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2268,10 +2345,9 @@
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -2288,39 +2364,39 @@
         <v>#REF!</v>
       </c>
       <c r="E21" s="12" t="e">
-        <f t="shared" ref="E21:M21" si="32">(E22-A22)/A22</f>
+        <f t="shared" ref="E21:M21" si="38">(E22-A22)/A22</f>
         <v>#VALUE!</v>
       </c>
       <c r="F21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="12" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="12">
@@ -2338,59 +2414,58 @@
       <c r="R21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" ref="B22:I22" si="33">+B23+B28+B31+B34</f>
+        <f t="shared" ref="B22:I22" si="39">+B23+B28+B31+B34</f>
         <v>0</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" ref="J22:M22" si="34">+J23+J28+J31+J34</f>
+        <f t="shared" ref="J22:M22" si="40">+J23+J28+J31+J34</f>
         <v>1725</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1628</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" ref="L22" si="35">+L23+L28+L31+L34</f>
+        <f t="shared" ref="L22" si="41">+L23+L28+L31+L34</f>
         <v>1446</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N22" s="6">
@@ -2409,59 +2484,58 @@
       <c r="R22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="24"/>
+      <c r="S22" s="6"/>
       <c r="T22" s="6">
-        <f t="shared" ref="T22:V22" si="36">+T23+T28+T31+T34</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="24"/>
+        <f t="shared" ref="T22:U22" si="42">+T23+T28+T31+T34</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="V22" s="6">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" ref="V22:W22" si="43">+V23+V28+V31+V34</f>
+        <v>4799</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" ref="W22:X22" si="37">+W23+W28+W31+W34</f>
-        <v>4799</v>
-      </c>
-      <c r="X22" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>3358</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" ref="B23:I23" si="38">+SUM(B24:B27)</f>
+        <f t="shared" ref="B23:I23" si="44">+SUM(B24:B27)</f>
         <v>0</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2469,53 +2543,52 @@
         <v>1211</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ref="K23:N23" si="39">+SUM(K24:K27)</f>
+        <f t="shared" ref="K23:N23" si="45">+SUM(K24:K27)</f>
         <v>1054</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ref="L23" si="40">+SUM(L24:L27)</f>
+        <f t="shared" ref="L23" si="46">+SUM(L24:L27)</f>
         <v>848</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>864</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" ref="O23:P23" si="41">+SUM(O24:O27)</f>
+        <f t="shared" ref="O23:P23" si="47">+SUM(O24:O27)</f>
         <v>459</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>480</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S23" s="24"/>
+      <c r="S23" s="6"/>
       <c r="T23" s="6">
-        <f t="shared" ref="T23:V23" si="42">+SUM(T24:T27)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="24"/>
+        <f t="shared" ref="T23:U23" si="48">+SUM(T24:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
       <c r="V23" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" ref="V23:W23" si="49">+SUM(V24:V27)</f>
+        <v>3113</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" ref="W23:X23" si="43">+SUM(W24:W27)</f>
-        <v>3113</v>
-      </c>
-      <c r="X23" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>1803</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -2550,26 +2623,25 @@
       <c r="R24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S24" s="25"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="5">
         <f>SUM(B24:E24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="25"/>
+      <c r="U24" s="23">
+        <f>SUM(F24:I24)</f>
+        <v>0</v>
+      </c>
       <c r="V24" s="5">
-        <f>SUM(F24:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="5">
         <f>SUM(J24:M24)</f>
         <v>954</v>
       </c>
-      <c r="X24" s="5">
+      <c r="W24" s="5">
         <f>SUM(N24:Q24)</f>
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -2604,26 +2676,25 @@
       <c r="R25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S25" s="25"/>
+      <c r="S25" s="5"/>
       <c r="T25" s="5">
         <f>SUM(B25:E25)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="25"/>
+      <c r="U25" s="23">
+        <f>SUM(F25:I25)</f>
+        <v>0</v>
+      </c>
       <c r="V25" s="5">
-        <f>SUM(F25:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
         <f>SUM(J25:M25)</f>
         <v>901</v>
       </c>
-      <c r="X25" s="5">
+      <c r="W25" s="5">
         <f>SUM(N25:Q25)</f>
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -2658,26 +2729,25 @@
       <c r="R26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S26" s="25"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="5">
         <f>SUM(B26:E26)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="25"/>
+      <c r="U26" s="23">
+        <f>SUM(F26:I26)</f>
+        <v>0</v>
+      </c>
       <c r="V26" s="5">
-        <f>SUM(F26:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="5">
         <f>SUM(J26:M26)</f>
         <v>1026</v>
       </c>
-      <c r="X26" s="5">
+      <c r="W26" s="5">
         <f>SUM(N26:Q26)</f>
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>34</v>
       </c>
@@ -2712,59 +2782,58 @@
       <c r="R27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S27" s="25"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="5">
         <f>SUM(B27:E27)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="25"/>
+      <c r="U27" s="23">
+        <f>SUM(F27:I27)</f>
+        <v>0</v>
+      </c>
       <c r="V27" s="5">
-        <f>SUM(F27:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="5">
         <f>SUM(J27:M27)</f>
         <v>232</v>
       </c>
-      <c r="X27" s="5">
+      <c r="W27" s="5">
         <f>SUM(N27:Q27)</f>
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" ref="B28:I28" si="44">SUM(B29:B30)</f>
+        <f t="shared" ref="B28:I28" si="50">SUM(B29:B30)</f>
         <v>0</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2772,53 +2841,52 @@
         <v>279</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ref="K28:P28" si="45">SUM(K29:K30)</f>
+        <f t="shared" ref="K28:P28" si="51">SUM(K29:K30)</f>
         <v>319</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>468</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>248</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>357</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>452</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S28" s="24"/>
+      <c r="S28" s="6"/>
       <c r="T28" s="6">
-        <f t="shared" ref="T28:V28" si="46">SUM(T29:T30)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="24"/>
+        <f t="shared" ref="T28:U28" si="52">SUM(T29:T30)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="22">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="V28" s="6">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" ref="V28:W28" si="53">SUM(V29:V30)</f>
+        <v>1066</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" ref="W28:X28" si="47">SUM(W29:W30)</f>
-        <v>1066</v>
-      </c>
-      <c r="X28" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1057</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
@@ -2853,26 +2921,25 @@
       <c r="R29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S29" s="25"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="5">
-        <f>SUM(B29:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="25"/>
+        <f t="shared" ref="T29:T34" si="54">SUM(B29:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="23">
+        <f>SUM(F29:I29)</f>
+        <v>0</v>
+      </c>
       <c r="V29" s="5">
-        <f>SUM(F29:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="5">
         <f>SUM(J29:M29)</f>
         <v>1017</v>
       </c>
-      <c r="X29" s="5">
+      <c r="W29" s="5">
         <f>SUM(N29:Q29)</f>
         <v>1039</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -2907,59 +2974,58 @@
       <c r="R30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S30" s="25"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="5">
-        <f>SUM(B30:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="25"/>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="23">
+        <f>SUM(F30:I30)</f>
+        <v>0</v>
+      </c>
       <c r="V30" s="5">
-        <f>SUM(F30:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="5">
         <f>SUM(J30:M30)</f>
         <v>49</v>
       </c>
-      <c r="X30" s="5">
+      <c r="W30" s="5">
         <f>SUM(N30:Q30)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" ref="B31:I31" si="48">SUM(B32:B33)</f>
+        <f t="shared" ref="B31:I31" si="55">SUM(B32:B33)</f>
         <v>0</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2967,53 +3033,52 @@
         <v>138</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ref="K31:L31" si="49">SUM(K32:K33)</f>
+        <f t="shared" ref="K31:L31" si="56">SUM(K32:K33)</f>
         <v>169</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>130</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" ref="M31" si="50">SUM(M32:M33)</f>
+        <f t="shared" ref="M31" si="57">SUM(M32:M33)</f>
         <v>0</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31:P31" si="51">SUM(N32:N33)</f>
+        <f t="shared" ref="N31:P31" si="58">SUM(N32:N33)</f>
         <v>84</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>109</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>105</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S31" s="24"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="5">
-        <f>SUM(B31:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="25"/>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="22">
+        <f t="shared" ref="U31" si="59">SUM(U32:U33)</f>
+        <v>0</v>
+      </c>
       <c r="V31" s="6">
-        <f t="shared" ref="V31" si="52">SUM(V32:V33)</f>
-        <v>0</v>
+        <f t="shared" ref="V31:W31" si="60">SUM(V32:V33)</f>
+        <v>437</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" ref="W31:X31" si="53">SUM(W32:W33)</f>
-        <v>437</v>
-      </c>
-      <c r="X31" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
@@ -3048,26 +3113,25 @@
       <c r="R32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S32" s="25"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="5">
-        <f>SUM(B32:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="25"/>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="23">
+        <f>SUM(F32:I32)</f>
+        <v>0</v>
+      </c>
       <c r="V32" s="5">
-        <f>SUM(F32:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="5">
         <f>SUM(J32:M32)</f>
         <v>441</v>
       </c>
-      <c r="X32" s="5">
+      <c r="W32" s="5">
         <f>SUM(N32:Q32)</f>
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
@@ -3102,26 +3166,25 @@
       <c r="R33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S33" s="25"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="5">
-        <f>SUM(B33:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="25"/>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="23">
+        <f>SUM(F33:I33)</f>
+        <v>0</v>
+      </c>
       <c r="V33" s="5">
-        <f>SUM(F33:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="5">
         <f>SUM(J33:M33)</f>
         <v>-4</v>
       </c>
-      <c r="X33" s="5">
+      <c r="W33" s="5">
         <f>SUM(N33:Q33)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
@@ -3154,26 +3217,25 @@
       <c r="R34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S34" s="25"/>
+      <c r="S34" s="5"/>
       <c r="T34" s="5">
-        <f>SUM(B34:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="25"/>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="23">
+        <f>SUM(F34:I34)</f>
+        <v>0</v>
+      </c>
       <c r="V34" s="5">
-        <f>SUM(F34:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="5">
         <f>SUM(J34:M34)</f>
         <v>183</v>
       </c>
-      <c r="X34" s="5">
+      <c r="W34" s="5">
         <f>SUM(N34:Q34)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3192,44 +3254,43 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="25"/>
+      <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="25"/>
+      <c r="U35" s="23"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-    </row>
-    <row r="36" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="17" t="str">
-        <f t="shared" ref="B36:I36" si="54">B2</f>
+        <f t="shared" ref="B36:I36" si="61">B2</f>
         <v>Q121</v>
       </c>
       <c r="C36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>Q221</v>
       </c>
       <c r="D36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>Q321</v>
       </c>
       <c r="E36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>Q421</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>Q122</v>
       </c>
       <c r="G36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>Q222</v>
       </c>
       <c r="H36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>Q322</v>
       </c>
       <c r="I36" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>Q422</v>
       </c>
       <c r="J36" s="17" t="str">
@@ -3237,120 +3298,117 @@
         <v>Q123</v>
       </c>
       <c r="K36" s="17" t="str">
-        <f t="shared" ref="K36:X36" si="55">K2</f>
+        <f t="shared" ref="K36:W36" si="62">K2</f>
         <v>Q223</v>
       </c>
       <c r="L36" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>Q323</v>
       </c>
       <c r="M36" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>Q423</v>
       </c>
       <c r="N36" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>Q124</v>
       </c>
       <c r="O36" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>Q224</v>
       </c>
       <c r="P36" s="17" t="str">
-        <f t="shared" ref="P36" si="56">P2</f>
+        <f t="shared" ref="P36" si="63">P2</f>
         <v>Q324</v>
       </c>
       <c r="Q36" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>Q424</v>
       </c>
       <c r="R36" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>xxx</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="17">
         <v>2020</v>
       </c>
       <c r="T36" s="17">
-        <f t="shared" ref="T36:V36" si="57">T2</f>
+        <f t="shared" ref="T36:U36" si="64">T2</f>
         <v>2021</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="24">
+        <f t="shared" si="64"/>
         <v>2022</v>
       </c>
       <c r="V36" s="17">
-        <f t="shared" si="57"/>
-        <v>2022</v>
+        <f t="shared" si="62"/>
+        <v>2023</v>
       </c>
       <c r="W36" s="17">
-        <f t="shared" si="55"/>
-        <v>2023</v>
-      </c>
-      <c r="X36" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="R37" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="25"/>
+      <c r="U37" s="23"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-    </row>
-    <row r="38" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="12" t="e">
-        <f t="shared" ref="B38" si="58">(B39-#REF!)/#REF!</f>
+        <f t="shared" ref="B38" si="65">(B39-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="C38" s="12" t="e">
-        <f t="shared" ref="C38" si="59">(C39-#REF!)/#REF!</f>
+        <f t="shared" ref="C38" si="66">(C39-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D38" s="12" t="e">
-        <f t="shared" ref="D38:E38" si="60">(D39-#REF!)/#REF!</f>
+        <f t="shared" ref="D38:E38" si="67">(D39-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E38" s="12" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>#REF!</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" ref="F38:M38" si="61">(F39-B39)/B39</f>
+        <f t="shared" ref="F38:M38" si="68">(F39-B39)/B39</f>
         <v>0.25178637590642039</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0.19008985431387942</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0.21352015732546706</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="61"/>
-        <v>-1.4173007931273025</v>
+        <f t="shared" si="68"/>
+        <v>0.12338674750974447</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1.7843551797040169E-2</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>-7.6748277378683477E-2</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>-0.12105497710975165</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="N38" s="12">
@@ -3368,26 +3426,28 @@
       <c r="R38" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="20" t="e">
+      <c r="S38" s="20" t="e">
+        <f>(S39-R39)/R39</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T38" s="20">
         <f>(T39-S39)/S39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="27"/>
-      <c r="V38" s="20" t="e">
-        <f>(V39-T39)/T39</f>
-        <v>#DIV/0!</v>
+        <v>0.32466785797529329</v>
+      </c>
+      <c r="U38" s="25">
+        <f>(U39-T39)/T39</f>
+        <v>0.19128670131027931</v>
+      </c>
+      <c r="V38" s="20">
+        <f t="shared" ref="V38" si="69">(V39-U39)/U39</f>
+        <v>-0.30130174485013195</v>
       </c>
       <c r="W38" s="20">
-        <f t="shared" ref="W38" si="62">(W39-V39)/V39</f>
-        <v>-0.30130174485013195</v>
-      </c>
-      <c r="X38" s="20">
-        <f>(X39-W39)/W39</f>
+        <f>(W39-V39)/V39</f>
         <v>-9.7594317685358742E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3402,7 +3462,7 @@
       </c>
       <c r="E39" s="5">
         <f>T39-SUM(B39:D39)</f>
-        <v>-62159</v>
+        <v>23090</v>
       </c>
       <c r="F39" s="5">
         <v>23650</v>
@@ -3440,23 +3500,24 @@
       <c r="R39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S39" s="25"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="25">
+      <c r="S39" s="5">
+        <v>64355</v>
+      </c>
+      <c r="T39" s="5">
+        <v>85249</v>
+      </c>
+      <c r="U39" s="23">
         <v>101556</v>
       </c>
       <c r="V39" s="5">
-        <f>SUM(F39:I39)</f>
-        <v>101556</v>
-      </c>
-      <c r="W39" s="5">
         <f>SUM(J39:M39)</f>
         <v>70957</v>
       </c>
-      <c r="X39" s="5">
+      <c r="W39" s="5">
         <f>SUM(N39:Q39)</f>
         <v>64032</v>
       </c>
+      <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
@@ -3475,9 +3536,8 @@
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3490,9 +3550,9 @@
       <c r="D40" s="5">
         <v>19014</v>
       </c>
-      <c r="E40" s="5" t="e">
-        <f>#REF!-SUM(B40:D40)</f>
-        <v>#REF!</v>
+      <c r="E40" s="5">
+        <f>T40-SUM(B40:D40)</f>
+        <v>21440</v>
       </c>
       <c r="F40" s="5">
         <v>21753</v>
@@ -3530,23 +3590,24 @@
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S40" s="25"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="25">
+      <c r="S40" s="5">
+        <v>59902</v>
+      </c>
+      <c r="T40" s="5">
+        <v>79262</v>
+      </c>
+      <c r="U40" s="23">
         <v>93986</v>
       </c>
       <c r="V40" s="5">
-        <f>SUM(F40:I40)</f>
-        <v>93986</v>
-      </c>
-      <c r="W40" s="5">
         <f>SUM(J40:M40)</f>
         <v>65184</v>
       </c>
-      <c r="X40" s="5">
+      <c r="W40" s="5">
         <f>SUM(N40:Q40)</f>
         <v>59612</v>
       </c>
+      <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -3565,58 +3626,57 @@
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-    </row>
-    <row r="41" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="6">
-        <f t="shared" ref="B41:I41" si="63">+B39-B40</f>
+        <f t="shared" ref="B41:I41" si="70">+B39-B40</f>
         <v>1548</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1463</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1326</v>
       </c>
-      <c r="E41" s="6" t="e">
-        <f t="shared" si="63"/>
-        <v>#REF!</v>
+      <c r="E41" s="6">
+        <f t="shared" si="70"/>
+        <v>1650</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1897</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>2100</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1811</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1762</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" ref="J41:M41" si="64">+J39-J40</f>
+        <f t="shared" ref="J41:M41" si="71">+J39-J40</f>
         <v>2080</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1883</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1810</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="N41" s="6">
@@ -3635,27 +3695,27 @@
       <c r="R41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="24"/>
+      <c r="S41" s="6">
+        <f t="shared" ref="S41" si="72">+S39-S40</f>
+        <v>4453</v>
+      </c>
       <c r="T41" s="6">
-        <f t="shared" ref="T41:V41" si="65">+T39-T40</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="T41:U41" si="73">+T39-T40</f>
+        <v>5987</v>
+      </c>
+      <c r="U41" s="22">
+        <f t="shared" si="73"/>
         <v>7570</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="65"/>
-        <v>7570</v>
+        <f t="shared" ref="V41:W41" si="74">+V39-V40</f>
+        <v>5773</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" ref="W41:X41" si="66">+W39-W40</f>
-        <v>5773</v>
-      </c>
-      <c r="X41" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>4420</v>
       </c>
+      <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
@@ -3674,58 +3734,57 @@
       <c r="AN41" s="6"/>
       <c r="AO41" s="6"/>
       <c r="AP41" s="6"/>
-      <c r="AQ41" s="6"/>
-    </row>
-    <row r="42" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="12" t="e">
-        <f t="shared" ref="B42" si="67">(B41-#REF!)/B41</f>
+        <f t="shared" ref="B42" si="75">(B41-#REF!)/B41</f>
         <v>#REF!</v>
       </c>
       <c r="C42" s="12" t="e">
-        <f t="shared" ref="C42" si="68">(C41-#REF!)/C41</f>
+        <f t="shared" ref="C42" si="76">(C41-#REF!)/C41</f>
         <v>#REF!</v>
       </c>
       <c r="D42" s="12" t="e">
-        <f t="shared" ref="D42:E42" si="69">(D41-#REF!)/D41</f>
+        <f t="shared" ref="D42:E42" si="77">(D41-#REF!)/D41</f>
         <v>#REF!</v>
       </c>
       <c r="E42" s="12" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>#REF!</v>
       </c>
       <c r="F42" s="12">
-        <f t="shared" ref="F42:M42" si="70">(F41-B41)/F41</f>
+        <f t="shared" ref="F42:M42" si="78">(F41-B41)/F41</f>
         <v>0.18397469688982604</v>
       </c>
       <c r="G42" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>0.30333333333333334</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>0.26780784097183874</v>
       </c>
-      <c r="I42" s="12" t="e">
-        <f t="shared" si="70"/>
-        <v>#REF!</v>
+      <c r="I42" s="12">
+        <f t="shared" si="78"/>
+        <v>6.3564131668558455E-2</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>8.7980769230769237E-2</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>-0.11524163568773234</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>-5.5248618784530391E-4</v>
       </c>
       <c r="M42" s="12" t="e">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="12">
@@ -3742,9 +3801,9 @@
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="24"/>
+      <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="24"/>
+      <c r="U42" s="22"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -3766,9 +3825,8 @@
       <c r="AN42" s="6"/>
       <c r="AO42" s="6"/>
       <c r="AP42" s="6"/>
-      <c r="AQ42" s="6"/>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -3780,9 +3838,9 @@
       <c r="R43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S43" s="25"/>
+      <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="25"/>
+      <c r="U43" s="23"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
@@ -3804,9 +3862,8 @@
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3819,9 +3876,9 @@
       <c r="D44" s="5">
         <v>720</v>
       </c>
-      <c r="E44" s="5" t="e">
-        <f>#REF!-SUM(B44:D44)</f>
-        <v>#REF!</v>
+      <c r="E44" s="5">
+        <f t="shared" ref="E44:E50" si="79">T44-SUM(B44:D44)</f>
+        <v>786</v>
       </c>
       <c r="F44" s="5">
         <v>829</v>
@@ -3859,23 +3916,24 @@
       <c r="R44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S44" s="25"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="25">
+      <c r="S44" s="5">
+        <v>2687</v>
+      </c>
+      <c r="T44" s="5">
+        <v>2994</v>
+      </c>
+      <c r="U44" s="23">
         <v>3358</v>
       </c>
       <c r="V44" s="5">
-        <f>SUM(F44:I44)</f>
-        <v>3358</v>
-      </c>
-      <c r="W44" s="5">
         <f>SUM(J44:M44)</f>
         <v>2537</v>
       </c>
-      <c r="X44" s="5">
+      <c r="W44" s="5">
         <f>SUM(N44:Q44)</f>
         <v>2763</v>
       </c>
+      <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -3894,9 +3952,8 @@
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3909,9 +3966,9 @@
       <c r="D45" s="5">
         <v>2</v>
       </c>
-      <c r="E45" s="5" t="e">
-        <f>#REF!-SUM(B45:D45)</f>
-        <v>#REF!</v>
+      <c r="E45" s="5">
+        <f t="shared" si="79"/>
+        <v>80</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -3949,23 +4006,24 @@
       <c r="R45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S45" s="25"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="25">
+      <c r="S45" s="5">
+        <v>80</v>
+      </c>
+      <c r="T45" s="5">
+        <v>164</v>
+      </c>
+      <c r="U45" s="23">
         <v>66</v>
       </c>
       <c r="V45" s="5">
-        <f>SUM(F45:I45)</f>
-        <v>66</v>
-      </c>
-      <c r="W45" s="5">
         <f>SUM(J45:M45)</f>
         <v>146</v>
       </c>
-      <c r="X45" s="5">
+      <c r="W45" s="5">
         <f>SUM(N45:Q45)</f>
         <v>532</v>
       </c>
+      <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -3984,9 +4042,8 @@
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3999,9 +4056,9 @@
       <c r="D46" s="5">
         <v>-110</v>
       </c>
-      <c r="E46" s="5" t="e">
-        <f>#REF!-SUM(B46:D46)</f>
-        <v>#REF!</v>
+      <c r="E46" s="5">
+        <f t="shared" si="79"/>
+        <v>-197</v>
       </c>
       <c r="F46" s="5">
         <v>-204</v>
@@ -4039,23 +4096,24 @@
       <c r="R46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="25">
+      <c r="S46" s="5">
+        <v>-579</v>
+      </c>
+      <c r="T46" s="5">
+        <v>-595</v>
+      </c>
+      <c r="U46" s="23">
         <v>-832</v>
       </c>
       <c r="V46" s="5">
-        <f>SUM(F46:I46)</f>
-        <v>-832</v>
-      </c>
-      <c r="W46" s="5">
         <f>SUM(J46:M46)</f>
         <v>-408</v>
       </c>
-      <c r="X46" s="5">
+      <c r="W46" s="5">
         <f>SUM(N46:Q46)</f>
         <v>-498</v>
       </c>
+      <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -4074,9 +4132,8 @@
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -4090,12 +4147,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="5">
-        <v>0</v>
+        <f t="shared" si="79"/>
+        <v>36</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5">
+        <f>U47-SUM(F47:H47)</f>
+        <v>0</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -4105,9 +4166,13 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="25">
+      <c r="S47" s="5">
+        <v>409</v>
+      </c>
+      <c r="T47" s="5">
+        <v>36</v>
+      </c>
+      <c r="U47" s="23">
         <v>0</v>
       </c>
       <c r="V47" s="5"/>
@@ -4131,9 +4196,8 @@
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
       <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -4146,9 +4210,9 @@
       <c r="D48" s="5">
         <v>-20</v>
       </c>
-      <c r="E48" s="5" t="e">
-        <f>#REF!-SUM(B48:D48)</f>
-        <v>#REF!</v>
+      <c r="E48" s="5">
+        <f t="shared" si="79"/>
+        <v>-13</v>
       </c>
       <c r="F48" s="5">
         <v>-59</v>
@@ -4186,23 +4250,24 @@
       <c r="R48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="25"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="25">
+      <c r="S48" s="5">
+        <v>-111</v>
+      </c>
+      <c r="T48" s="5">
+        <v>-96</v>
+      </c>
+      <c r="U48" s="23">
         <v>-293</v>
       </c>
       <c r="V48" s="5">
-        <f>SUM(F48:I48)</f>
-        <v>-293</v>
-      </c>
-      <c r="W48" s="5">
         <f>SUM(J48:M48)</f>
         <v>-428</v>
       </c>
-      <c r="X48" s="5">
+      <c r="W48" s="5">
         <f>SUM(N48:Q48)</f>
         <v>-400</v>
       </c>
+      <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
@@ -4221,9 +4286,8 @@
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
       <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -4236,9 +4300,9 @@
       <c r="D49" s="5">
         <v>61</v>
       </c>
-      <c r="E49" s="5" t="e">
-        <f>#REF!-SUM(B49:D49)</f>
-        <v>#REF!</v>
+      <c r="E49" s="5">
+        <f t="shared" si="79"/>
+        <v>77</v>
       </c>
       <c r="F49" s="5">
         <v>92</v>
@@ -4276,23 +4340,24 @@
       <c r="R49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="25">
+      <c r="S49" s="5">
+        <v>339</v>
+      </c>
+      <c r="T49" s="5">
+        <v>265</v>
+      </c>
+      <c r="U49" s="23">
         <v>396</v>
       </c>
       <c r="V49" s="5">
-        <f>SUM(F49:I49)</f>
-        <v>396</v>
-      </c>
-      <c r="W49" s="5">
         <f>SUM(J49:M49)</f>
         <v>482</v>
       </c>
-      <c r="X49" s="5">
+      <c r="W49" s="5">
         <f>SUM(N49:Q49)</f>
         <v>527</v>
       </c>
+      <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
@@ -4311,9 +4376,8 @@
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
       <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -4326,9 +4390,9 @@
       <c r="D50" s="5">
         <v>20</v>
       </c>
-      <c r="E50" s="5" t="e">
-        <f>#REF!-SUM(B50:D50)</f>
-        <v>#REF!</v>
+      <c r="E50" s="5">
+        <f t="shared" si="79"/>
+        <v>-130</v>
       </c>
       <c r="F50" s="5">
         <v>-33</v>
@@ -4366,23 +4430,24 @@
       <c r="R50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S50" s="25"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="25">
+      <c r="S50" s="5">
+        <v>-255</v>
+      </c>
+      <c r="T50" s="5">
+        <v>-94</v>
+      </c>
+      <c r="U50" s="23">
         <v>-358</v>
       </c>
       <c r="V50" s="5">
-        <f>SUM(F50:I50)</f>
-        <v>-358</v>
-      </c>
-      <c r="W50" s="5">
         <f>SUM(J50:M50)</f>
         <v>-116</v>
       </c>
-      <c r="X50" s="5">
+      <c r="W50" s="5">
         <f>SUM(N50:Q50)</f>
         <v>-93</v>
       </c>
+      <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -4401,94 +4466,96 @@
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-    </row>
-    <row r="51" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="6">
-        <f>SUM(B44:B50)</f>
+        <f t="shared" ref="B51:P51" si="80">SUM(B44:B50)</f>
         <v>724</v>
       </c>
       <c r="C51" s="6">
-        <f>SUM(C44:C50)</f>
+        <f t="shared" si="80"/>
         <v>638</v>
       </c>
       <c r="D51" s="6">
-        <f>SUM(D44:D50)</f>
+        <f t="shared" si="80"/>
         <v>673</v>
       </c>
-      <c r="E51" s="6" t="e">
-        <f>SUM(E44:E50)</f>
-        <v>#REF!</v>
+      <c r="E51" s="6">
+        <f t="shared" si="80"/>
+        <v>639</v>
       </c>
       <c r="F51" s="6">
-        <f>SUM(F44:F50)</f>
+        <f t="shared" si="80"/>
         <v>626</v>
       </c>
       <c r="G51" s="6">
-        <f>SUM(G44:G50)</f>
+        <f t="shared" si="80"/>
         <v>581</v>
       </c>
       <c r="H51" s="6">
-        <f>SUM(H44:H50)</f>
+        <f t="shared" si="80"/>
         <v>581</v>
       </c>
       <c r="I51" s="6">
-        <f>SUM(I44:I50)</f>
+        <f t="shared" si="80"/>
         <v>549</v>
       </c>
       <c r="J51" s="6">
-        <f>SUM(J44:J50)</f>
+        <f t="shared" si="80"/>
         <v>683</v>
       </c>
       <c r="K51" s="6">
-        <f>SUM(K44:K50)</f>
+        <f t="shared" si="80"/>
         <v>751</v>
       </c>
       <c r="L51" s="6">
-        <f>SUM(L44:L50)</f>
+        <f t="shared" si="80"/>
         <v>779</v>
       </c>
       <c r="M51" s="6">
-        <f>SUM(M44:M50)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <f>SUM(N44:N50)</f>
+        <f t="shared" si="80"/>
         <v>774</v>
       </c>
       <c r="O51" s="6">
-        <f>SUM(O44:O50)</f>
+        <f t="shared" si="80"/>
         <v>800</v>
       </c>
       <c r="P51" s="6">
-        <f>SUM(P44:P50)</f>
+        <f t="shared" si="80"/>
         <v>1257</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S51" s="24"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="24">
+      <c r="S51" s="22">
+        <f t="shared" ref="S51:T51" si="81">SUM(S44:S50)</f>
+        <v>2570</v>
+      </c>
+      <c r="T51" s="22">
+        <f t="shared" si="81"/>
+        <v>2674</v>
+      </c>
+      <c r="U51" s="22">
         <f>SUM(U44:U50)</f>
         <v>2337</v>
       </c>
       <c r="V51" s="6">
         <f>SUM(V44:V50)</f>
-        <v>2337</v>
+        <v>2213</v>
       </c>
       <c r="W51" s="6">
         <f>SUM(W44:W50)</f>
-        <v>2213</v>
-      </c>
-      <c r="X51" s="6">
-        <f>SUM(X44:X50)</f>
         <v>2831</v>
       </c>
+      <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
@@ -4507,94 +4574,96 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="6"/>
       <c r="AP51" s="6"/>
-      <c r="AQ51" s="6"/>
-    </row>
-    <row r="52" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="6">
-        <f>B41-B51</f>
+        <f t="shared" ref="B52:P52" si="82">B41-B51</f>
         <v>824</v>
       </c>
       <c r="C52" s="6">
-        <f>C41-C51</f>
+        <f t="shared" si="82"/>
         <v>825</v>
       </c>
       <c r="D52" s="6">
-        <f>D41-D51</f>
+        <f t="shared" si="82"/>
         <v>653</v>
       </c>
-      <c r="E52" s="6" t="e">
-        <f>E41-E51</f>
-        <v>#REF!</v>
+      <c r="E52" s="6">
+        <f t="shared" si="82"/>
+        <v>1011</v>
       </c>
       <c r="F52" s="6">
-        <f>F41-F51</f>
+        <f t="shared" si="82"/>
         <v>1271</v>
       </c>
       <c r="G52" s="6">
-        <f>G41-G51</f>
+        <f t="shared" si="82"/>
         <v>1519</v>
       </c>
       <c r="H52" s="6">
-        <f>H41-H51</f>
+        <f t="shared" si="82"/>
         <v>1230</v>
       </c>
       <c r="I52" s="6">
-        <f>I41-I51</f>
+        <f t="shared" si="82"/>
         <v>1213</v>
       </c>
       <c r="J52" s="6">
-        <f>J41-J51</f>
+        <f t="shared" si="82"/>
         <v>1397</v>
       </c>
       <c r="K52" s="6">
-        <f>K41-K51</f>
+        <f t="shared" si="82"/>
         <v>1132</v>
       </c>
       <c r="L52" s="6">
-        <f>L41-L51</f>
+        <f t="shared" si="82"/>
         <v>1031</v>
       </c>
       <c r="M52" s="6">
-        <f>M41-M51</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <f>N41-N51</f>
+        <f t="shared" si="82"/>
         <v>885</v>
       </c>
       <c r="O52" s="6">
-        <f>O41-O51</f>
+        <f t="shared" si="82"/>
         <v>596</v>
       </c>
       <c r="P52" s="6">
-        <f>P41-P51</f>
+        <f t="shared" si="82"/>
         <v>108</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S52" s="24"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="24">
+      <c r="S52" s="22">
+        <f t="shared" ref="S52:T52" si="83">S41-S51</f>
+        <v>1883</v>
+      </c>
+      <c r="T52" s="22">
+        <f t="shared" si="83"/>
+        <v>3313</v>
+      </c>
+      <c r="U52" s="22">
         <f>U41-U51</f>
         <v>5233</v>
       </c>
       <c r="V52" s="6">
         <f>V41-V51</f>
-        <v>5233</v>
+        <v>3560</v>
       </c>
       <c r="W52" s="6">
         <f>W41-W51</f>
-        <v>3560</v>
-      </c>
-      <c r="X52" s="6">
-        <f>X41-X51</f>
         <v>1589</v>
       </c>
+      <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
@@ -4613,9 +4682,8 @@
       <c r="AN52" s="6"/>
       <c r="AO52" s="6"/>
       <c r="AP52" s="6"/>
-      <c r="AQ52" s="6"/>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -4628,9 +4696,9 @@
       <c r="D53" s="5">
         <v>120</v>
       </c>
-      <c r="E53" s="5" t="e">
-        <f>#REF!-SUM(B53:D53)</f>
-        <v>#REF!</v>
+      <c r="E53" s="5">
+        <f t="shared" ref="E53:E54" si="84">T53-SUM(B53:D53)</f>
+        <v>214</v>
       </c>
       <c r="F53" s="5">
         <v>207</v>
@@ -4668,23 +4736,24 @@
       <c r="R53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S53" s="25"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="25">
+      <c r="S53" s="23">
+        <v>101</v>
+      </c>
+      <c r="T53" s="23">
+        <v>578</v>
+      </c>
+      <c r="U53" s="23">
         <v>868</v>
       </c>
       <c r="V53" s="5">
-        <f>SUM(F53:I53)</f>
-        <v>868</v>
-      </c>
-      <c r="W53" s="5">
         <f>SUM(J53:M53)</f>
         <v>636</v>
       </c>
-      <c r="X53" s="5">
+      <c r="W53" s="5">
         <f>SUM(N53:Q53)</f>
         <v>371</v>
       </c>
+      <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -4703,9 +4772,8 @@
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
       <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -4718,9 +4786,9 @@
       <c r="D54" s="5">
         <v>7</v>
       </c>
-      <c r="E54" s="5" t="e">
-        <f>#REF!-SUM(B54:D54)</f>
-        <v>#REF!</v>
+      <c r="E54" s="5">
+        <f t="shared" si="84"/>
+        <v>15</v>
       </c>
       <c r="F54" s="5">
         <v>10</v>
@@ -4758,23 +4826,24 @@
       <c r="R54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S54" s="25"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="25">
+      <c r="S54" s="23">
+        <v>10</v>
+      </c>
+      <c r="T54" s="23">
+        <v>26</v>
+      </c>
+      <c r="U54" s="23">
         <v>25</v>
       </c>
       <c r="V54" s="5">
-        <f>SUM(F54:I54)</f>
-        <v>25</v>
-      </c>
-      <c r="W54" s="5">
         <f>SUM(J54:M54)</f>
         <v>6</v>
       </c>
-      <c r="X54" s="5">
+      <c r="W54" s="5">
         <f>SUM(N54:Q54)</f>
         <v>-15</v>
       </c>
+      <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -4793,42 +4862,41 @@
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
       <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-    </row>
-    <row r="55" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" ref="B55:I55" si="71">B52-B53-B54</f>
+        <f t="shared" ref="B55:I55" si="85">B52-B53-B54</f>
         <v>689</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>712</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>526</v>
       </c>
-      <c r="E55" s="6" t="e">
-        <f t="shared" si="71"/>
-        <v>#REF!</v>
+      <c r="E55" s="6">
+        <f t="shared" si="85"/>
+        <v>782</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>1054</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>1236</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>1031</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>1019</v>
       </c>
       <c r="J55" s="6">
@@ -4836,54 +4904,54 @@
         <v>1170</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" ref="K55:O55" si="72">K52-K53-K54</f>
+        <f t="shared" ref="K55:O55" si="86">K52-K53-K54</f>
         <v>927</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>821</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>729</v>
       </c>
       <c r="O55" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>486</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" ref="P55" si="73">P52-P53-P54</f>
+        <f t="shared" ref="P55" si="87">P52-P53-P54</f>
         <v>18</v>
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S55" s="24"/>
-      <c r="T55" s="6">
-        <f t="shared" ref="T55:V55" si="74">T52-T53-T54</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="24">
-        <f t="shared" si="74"/>
+      <c r="S55" s="22">
+        <f t="shared" ref="S55:T55" si="88">S52-S53-S54</f>
+        <v>1772</v>
+      </c>
+      <c r="T55" s="22">
+        <f t="shared" si="88"/>
+        <v>2709</v>
+      </c>
+      <c r="U55" s="22">
+        <f t="shared" ref="U55" si="89">U52-U53-U54</f>
         <v>4340</v>
       </c>
       <c r="V55" s="6">
-        <f t="shared" si="74"/>
-        <v>4340</v>
+        <f t="shared" ref="V55:W55" si="90">V52-V53-V54</f>
+        <v>2918</v>
       </c>
       <c r="W55" s="6">
-        <f t="shared" ref="W55:X55" si="75">W52-W53-W54</f>
-        <v>2918</v>
-      </c>
-      <c r="X55" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>1233</v>
       </c>
+      <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
@@ -4902,9 +4970,8 @@
       <c r="AN55" s="6"/>
       <c r="AO55" s="6"/>
       <c r="AP55" s="6"/>
-      <c r="AQ55" s="6"/>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>41</v>
       </c>
@@ -4936,9 +5003,9 @@
       <c r="R56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S56" s="25"/>
+      <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="25"/>
+      <c r="U56" s="23"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -4960,9 +5027,8 @@
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
       <c r="AP56" s="5"/>
-      <c r="AQ56" s="5"/>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -4975,7 +5041,9 @@
       <c r="D57" s="3">
         <v>564</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="5">
+        <v>564</v>
+      </c>
       <c r="F57" s="3">
         <v>566</v>
       </c>
@@ -5011,9 +5079,13 @@
       <c r="R57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S57" s="25"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="25">
+      <c r="S57" s="5">
+        <v>561</v>
+      </c>
+      <c r="T57" s="5">
+        <v>564</v>
+      </c>
+      <c r="U57" s="23">
         <v>562</v>
       </c>
       <c r="V57" s="5"/>
@@ -5037,9 +5109,8 @@
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
       <c r="AP57" s="5"/>
-      <c r="AQ57" s="5"/>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -5052,7 +5123,9 @@
       <c r="D58" s="3">
         <v>566</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="5">
+        <v>566</v>
+      </c>
       <c r="F58" s="3">
         <v>568</v>
       </c>
@@ -5088,9 +5161,13 @@
       <c r="R58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S58" s="25"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="25">
+      <c r="S58" s="5">
+        <v>565</v>
+      </c>
+      <c r="T58" s="5">
+        <v>566</v>
+      </c>
+      <c r="U58" s="23">
         <v>563</v>
       </c>
       <c r="V58" s="5"/>
@@ -5114,42 +5191,41 @@
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
       <c r="AP58" s="5"/>
-      <c r="AQ58" s="5"/>
-    </row>
-    <row r="59" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" ref="B59:I59" si="76">B55/B57</f>
+        <f t="shared" ref="B59:I59" si="91">B55/B57</f>
         <v>1.2238010657193605</v>
       </c>
       <c r="C59" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.2624113475177305</v>
       </c>
       <c r="D59" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>0.93262411347517726</v>
       </c>
-      <c r="E59" s="11" t="e">
-        <f t="shared" si="76"/>
-        <v>#REF!</v>
+      <c r="E59" s="11">
+        <f t="shared" si="91"/>
+        <v>1.3865248226950355</v>
       </c>
       <c r="F59" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.862190812720848</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>2.1837455830388692</v>
       </c>
       <c r="H59" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.8377896613190732</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.813167259786477</v>
       </c>
       <c r="J59" s="11">
@@ -5157,93 +5233,92 @@
         <v>2.1272727272727274</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" ref="K59:N59" si="77">K55/K57</f>
+        <f t="shared" ref="K59:N59" si="92">K55/K57</f>
         <v>1.7009174311926605</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>1.5203703703703704</v>
       </c>
       <c r="M59" s="11" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>1.4210526315789473</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" ref="O59:P59" si="78">O55/O57</f>
+        <f t="shared" ref="O59:P59" si="93">O55/O57</f>
         <v>0.98780487804878048</v>
       </c>
       <c r="P59" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>3.7344398340248962E-2</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="28"/>
-      <c r="T59" s="11" t="e">
-        <f t="shared" ref="T59:V59" si="79">T55/T57</f>
+      <c r="S59" s="11">
+        <f t="shared" ref="S59" si="94">S55/S57</f>
+        <v>3.1586452762923352</v>
+      </c>
+      <c r="T59" s="11">
+        <f t="shared" ref="T59:U59" si="95">T55/T57</f>
+        <v>4.8031914893617023</v>
+      </c>
+      <c r="U59" s="26">
+        <f t="shared" si="95"/>
+        <v>7.722419928825623</v>
+      </c>
+      <c r="V59" s="11" t="e">
+        <f t="shared" ref="V59:W59" si="96">V55/V57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U59" s="28">
-        <f t="shared" ref="U59" si="80">U55/U57</f>
-        <v>7.722419928825623</v>
-      </c>
-      <c r="V59" s="11" t="e">
-        <f t="shared" si="79"/>
+      <c r="W59" s="11" t="e">
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W59" s="11" t="e">
-        <f t="shared" ref="W59:X59" si="81">W55/W57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X59" s="11" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-    </row>
-    <row r="60" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" ref="B60:I60" si="82">B55/B58</f>
+        <f t="shared" ref="B60:I60" si="97">B55/B58</f>
         <v>1.2216312056737588</v>
       </c>
       <c r="C60" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>1.2579505300353357</v>
       </c>
       <c r="D60" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0.92932862190812726</v>
       </c>
-      <c r="E60" s="11" t="e">
-        <f t="shared" si="82"/>
-        <v>#REF!</v>
+      <c r="E60" s="11">
+        <f t="shared" si="97"/>
+        <v>1.3816254416961131</v>
       </c>
       <c r="F60" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>1.8556338028169015</v>
       </c>
       <c r="G60" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>2.176056338028169</v>
       </c>
       <c r="H60" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>1.8312611012433393</v>
       </c>
       <c r="I60" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>1.8099467140319716</v>
       </c>
       <c r="J60" s="11">
@@ -5251,60 +5326,59 @@
         <v>2.1234119782214158</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" ref="K60:N60" si="83">K55/K58</f>
+        <f t="shared" ref="K60:N60" si="98">K55/K58</f>
         <v>1.6978021978021978</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>1.5203703703703704</v>
       </c>
       <c r="M60" s="11" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>1.4182879377431907</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" ref="O60:P60" si="84">O55/O58</f>
+        <f t="shared" ref="O60:P60" si="99">O55/O58</f>
         <v>0.98580121703853951</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="99"/>
         <v>3.7267080745341616E-2</v>
       </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S60" s="28"/>
-      <c r="T60" s="11" t="e">
-        <f t="shared" ref="T60:V60" si="85">T55/T58</f>
+      <c r="S60" s="11">
+        <f t="shared" ref="S60" si="100">S55/S58</f>
+        <v>3.1362831858407079</v>
+      </c>
+      <c r="T60" s="11">
+        <f t="shared" ref="T60:U60" si="101">T55/T58</f>
+        <v>4.7862190812720851</v>
+      </c>
+      <c r="U60" s="26">
+        <f t="shared" si="101"/>
+        <v>7.7087033747779747</v>
+      </c>
+      <c r="V60" s="11" t="e">
+        <f t="shared" ref="V60:W60" si="102">V55/V58</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U60" s="28">
-        <f t="shared" ref="U60" si="86">U55/U58</f>
-        <v>7.7087033747779747</v>
-      </c>
-      <c r="V60" s="11" t="e">
-        <f t="shared" si="85"/>
+      <c r="W60" s="11" t="e">
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W60" s="11" t="e">
-        <f t="shared" ref="W60:X60" si="87">W55/W58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X60" s="11" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -5317,7 +5391,7 @@
       <c r="D61" s="3">
         <v>0.37</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="3">
         <v>0.4</v>
       </c>
@@ -5327,7 +5401,7 @@
       <c r="H61" s="3">
         <v>0.4</v>
       </c>
-      <c r="I61" s="3"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="10">
         <v>0.45</v>
       </c>
@@ -5351,30 +5425,32 @@
       <c r="R61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S61" s="29"/>
+      <c r="S61" s="10">
+        <f>SUM(G61:J61)</f>
+        <v>1.25</v>
+      </c>
       <c r="T61" s="10">
         <f>SUM(H61:K61)</f>
         <v>1.3</v>
       </c>
-      <c r="U61" s="29"/>
-      <c r="V61" s="10">
+      <c r="U61" s="27">
         <f>SUM(I61:L61)</f>
         <v>1.35</v>
       </c>
-      <c r="W61" s="10">
+      <c r="V61" s="10">
         <f>SUM(J61:M61)</f>
         <v>1.35</v>
       </c>
-      <c r="X61" s="10">
+      <c r="W61" s="10">
         <f>SUM(N61:Q61)</f>
         <v>1.5</v>
       </c>
+      <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5393,198 +5469,201 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="29"/>
+      <c r="S62" s="10"/>
       <c r="T62" s="10"/>
-      <c r="U62" s="29"/>
+      <c r="U62" s="27"/>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
-      <c r="AB62" s="10"/>
-    </row>
-    <row r="63" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="17" t="str">
-        <f>B36</f>
+        <f t="shared" ref="B63:R63" si="103">B36</f>
         <v>Q121</v>
       </c>
       <c r="C63" s="17" t="str">
-        <f>C36</f>
+        <f t="shared" si="103"/>
         <v>Q221</v>
       </c>
       <c r="D63" s="17" t="str">
-        <f>D36</f>
+        <f t="shared" si="103"/>
         <v>Q321</v>
       </c>
       <c r="E63" s="17" t="str">
-        <f>E36</f>
+        <f t="shared" si="103"/>
         <v>Q421</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f>F36</f>
+        <f t="shared" si="103"/>
         <v>Q122</v>
       </c>
       <c r="G63" s="17" t="str">
-        <f>G36</f>
+        <f t="shared" si="103"/>
         <v>Q222</v>
       </c>
       <c r="H63" s="17" t="str">
-        <f>H36</f>
+        <f t="shared" si="103"/>
         <v>Q322</v>
       </c>
       <c r="I63" s="17" t="str">
-        <f>I36</f>
+        <f t="shared" si="103"/>
         <v>Q422</v>
       </c>
       <c r="J63" s="17" t="str">
-        <f>J36</f>
+        <f t="shared" si="103"/>
         <v>Q123</v>
       </c>
       <c r="K63" s="17" t="str">
-        <f>K36</f>
+        <f t="shared" si="103"/>
         <v>Q223</v>
       </c>
       <c r="L63" s="17" t="str">
-        <f>L36</f>
+        <f t="shared" si="103"/>
         <v>Q323</v>
       </c>
       <c r="M63" s="17" t="str">
-        <f>M36</f>
+        <f t="shared" si="103"/>
         <v>Q423</v>
       </c>
       <c r="N63" s="17" t="str">
-        <f>N36</f>
+        <f t="shared" si="103"/>
         <v>Q124</v>
       </c>
       <c r="O63" s="17" t="str">
-        <f>O36</f>
+        <f t="shared" si="103"/>
         <v>Q224</v>
       </c>
       <c r="P63" s="17" t="str">
-        <f>P36</f>
+        <f t="shared" si="103"/>
         <v>Q324</v>
       </c>
       <c r="Q63" s="17" t="str">
-        <f>Q36</f>
+        <f t="shared" si="103"/>
         <v>Q424</v>
       </c>
       <c r="R63" s="18" t="str">
-        <f>R36</f>
+        <f t="shared" si="103"/>
         <v>xxx</v>
       </c>
-      <c r="S63" s="26"/>
+      <c r="S63" s="17">
+        <f>S36</f>
+        <v>2020</v>
+      </c>
       <c r="T63" s="17">
         <f>T36</f>
         <v>2021</v>
       </c>
-      <c r="U63" s="26"/>
+      <c r="U63" s="24">
+        <f>U36</f>
+        <v>2022</v>
+      </c>
       <c r="V63" s="17">
         <f>V36</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W63" s="17">
         <f>W36</f>
-        <v>2023</v>
-      </c>
-      <c r="X63" s="17">
-        <f>X36</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="R64" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="6">
-        <f t="shared" ref="B65:I65" si="88">B55</f>
+        <f t="shared" ref="B65:I65" si="104">B55</f>
         <v>689</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>712</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>526</v>
       </c>
-      <c r="E65" s="6" t="e">
-        <f t="shared" si="88"/>
-        <v>#REF!</v>
+      <c r="E65" s="6">
+        <f t="shared" si="104"/>
+        <v>782</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>1054</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>1236</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>1031</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>1019</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" ref="J65:P65" si="89">J55</f>
+        <f t="shared" ref="J65:P65" si="105">J55</f>
         <v>1170</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>927</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>821</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>729</v>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>486</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>18</v>
       </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S65" s="24"/>
+      <c r="S65" s="6">
+        <f t="shared" ref="S65:U65" si="106">S55</f>
+        <v>1772</v>
+      </c>
       <c r="T65" s="6">
-        <f t="shared" ref="T65:V65" si="90">T55</f>
-        <v>0</v>
-      </c>
-      <c r="U65" s="24"/>
+        <f t="shared" si="106"/>
+        <v>2709</v>
+      </c>
+      <c r="U65" s="22">
+        <f t="shared" si="106"/>
+        <v>4340</v>
+      </c>
       <c r="V65" s="6">
-        <f t="shared" si="90"/>
-        <v>4340</v>
+        <f>V55</f>
+        <v>2918</v>
       </c>
       <c r="W65" s="6">
         <f>W55</f>
-        <v>2918</v>
-      </c>
-      <c r="X65" s="6">
-        <f>X55</f>
         <v>1233</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -5596,8 +5675,11 @@
         <v>712</v>
       </c>
       <c r="D66">
-        <f>1938-SUM(B66:C66)</f>
         <v>533</v>
+      </c>
+      <c r="E66" s="5">
+        <f>T66-SUM(B66:D66)</f>
+        <v>797</v>
       </c>
       <c r="F66">
         <v>1064</v>
@@ -5607,8 +5689,11 @@
         <v>1240</v>
       </c>
       <c r="H66">
-        <f>3341-SUM(F66:G66)</f>
         <v>1037</v>
+      </c>
+      <c r="I66" s="5">
+        <f>U66-SUM(F66:H66)</f>
+        <v>1024</v>
       </c>
       <c r="J66" s="5">
         <v>1172</v>
@@ -5618,7 +5703,6 @@
         <v>928</v>
       </c>
       <c r="L66" s="5">
-        <f>2924-SUM(J66:K66)</f>
         <v>824</v>
       </c>
       <c r="M66" s="5"/>
@@ -5637,26 +5721,25 @@
       <c r="R66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S66" s="25"/>
+      <c r="S66">
+        <v>1782</v>
+      </c>
       <c r="T66" s="5">
-        <f>SUM(B66:E66)</f>
-        <v>1938</v>
-      </c>
-      <c r="U66" s="25"/>
+        <v>2735</v>
+      </c>
+      <c r="U66" s="23">
+        <v>4365</v>
+      </c>
       <c r="V66" s="5">
-        <f>SUM(F66:I66)</f>
-        <v>3341</v>
+        <f t="shared" ref="V66:V83" si="107">SUM(J66:M66)</f>
+        <v>2924</v>
       </c>
       <c r="W66" s="5">
-        <f>SUM(J66:M66)</f>
-        <v>2924</v>
-      </c>
-      <c r="X66" s="5">
-        <f>SUM(N66:Q66)</f>
+        <f t="shared" ref="W66:W83" si="108">SUM(N66:Q66)</f>
         <v>1218</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -5668,8 +5751,11 @@
         <v>243</v>
       </c>
       <c r="D67">
-        <f>739-SUM(B67:C67)</f>
         <v>247</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" ref="E67:E83" si="109">T67-SUM(B67:D67)</f>
+        <v>257</v>
       </c>
       <c r="F67">
         <v>257</v>
@@ -5679,8 +5765,11 @@
         <v>257</v>
       </c>
       <c r="H67">
-        <f>774-SUM(F67:G67)</f>
         <v>260</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" ref="I67:I83" si="110">U67-SUM(F67:H67)</f>
+        <v>254</v>
       </c>
       <c r="J67" s="5">
         <v>259</v>
@@ -5690,7 +5779,6 @@
         <v>262</v>
       </c>
       <c r="L67" s="5">
-        <f>782-SUM(J67:K67)</f>
         <v>261</v>
       </c>
       <c r="M67" s="5"/>
@@ -5709,26 +5797,25 @@
       <c r="R67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S67" s="25"/>
+      <c r="S67" s="5">
+        <v>976</v>
+      </c>
       <c r="T67" s="5">
-        <f>SUM(B67:E67)</f>
-        <v>739</v>
-      </c>
-      <c r="U67" s="25"/>
+        <v>996</v>
+      </c>
+      <c r="U67" s="23">
+        <v>1028</v>
+      </c>
       <c r="V67" s="5">
-        <f>SUM(F67:I67)</f>
-        <v>774</v>
+        <f t="shared" si="107"/>
+        <v>782</v>
       </c>
       <c r="W67" s="5">
-        <f>SUM(J67:M67)</f>
-        <v>782</v>
-      </c>
-      <c r="X67" s="5">
-        <f>SUM(N67:Q67)</f>
+        <f t="shared" si="108"/>
         <v>854</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -5740,8 +5827,11 @@
         <v>23</v>
       </c>
       <c r="D68">
-        <f>54-SUM(B68:C68)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="109"/>
+        <v>71</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5751,8 +5841,11 @@
         <v>3</v>
       </c>
       <c r="H68">
-        <f>20-SUM(F68:G68)</f>
         <v>16</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="110"/>
+        <v>17</v>
       </c>
       <c r="J68" s="5">
         <v>3</v>
@@ -5762,7 +5855,6 @@
         <v>43</v>
       </c>
       <c r="L68" s="5">
-        <f>120-SUM(J68:K68)</f>
         <v>74</v>
       </c>
       <c r="M68" s="5"/>
@@ -5781,26 +5873,25 @@
       <c r="R68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S68" s="25"/>
+      <c r="S68" s="5">
+        <v>54</v>
+      </c>
       <c r="T68" s="5">
-        <f>SUM(B68:E68)</f>
-        <v>54</v>
-      </c>
-      <c r="U68" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="U68" s="23">
+        <v>37</v>
+      </c>
       <c r="V68" s="5">
-        <f>SUM(F68:I68)</f>
-        <v>20</v>
+        <f t="shared" si="107"/>
+        <v>120</v>
       </c>
       <c r="W68" s="5">
-        <f>SUM(J68:M68)</f>
-        <v>120</v>
-      </c>
-      <c r="X68" s="5">
-        <f>SUM(N68:Q68)</f>
+        <f t="shared" si="108"/>
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -5812,8 +5903,11 @@
         <v>-30</v>
       </c>
       <c r="D69">
-        <f>-95-SUM(B69:C69)</f>
         <v>-58</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="109"/>
+        <v>-34</v>
       </c>
       <c r="F69">
         <v>144</v>
@@ -5823,8 +5917,11 @@
         <v>-159</v>
       </c>
       <c r="H69">
-        <f>-39-SUM(F69:G69)</f>
         <v>-24</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="110"/>
+        <v>-50</v>
       </c>
       <c r="J69" s="5">
         <v>47</v>
@@ -5834,7 +5931,6 @@
         <v>-39</v>
       </c>
       <c r="L69" s="5">
-        <f>17-SUM(J69:K69)</f>
         <v>9</v>
       </c>
       <c r="M69" s="5"/>
@@ -5853,26 +5949,25 @@
       <c r="R69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S69" s="25"/>
+      <c r="S69" s="5">
+        <v>75</v>
+      </c>
       <c r="T69" s="5">
-        <f>SUM(B69:E69)</f>
-        <v>-95</v>
-      </c>
-      <c r="U69" s="25"/>
+        <v>-129</v>
+      </c>
+      <c r="U69" s="23">
+        <v>-89</v>
+      </c>
       <c r="V69" s="5">
-        <f>SUM(F69:I69)</f>
-        <v>-39</v>
+        <f t="shared" si="107"/>
+        <v>17</v>
       </c>
       <c r="W69" s="5">
-        <f>SUM(J69:M69)</f>
-        <v>17</v>
-      </c>
-      <c r="X69" s="5">
-        <f>SUM(N69:Q69)</f>
+        <f t="shared" si="108"/>
         <v>-107</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5884,8 +5979,11 @@
         <v>58</v>
       </c>
       <c r="D70">
-        <f>-36-SUM(B70:C70)</f>
         <v>-13</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="109"/>
+        <v>-141</v>
       </c>
       <c r="F70">
         <v>-159</v>
@@ -5895,8 +5993,11 @@
         <v>-3</v>
       </c>
       <c r="H70">
-        <f>-279-SUM(F70:G70)</f>
         <v>-117</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="110"/>
+        <v>-178</v>
       </c>
       <c r="J70" s="5">
         <v>-113</v>
@@ -5906,7 +6007,6 @@
         <v>33</v>
       </c>
       <c r="L70" s="5">
-        <f>-64-SUM(J70:K70)</f>
         <v>16</v>
       </c>
       <c r="M70" s="5"/>
@@ -5925,26 +6025,25 @@
       <c r="R70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S70" s="25"/>
+      <c r="S70" s="5">
+        <v>-298</v>
+      </c>
       <c r="T70" s="5">
-        <f>SUM(B70:E70)</f>
-        <v>-36</v>
-      </c>
-      <c r="U70" s="25"/>
+        <v>-177</v>
+      </c>
+      <c r="U70" s="23">
+        <v>-457</v>
+      </c>
       <c r="V70" s="5">
-        <f>SUM(F70:I70)</f>
-        <v>-279</v>
+        <f t="shared" si="107"/>
+        <v>-64</v>
       </c>
       <c r="W70" s="5">
-        <f>SUM(J70:M70)</f>
-        <v>-64</v>
-      </c>
-      <c r="X70" s="5">
-        <f>SUM(N70:Q70)</f>
+        <f t="shared" si="108"/>
         <v>-151</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5956,8 +6055,11 @@
         <v>38</v>
       </c>
       <c r="D71">
-        <f>135-SUM(B71:C71)</f>
         <v>21</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="109"/>
+        <v>26</v>
       </c>
       <c r="F71">
         <v>69</v>
@@ -5967,8 +6069,11 @@
         <v>28</v>
       </c>
       <c r="H71">
-        <f>123-SUM(F71:G71)</f>
         <v>26</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="110"/>
+        <v>24</v>
       </c>
       <c r="J71" s="5">
         <v>65</v>
@@ -5978,7 +6083,6 @@
         <v>21</v>
       </c>
       <c r="L71" s="5">
-        <f>98-SUM(J71:K71)</f>
         <v>12</v>
       </c>
       <c r="M71" s="5"/>
@@ -5997,33 +6101,35 @@
       <c r="R71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S71" s="25"/>
+      <c r="S71" s="5">
+        <v>151</v>
+      </c>
       <c r="T71" s="5">
-        <f>SUM(B71:E71)</f>
-        <v>135</v>
-      </c>
-      <c r="U71" s="25"/>
+        <v>161</v>
+      </c>
+      <c r="U71" s="23">
+        <v>147</v>
+      </c>
       <c r="V71" s="5">
-        <f>SUM(F71:I71)</f>
-        <v>123</v>
+        <f t="shared" si="107"/>
+        <v>98</v>
       </c>
       <c r="W71" s="5">
-        <f>SUM(J71:M71)</f>
-        <v>98</v>
-      </c>
-      <c r="X71" s="5">
-        <f>SUM(N71:Q71)</f>
+        <f t="shared" si="108"/>
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>157</v>
       </c>
       <c r="D72">
-        <f>36-SUM(B72:C72)</f>
         <v>36</v>
       </c>
+      <c r="E72" s="5">
+        <f t="shared" si="109"/>
+        <v>-2</v>
+      </c>
       <c r="F72">
         <v>0</v>
       </c>
@@ -6032,6 +6138,10 @@
       </c>
       <c r="H72">
         <v>0</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="110"/>
+        <v>-84</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -6054,26 +6164,25 @@
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="1"/>
-      <c r="S72" s="25"/>
+      <c r="S72" s="5">
+        <v>254</v>
+      </c>
       <c r="T72" s="5">
-        <f>SUM(B72:E72)</f>
-        <v>36</v>
-      </c>
-      <c r="U72" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="U72" s="23">
+        <v>-84</v>
+      </c>
       <c r="V72" s="5">
-        <f>SUM(F72:I72)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="W72" s="5">
-        <f>SUM(J72:M72)</f>
-        <v>0</v>
-      </c>
-      <c r="X72" s="5">
-        <f>SUM(N72:Q72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -6085,8 +6194,11 @@
         <v>81</v>
       </c>
       <c r="D73">
-        <f>258-SUM(B73:C73)</f>
         <v>75</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" si="109"/>
+        <v>-222</v>
       </c>
       <c r="F73">
         <v>283</v>
@@ -6096,8 +6208,11 @@
         <v>-77</v>
       </c>
       <c r="H73">
-        <f>245-SUM(F73:G73)</f>
         <v>39</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="110"/>
+        <v>-245</v>
       </c>
       <c r="J73" s="5">
         <v>-104</v>
@@ -6107,7 +6222,6 @@
         <v>-37</v>
       </c>
       <c r="L73" s="5">
-        <f>-13-SUM(J73:K73)</f>
         <v>128</v>
       </c>
       <c r="M73" s="5"/>
@@ -6126,26 +6240,25 @@
       <c r="R73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S73" s="25"/>
+      <c r="S73" s="5">
+        <v>409</v>
+      </c>
       <c r="T73" s="5">
-        <f>SUM(B73:E73)</f>
-        <v>258</v>
-      </c>
-      <c r="U73" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="U73" s="23">
+        <v>0</v>
+      </c>
       <c r="V73" s="5">
-        <f>SUM(F73:I73)</f>
-        <v>245</v>
+        <f t="shared" si="107"/>
+        <v>-13</v>
       </c>
       <c r="W73" s="5">
-        <f>SUM(J73:M73)</f>
-        <v>-13</v>
-      </c>
-      <c r="X73" s="5">
-        <f>SUM(N73:Q73)</f>
+        <f t="shared" si="108"/>
         <v>-115</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -6157,8 +6270,11 @@
         <v>-68</v>
       </c>
       <c r="D74">
-        <f>-95-SUM(B74:C74)</f>
         <v>-16</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="109"/>
+        <v>-54</v>
       </c>
       <c r="F74">
         <v>-34</v>
@@ -6168,8 +6284,11 @@
         <v>-8</v>
       </c>
       <c r="H74">
-        <f>-77-SUM(F74:G74)</f>
         <v>-35</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="110"/>
+        <v>-38</v>
       </c>
       <c r="J74" s="5">
         <v>-11</v>
@@ -6179,7 +6298,6 @@
         <v>-21</v>
       </c>
       <c r="L74" s="5">
-        <f>-33-SUM(J74:K74)</f>
         <v>-1</v>
       </c>
       <c r="M74" s="5"/>
@@ -6198,26 +6316,25 @@
       <c r="R74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S74" s="25"/>
+      <c r="S74" s="5">
+        <v>-161</v>
+      </c>
       <c r="T74" s="5">
-        <f>SUM(B74:E74)</f>
-        <v>-95</v>
-      </c>
-      <c r="U74" s="25"/>
+        <v>-149</v>
+      </c>
+      <c r="U74" s="23">
+        <v>-115</v>
+      </c>
       <c r="V74" s="5">
-        <f>SUM(F74:I74)</f>
-        <v>-77</v>
+        <f t="shared" si="107"/>
+        <v>-33</v>
       </c>
       <c r="W74" s="5">
-        <f>SUM(J74:M74)</f>
-        <v>-33</v>
-      </c>
-      <c r="X74" s="5">
-        <f>SUM(N74:Q74)</f>
+        <f t="shared" si="108"/>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -6229,8 +6346,11 @@
         <v>-57</v>
       </c>
       <c r="D75">
-        <f>156-SUM(B75:C75)</f>
         <v>63</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="109"/>
+        <v>153</v>
       </c>
       <c r="F75">
         <v>-9</v>
@@ -6240,8 +6360,11 @@
         <v>321</v>
       </c>
       <c r="H75">
-        <f>549-SUM(F75:G75)</f>
         <v>237</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="110"/>
+        <v>-371</v>
       </c>
       <c r="J75" s="5">
         <v>-8</v>
@@ -6251,7 +6374,6 @@
         <v>-10</v>
       </c>
       <c r="L75" s="5">
-        <f>-27-SUM(J75:K75)</f>
         <v>-9</v>
       </c>
       <c r="M75" s="5"/>
@@ -6270,26 +6392,25 @@
       <c r="R75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S75" s="25"/>
+      <c r="S75" s="5">
+        <v>-113</v>
+      </c>
       <c r="T75" s="5">
-        <f>SUM(B75:E75)</f>
-        <v>156</v>
-      </c>
-      <c r="U75" s="25"/>
+        <v>309</v>
+      </c>
+      <c r="U75" s="23">
+        <v>178</v>
+      </c>
       <c r="V75" s="5">
-        <f>SUM(F75:I75)</f>
-        <v>549</v>
+        <f t="shared" si="107"/>
+        <v>-27</v>
       </c>
       <c r="W75" s="5">
-        <f>SUM(J75:M75)</f>
-        <v>-27</v>
-      </c>
-      <c r="X75" s="5">
-        <f>SUM(N75:Q75)</f>
+        <f t="shared" si="108"/>
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -6301,8 +6422,11 @@
         <v>-56</v>
       </c>
       <c r="D76">
-        <f>594-SUM(B76:C76)</f>
         <v>-16</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="109"/>
+        <v>-194</v>
       </c>
       <c r="F76">
         <v>-482</v>
@@ -6312,8 +6436,11 @@
         <v>-1271</v>
       </c>
       <c r="H76">
-        <f>-1452-SUM(F76:G76)</f>
         <v>301</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="110"/>
+        <v>-60</v>
       </c>
       <c r="J76" s="5">
         <v>-935</v>
@@ -6323,7 +6450,6 @@
         <v>-457</v>
       </c>
       <c r="L76" s="5">
-        <f>-1183-SUM(J76:K76)</f>
         <v>209</v>
       </c>
       <c r="M76" s="5"/>
@@ -6342,26 +6468,25 @@
       <c r="R76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S76" s="25"/>
+      <c r="S76" s="5">
+        <v>408</v>
+      </c>
       <c r="T76" s="5">
-        <f>SUM(B76:E76)</f>
-        <v>594</v>
-      </c>
-      <c r="U76" s="25"/>
+        <v>400</v>
+      </c>
+      <c r="U76" s="23">
+        <v>-1512</v>
+      </c>
       <c r="V76" s="5">
-        <f>SUM(F76:I76)</f>
-        <v>-1452</v>
+        <f t="shared" si="107"/>
+        <v>-1183</v>
       </c>
       <c r="W76" s="5">
-        <f>SUM(J76:M76)</f>
-        <v>-1183</v>
-      </c>
-      <c r="X76" s="5">
-        <f>SUM(N76:Q76)</f>
+        <f t="shared" si="108"/>
         <v>-257</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -6373,8 +6498,11 @@
         <v>-195</v>
       </c>
       <c r="D77">
-        <f>-1060-SUM(B77:C77)</f>
         <v>-350</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="109"/>
+        <v>482</v>
       </c>
       <c r="F77">
         <v>-937</v>
@@ -6384,8 +6512,11 @@
         <v>-1218</v>
       </c>
       <c r="H77">
-        <f>-1613-SUM(F77:G77)</f>
         <v>542</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="110"/>
+        <v>-69</v>
       </c>
       <c r="J77" s="5">
         <v>488</v>
@@ -6395,7 +6526,6 @@
         <v>358</v>
       </c>
       <c r="L77" s="5">
-        <f>443-SUM(J77:K77)</f>
         <v>-403</v>
       </c>
       <c r="M77" s="5"/>
@@ -6414,26 +6544,25 @@
       <c r="R77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S77" s="25"/>
+      <c r="S77" s="5">
+        <v>-149</v>
+      </c>
       <c r="T77" s="5">
-        <f>SUM(B77:E77)</f>
-        <v>-1060</v>
-      </c>
-      <c r="U77" s="25"/>
+        <v>-578</v>
+      </c>
+      <c r="U77" s="23">
+        <v>-1682</v>
+      </c>
       <c r="V77" s="5">
-        <f>SUM(F77:I77)</f>
-        <v>-1613</v>
+        <f t="shared" si="107"/>
+        <v>443</v>
       </c>
       <c r="W77" s="5">
-        <f>SUM(J77:M77)</f>
-        <v>443</v>
-      </c>
-      <c r="X77" s="5">
-        <f>SUM(N77:Q77)</f>
+        <f t="shared" si="108"/>
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -6445,8 +6574,11 @@
         <v>1361</v>
       </c>
       <c r="D78">
-        <f>405-SUM(B78:C78)</f>
         <v>182</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="109"/>
+        <v>-3244</v>
       </c>
       <c r="F78">
         <v>-2881</v>
@@ -6456,8 +6588,11 @@
         <v>2532</v>
       </c>
       <c r="H78">
-        <f>590-SUM(F78:G78)</f>
         <v>939</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="110"/>
+        <v>-885</v>
       </c>
       <c r="J78" s="5">
         <v>52</v>
@@ -6467,7 +6602,6 @@
         <v>2865</v>
       </c>
       <c r="L78" s="5">
-        <f>3501-SUM(J78:K78)</f>
         <v>584</v>
       </c>
       <c r="M78" s="5"/>
@@ -6486,26 +6620,25 @@
       <c r="R78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S78" s="25"/>
+      <c r="S78" s="5">
+        <v>-2426</v>
+      </c>
       <c r="T78" s="5">
-        <f>SUM(B78:E78)</f>
-        <v>405</v>
-      </c>
-      <c r="U78" s="25"/>
+        <v>-2839</v>
+      </c>
+      <c r="U78" s="23">
+        <v>-295</v>
+      </c>
       <c r="V78" s="5">
-        <f>SUM(F78:I78)</f>
-        <v>590</v>
+        <f t="shared" si="107"/>
+        <v>3501</v>
       </c>
       <c r="W78" s="5">
-        <f>SUM(J78:M78)</f>
-        <v>3501</v>
-      </c>
-      <c r="X78" s="5">
-        <f>SUM(N78:Q78)</f>
+        <f t="shared" si="108"/>
         <v>1233</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -6517,8 +6650,11 @@
         <v>367</v>
       </c>
       <c r="D79">
-        <f>1187-SUM(B79:C79)</f>
         <v>407</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="109"/>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>-2141</v>
@@ -6528,8 +6664,11 @@
         <v>548</v>
       </c>
       <c r="H79">
-        <f>-929-SUM(F79:G79)</f>
         <v>664</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="110"/>
+        <v>650</v>
       </c>
       <c r="J79" s="5">
         <v>328</v>
@@ -6539,7 +6678,6 @@
         <v>254</v>
       </c>
       <c r="L79" s="5">
-        <f>126-SUM(J79:K79)</f>
         <v>-456</v>
       </c>
       <c r="N79" s="5">
@@ -6556,2656 +6694,2835 @@
       <c r="R79" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S79" s="5">
+        <v>-2126</v>
+      </c>
       <c r="T79" s="5">
-        <f>SUM(B79:E79)</f>
-        <v>1187</v>
-      </c>
-      <c r="U79" s="25"/>
+        <v>1298</v>
+      </c>
+      <c r="U79" s="23">
+        <v>-279</v>
+      </c>
       <c r="V79" s="5">
-        <f>SUM(F79:I79)</f>
-        <v>-929</v>
+        <f t="shared" si="107"/>
+        <v>126</v>
       </c>
       <c r="W79" s="5">
-        <f>SUM(J79:M79)</f>
-        <v>126</v>
-      </c>
-      <c r="X79" s="5">
-        <f>SUM(N79:Q79)</f>
+        <f t="shared" si="108"/>
         <v>745</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="5">
+        <v>-4603</v>
+      </c>
+      <c r="T80" s="5">
+        <v>0</v>
+      </c>
+      <c r="U80" s="21">
+        <v>0</v>
+      </c>
+      <c r="V80" s="5">
+        <v>0</v>
+      </c>
+      <c r="W80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>-441</v>
       </c>
-      <c r="C80">
-        <f>-1023-B80</f>
+      <c r="C81">
+        <f>-1023-B81</f>
         <v>-582</v>
       </c>
-      <c r="D80">
-        <f>170-SUM(B80:C80)</f>
+      <c r="D81">
         <v>1193</v>
       </c>
-      <c r="F80">
+      <c r="E81" s="5">
+        <f t="shared" si="109"/>
+        <v>1749</v>
+      </c>
+      <c r="F81">
         <v>-245</v>
       </c>
-      <c r="G80">
-        <f>-710-F80</f>
+      <c r="G81">
+        <f>-710-F81</f>
         <v>-465</v>
       </c>
-      <c r="H80">
-        <f>305-SUM(F80:G80)</f>
+      <c r="H81">
         <v>1015</v>
       </c>
-      <c r="J80" s="5">
+      <c r="I81" s="5">
+        <f t="shared" si="110"/>
+        <v>1084</v>
+      </c>
+      <c r="J81" s="5">
         <v>-1556</v>
       </c>
-      <c r="K80" s="5">
-        <f>-2762-J80</f>
+      <c r="K81" s="5">
+        <f>-2762-J81</f>
         <v>-1206</v>
       </c>
-      <c r="L80" s="5">
-        <f>-2561-SUM(J80:K80)</f>
+      <c r="L81" s="5">
         <v>201</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N81" s="5">
         <v>-713</v>
       </c>
-      <c r="O80" s="5">
-        <f>-1257-N80</f>
+      <c r="O81" s="5">
+        <f>-1257-N81</f>
         <v>-544</v>
       </c>
-      <c r="P80" s="5">
-        <f>-1418-SUM(N80:O80)</f>
+      <c r="P81" s="5">
+        <f>-1418-SUM(N81:O81)</f>
         <v>-161</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T80" s="5">
-        <f>SUM(B80:E80)</f>
-        <v>170</v>
-      </c>
-      <c r="U80" s="25"/>
-      <c r="V80" s="5">
-        <f>SUM(F80:I80)</f>
-        <v>305</v>
-      </c>
-      <c r="W80" s="5">
-        <f>SUM(J80:M80)</f>
+      <c r="R81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S81" s="5">
+        <v>694</v>
+      </c>
+      <c r="T81" s="5">
+        <v>1919</v>
+      </c>
+      <c r="U81" s="23">
+        <v>1389</v>
+      </c>
+      <c r="V81" s="5">
+        <f t="shared" si="107"/>
         <v>-2561</v>
       </c>
-      <c r="X80" s="5">
-        <f>SUM(N80:Q80)</f>
+      <c r="W81" s="5">
+        <f t="shared" si="108"/>
         <v>-1418</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>77</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>561</v>
       </c>
-      <c r="C81">
-        <f>1349-B81</f>
+      <c r="C82">
+        <f>1349-B82</f>
         <v>788</v>
       </c>
-      <c r="D81">
-        <f>2236-SUM(B81:C81)</f>
+      <c r="D82">
         <v>887</v>
       </c>
-      <c r="F81">
+      <c r="E82" s="5">
+        <f t="shared" si="109"/>
+        <v>291</v>
+      </c>
+      <c r="F82">
         <v>2501</v>
       </c>
-      <c r="G81">
-        <f>2520-F81</f>
+      <c r="G82">
+        <f>2520-F82</f>
         <v>19</v>
       </c>
-      <c r="H81">
-        <f>1706-SUM(F81:G81)</f>
+      <c r="H82">
         <v>-814</v>
       </c>
-      <c r="J81" s="5">
+      <c r="I82" s="5">
+        <f t="shared" si="110"/>
+        <v>-815</v>
+      </c>
+      <c r="J82" s="5">
         <v>-460</v>
       </c>
-      <c r="K81" s="5">
-        <f>-1213-J81</f>
+      <c r="K82" s="5">
+        <f>-1213-J82</f>
         <v>-753</v>
       </c>
-      <c r="L81" s="5">
-        <f>-1580-SUM(J81:K81)</f>
+      <c r="L82" s="5">
         <v>-367</v>
       </c>
-      <c r="N81" s="5">
+      <c r="N82" s="5">
         <v>319</v>
       </c>
-      <c r="O81" s="5">
-        <f>-390-N81</f>
+      <c r="O82" s="5">
+        <f>-390-N82</f>
         <v>-709</v>
       </c>
-      <c r="P81" s="5">
-        <f>-249-SUM(N81:O81)</f>
+      <c r="P82" s="5">
+        <f>-249-SUM(N82:O82)</f>
         <v>141</v>
       </c>
-      <c r="R81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T81" s="5">
-        <f>SUM(B81:E81)</f>
-        <v>2236</v>
-      </c>
-      <c r="U81" s="25"/>
-      <c r="V81" s="5">
-        <f>SUM(F81:I81)</f>
-        <v>1706</v>
-      </c>
-      <c r="W81" s="5">
-        <f>SUM(J81:M81)</f>
+      <c r="R82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S82" s="5">
+        <v>1400</v>
+      </c>
+      <c r="T82" s="5">
+        <v>2527</v>
+      </c>
+      <c r="U82" s="23">
+        <v>891</v>
+      </c>
+      <c r="V82" s="5">
+        <f t="shared" si="107"/>
         <v>-1580</v>
       </c>
-      <c r="X81" s="5">
-        <f>SUM(N81:Q81)</f>
+      <c r="W82" s="5">
+        <f t="shared" si="108"/>
         <v>-249</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>78</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>-450</v>
       </c>
-      <c r="C82">
-        <f>-424-B82</f>
+      <c r="C83">
+        <f>-424-B83</f>
         <v>26</v>
       </c>
-      <c r="D82">
-        <f>-769-SUM(B82:C82)</f>
+      <c r="D83">
         <v>-345</v>
       </c>
-      <c r="F82">
+      <c r="E83" s="5">
+        <f t="shared" si="109"/>
+        <v>696</v>
+      </c>
+      <c r="F83">
         <v>1363</v>
       </c>
-      <c r="G82">
-        <f>147-F82</f>
+      <c r="G83">
+        <f>147-F83</f>
         <v>-1216</v>
       </c>
-      <c r="H82">
-        <f>84-SUM(F82:G82)</f>
+      <c r="H83">
         <v>-63</v>
       </c>
-      <c r="J82" s="5">
+      <c r="I83" s="5">
+        <f t="shared" si="110"/>
+        <v>-128</v>
+      </c>
+      <c r="J83" s="5">
         <v>-837</v>
       </c>
-      <c r="K82" s="5">
-        <f>-569-J82</f>
+      <c r="K83" s="5">
+        <f>-569-J83</f>
         <v>268</v>
       </c>
-      <c r="L82" s="5">
-        <f>-659-SUM(J82:K82)</f>
+      <c r="L83" s="5">
         <v>-90</v>
       </c>
-      <c r="N82" s="5">
+      <c r="N83" s="5">
         <v>-148</v>
       </c>
-      <c r="O82" s="5">
-        <f>-507-N82</f>
+      <c r="O83" s="5">
+        <f>-507-N83</f>
         <v>-359</v>
       </c>
-      <c r="P82" s="5">
-        <f>-403-SUM(N82:O82)</f>
+      <c r="P83" s="5">
+        <f>-403-SUM(N83:O83)</f>
         <v>104</v>
       </c>
-      <c r="R82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T82" s="5">
-        <f>SUM(B82:E82)</f>
-        <v>-769</v>
-      </c>
-      <c r="U82" s="25"/>
-      <c r="V82" s="5">
-        <f>SUM(F82:I82)</f>
-        <v>84</v>
-      </c>
-      <c r="W82" s="5">
-        <f>SUM(J82:M82)</f>
+      <c r="R83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S83" s="5">
+        <v>1287</v>
+      </c>
+      <c r="T83" s="5">
+        <v>-73</v>
+      </c>
+      <c r="U83" s="21">
+        <v>-44</v>
+      </c>
+      <c r="V83" s="5">
+        <f t="shared" si="107"/>
         <v>-659</v>
       </c>
-      <c r="X82" s="5">
-        <f>SUM(N82:Q82)</f>
+      <c r="W83" s="5">
+        <f t="shared" si="108"/>
         <v>-403</v>
       </c>
     </row>
-    <row r="83" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="6">
-        <f>+SUM(B66:B82)</f>
+      <c r="B84" s="22">
+        <f t="shared" ref="B84:P84" si="111">+SUM(B66:B83)</f>
         <v>298</v>
       </c>
-      <c r="C83" s="6">
-        <f t="shared" ref="C83:I83" si="91">+SUM(C66:C82)</f>
+      <c r="C84" s="22">
+        <f t="shared" si="111"/>
         <v>2709</v>
       </c>
-      <c r="D83" s="6">
-        <f t="shared" si="91"/>
+      <c r="D84" s="22">
+        <f t="shared" si="111"/>
         <v>2846</v>
       </c>
-      <c r="E83" s="6">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="91"/>
+      <c r="E84" s="22">
+        <f t="shared" si="111"/>
+        <v>742</v>
+      </c>
+      <c r="F84" s="22">
+        <f t="shared" si="111"/>
         <v>-1206</v>
       </c>
-      <c r="G83" s="6">
-        <f t="shared" si="91"/>
+      <c r="G84" s="22">
+        <f t="shared" si="111"/>
         <v>531</v>
       </c>
-      <c r="H83" s="6">
-        <f t="shared" si="91"/>
+      <c r="H84" s="22">
+        <f t="shared" si="111"/>
         <v>4023</v>
       </c>
-      <c r="I83" s="6">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="6">
-        <f>+SUM(J66:J82)</f>
+      <c r="I84" s="22">
+        <f t="shared" si="111"/>
+        <v>130</v>
+      </c>
+      <c r="J84" s="22">
+        <f t="shared" si="111"/>
         <v>-1610</v>
       </c>
-      <c r="K83" s="6">
-        <f t="shared" ref="K83:P83" si="92">+SUM(K66:K82)</f>
+      <c r="K84" s="22">
+        <f t="shared" si="111"/>
         <v>2509</v>
       </c>
-      <c r="L83" s="6">
-        <f t="shared" si="92"/>
+      <c r="L84" s="22">
+        <f t="shared" si="111"/>
         <v>992</v>
       </c>
-      <c r="M83" s="6">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="6">
-        <f t="shared" si="92"/>
+      <c r="M84" s="22">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="22">
+        <f t="shared" si="111"/>
         <v>700</v>
       </c>
-      <c r="O83" s="6">
-        <f t="shared" si="92"/>
+      <c r="O84" s="22">
+        <f t="shared" si="111"/>
         <v>468</v>
       </c>
-      <c r="P83" s="6">
-        <f t="shared" si="92"/>
+      <c r="P84" s="22">
+        <f t="shared" si="111"/>
         <v>1300</v>
       </c>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S83" s="4"/>
-      <c r="T83" s="6">
-        <f t="shared" ref="T83:V83" si="93">+SUM(T66:T82)</f>
-        <v>5853</v>
-      </c>
-      <c r="U83" s="24"/>
-      <c r="V83" s="6">
-        <f t="shared" si="93"/>
-        <v>3348</v>
-      </c>
-      <c r="W83" s="6">
-        <f t="shared" ref="W83:X83" si="94">+SUM(W66:W82)</f>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S84" s="22">
+        <f t="shared" ref="S84:T84" si="112">+SUM(S66:S83)</f>
+        <v>-2386</v>
+      </c>
+      <c r="T84" s="22">
+        <f t="shared" si="112"/>
+        <v>6595</v>
+      </c>
+      <c r="U84" s="22">
+        <f>+SUM(U66:U83)</f>
+        <v>3478</v>
+      </c>
+      <c r="V84" s="22">
+        <f t="shared" ref="V84:W84" si="113">+SUM(V66:V83)</f>
         <v>1891</v>
       </c>
-      <c r="X83" s="6">
-        <f t="shared" si="94"/>
+      <c r="W84" s="22">
+        <f t="shared" si="113"/>
         <v>2468</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-    </row>
-    <row r="85" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="17" t="str">
-        <f t="shared" ref="B85:I85" si="95">B63</f>
+    <row r="85" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+    </row>
+    <row r="86" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="17" t="str">
+        <f t="shared" ref="B86:I86" si="114">B63</f>
         <v>Q121</v>
       </c>
-      <c r="C85" s="17" t="str">
-        <f t="shared" si="95"/>
+      <c r="C86" s="17" t="str">
+        <f t="shared" si="114"/>
         <v>Q221</v>
       </c>
-      <c r="D85" s="17" t="str">
-        <f t="shared" si="95"/>
+      <c r="D86" s="17" t="str">
+        <f t="shared" si="114"/>
         <v>Q321</v>
       </c>
-      <c r="E85" s="17" t="str">
-        <f t="shared" si="95"/>
+      <c r="E86" s="17" t="str">
+        <f t="shared" si="114"/>
         <v>Q421</v>
       </c>
-      <c r="F85" s="17" t="str">
-        <f t="shared" si="95"/>
+      <c r="F86" s="17" t="str">
+        <f t="shared" si="114"/>
         <v>Q122</v>
       </c>
-      <c r="G85" s="17" t="str">
-        <f t="shared" si="95"/>
+      <c r="G86" s="17" t="str">
+        <f t="shared" si="114"/>
         <v>Q222</v>
       </c>
-      <c r="H85" s="17" t="str">
-        <f t="shared" si="95"/>
+      <c r="H86" s="17" t="str">
+        <f t="shared" si="114"/>
         <v>Q322</v>
       </c>
-      <c r="I85" s="17" t="str">
-        <f t="shared" si="95"/>
+      <c r="I86" s="17" t="str">
+        <f t="shared" si="114"/>
         <v>Q422</v>
       </c>
-      <c r="J85" s="17" t="str">
-        <f t="shared" ref="J85:R85" si="96">J63</f>
+      <c r="J86" s="17" t="str">
+        <f t="shared" ref="J86:R86" si="115">J63</f>
         <v>Q123</v>
       </c>
-      <c r="K85" s="17" t="str">
-        <f t="shared" si="96"/>
+      <c r="K86" s="17" t="str">
+        <f t="shared" si="115"/>
         <v>Q223</v>
       </c>
-      <c r="L85" s="17" t="str">
-        <f t="shared" si="96"/>
+      <c r="L86" s="17" t="str">
+        <f t="shared" si="115"/>
         <v>Q323</v>
       </c>
-      <c r="M85" s="17" t="str">
-        <f t="shared" si="96"/>
+      <c r="M86" s="17" t="str">
+        <f t="shared" si="115"/>
         <v>Q423</v>
       </c>
-      <c r="N85" s="17" t="str">
-        <f t="shared" si="96"/>
+      <c r="N86" s="17" t="str">
+        <f t="shared" si="115"/>
         <v>Q124</v>
       </c>
-      <c r="O85" s="17" t="str">
-        <f t="shared" si="96"/>
+      <c r="O86" s="17" t="str">
+        <f t="shared" si="115"/>
         <v>Q224</v>
       </c>
-      <c r="P85" s="17" t="str">
-        <f t="shared" si="96"/>
+      <c r="P86" s="17" t="str">
+        <f t="shared" si="115"/>
         <v>Q324</v>
       </c>
-      <c r="Q85" s="17" t="str">
-        <f t="shared" si="96"/>
+      <c r="Q86" s="17" t="str">
+        <f t="shared" si="115"/>
         <v>Q424</v>
       </c>
-      <c r="R85" s="18" t="str">
-        <f t="shared" si="96"/>
+      <c r="R86" s="18" t="str">
+        <f t="shared" si="115"/>
         <v>xxx</v>
       </c>
-      <c r="S85" s="26"/>
-      <c r="T85" s="17">
-        <f t="shared" ref="T85:V85" si="97">T63</f>
+      <c r="T86" s="17">
+        <f t="shared" ref="T86:U86" si="116">T63</f>
         <v>2021</v>
       </c>
-      <c r="U85" s="26"/>
-      <c r="V85" s="17">
-        <f t="shared" si="97"/>
+      <c r="U86" s="24">
+        <f t="shared" si="116"/>
         <v>2022</v>
       </c>
-      <c r="W85" s="17">
+      <c r="V86" s="17">
+        <f>V63</f>
+        <v>2023</v>
+      </c>
+      <c r="W86" s="17">
         <f>W63</f>
-        <v>2023</v>
-      </c>
-      <c r="X85" s="17">
-        <f>X63</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R86" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="R87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>22</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5">
-        <v>943</v>
-      </c>
-      <c r="F87" s="5">
-        <v>1079</v>
-      </c>
-      <c r="G87" s="5">
-        <v>906</v>
-      </c>
-      <c r="H87" s="5">
-        <v>1099</v>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="M87" s="5">
-        <v>1368</v>
-      </c>
-      <c r="N87" s="5">
-        <v>830</v>
-      </c>
-      <c r="O87" s="5">
-        <v>764</v>
-      </c>
-      <c r="P87" s="5">
-        <v>784</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T87" s="5">
-        <f>E87</f>
-        <v>943</v>
-      </c>
-      <c r="U87" s="25"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5">
-        <f>M87</f>
-        <v>1368</v>
-      </c>
-      <c r="X87" s="5"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>79</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5">
-        <v>8016</v>
+        <v>943</v>
       </c>
       <c r="F88" s="5">
-        <v>10132</v>
+        <v>1079</v>
       </c>
       <c r="G88" s="5">
-        <v>9974</v>
+        <v>906</v>
       </c>
       <c r="H88" s="5">
-        <v>9345</v>
-      </c>
-      <c r="I88" s="5"/>
+        <v>1099</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1037</v>
+      </c>
       <c r="J88" s="5"/>
       <c r="M88" s="5">
-        <v>7228</v>
+        <v>1368</v>
       </c>
       <c r="N88" s="5">
-        <v>7381</v>
+        <v>830</v>
       </c>
       <c r="O88" s="5">
-        <v>6975</v>
+        <v>764</v>
       </c>
       <c r="P88" s="5">
-        <v>7077</v>
+        <v>784</v>
       </c>
       <c r="R88" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S88" s="5"/>
       <c r="T88" s="5">
         <f>E88</f>
-        <v>8016</v>
-      </c>
-      <c r="U88" s="25"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5">
+        <v>943</v>
+      </c>
+      <c r="U88" s="23">
+        <f>I88</f>
+        <v>1037</v>
+      </c>
+      <c r="V88" s="5">
         <f>M88</f>
-        <v>7228</v>
-      </c>
-      <c r="X88" s="5"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1368</v>
+      </c>
+      <c r="W88" s="5"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5">
-        <v>3311</v>
+        <v>8016</v>
       </c>
       <c r="F89" s="5">
-        <v>4235</v>
+        <v>10132</v>
       </c>
       <c r="G89" s="5">
-        <v>5336</v>
+        <v>9974</v>
       </c>
       <c r="H89" s="5">
-        <v>4679</v>
-      </c>
-      <c r="I89" s="5"/>
+        <v>9345</v>
+      </c>
+      <c r="I89" s="5">
+        <v>9010</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="M89" s="5">
-        <v>4232</v>
+        <v>7228</v>
       </c>
       <c r="N89" s="5">
-        <v>4178</v>
+        <v>7381</v>
       </c>
       <c r="O89" s="5">
-        <v>4382</v>
+        <v>6975</v>
       </c>
       <c r="P89" s="5">
-        <v>3770</v>
+        <v>7077</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S89" s="5"/>
       <c r="T89" s="5">
         <f>E89</f>
-        <v>3311</v>
-      </c>
-      <c r="U89" s="25"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5">
+        <v>8016</v>
+      </c>
+      <c r="U89" s="23">
+        <f t="shared" ref="U89:U92" si="117">I89</f>
+        <v>9010</v>
+      </c>
+      <c r="V89" s="5">
         <f>M89</f>
-        <v>4232</v>
-      </c>
-      <c r="X89" s="5"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7228</v>
+      </c>
+      <c r="W89" s="5"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5">
-        <v>14481</v>
+        <v>3311</v>
       </c>
       <c r="F90" s="5">
-        <v>17290</v>
+        <v>4235</v>
       </c>
       <c r="G90" s="5">
-        <v>14485</v>
+        <v>5336</v>
       </c>
       <c r="H90" s="5">
-        <v>13282</v>
-      </c>
-      <c r="I90" s="5"/>
+        <v>4679</v>
+      </c>
+      <c r="I90" s="5">
+        <v>4926</v>
+      </c>
       <c r="J90" s="5"/>
       <c r="M90" s="5">
-        <v>11957</v>
+        <v>4232</v>
       </c>
       <c r="N90" s="5">
-        <v>11634</v>
+        <v>4178</v>
       </c>
       <c r="O90" s="5">
-        <v>10443</v>
+        <v>4382</v>
       </c>
       <c r="P90" s="5">
-        <v>10746</v>
+        <v>3770</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S90" s="5"/>
       <c r="T90" s="5">
         <f>E90</f>
-        <v>14481</v>
-      </c>
-      <c r="U90" s="25"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5">
+        <v>3311</v>
+      </c>
+      <c r="U90" s="23">
+        <f t="shared" si="117"/>
+        <v>4926</v>
+      </c>
+      <c r="V90" s="5">
         <f>M90</f>
-        <v>11957</v>
-      </c>
-      <c r="X90" s="5"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4232</v>
+      </c>
+      <c r="W90" s="5"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5">
-        <v>5158</v>
+        <v>14481</v>
       </c>
       <c r="F91" s="5">
-        <v>7717</v>
+        <v>17290</v>
       </c>
       <c r="G91" s="5">
-        <v>6946</v>
+        <v>14485</v>
       </c>
       <c r="H91" s="5">
-        <v>6164</v>
-      </c>
-      <c r="I91" s="5"/>
+        <v>13282</v>
+      </c>
+      <c r="I91" s="5">
+        <v>14771</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="M91" s="5">
-        <v>4982</v>
+        <v>11957</v>
       </c>
       <c r="N91" s="5">
-        <v>4983</v>
+        <v>11634</v>
       </c>
       <c r="O91" s="5">
-        <v>4398</v>
+        <v>10443</v>
       </c>
       <c r="P91" s="5">
-        <v>4249</v>
+        <v>10746</v>
       </c>
       <c r="R91" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S91" s="5"/>
       <c r="T91" s="5">
         <f>E91</f>
+        <v>14481</v>
+      </c>
+      <c r="U91" s="23">
+        <f t="shared" si="117"/>
+        <v>14771</v>
+      </c>
+      <c r="V91" s="5">
+        <f>M91</f>
+        <v>11957</v>
+      </c>
+      <c r="W91" s="5"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5">
         <v>5158</v>
       </c>
-      <c r="U91" s="25"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5">
-        <f>M91</f>
+      <c r="F92" s="5">
+        <v>7717</v>
+      </c>
+      <c r="G92" s="5">
+        <v>6946</v>
+      </c>
+      <c r="H92" s="5">
+        <v>6164</v>
+      </c>
+      <c r="I92" s="5">
+        <v>5666</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="M92" s="5">
         <v>4982</v>
       </c>
-      <c r="X91" s="5"/>
-    </row>
-    <row r="92" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="N92" s="5">
+        <v>4983</v>
+      </c>
+      <c r="O92" s="5">
+        <v>4398</v>
+      </c>
+      <c r="P92" s="5">
+        <v>4249</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5">
+        <f>E92</f>
+        <v>5158</v>
+      </c>
+      <c r="U92" s="23">
+        <f t="shared" si="117"/>
+        <v>5666</v>
+      </c>
+      <c r="V92" s="5">
+        <f>M92</f>
+        <v>4982</v>
+      </c>
+      <c r="W92" s="5"/>
+    </row>
+    <row r="93" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="6">
-        <f>+SUM(B87:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="6">
-        <f t="shared" ref="C92:I92" si="98">+SUM(C87:C91)</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="6">
-        <f t="shared" si="98"/>
+      <c r="B93" s="6">
+        <f>+SUM(B88:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="6">
+        <f t="shared" ref="C93:I93" si="118">+SUM(C88:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <f t="shared" si="118"/>
         <v>31909</v>
       </c>
-      <c r="F92" s="6">
-        <f t="shared" si="98"/>
+      <c r="F93" s="6">
+        <f t="shared" si="118"/>
         <v>40453</v>
       </c>
-      <c r="G92" s="6">
-        <f t="shared" si="98"/>
+      <c r="G93" s="6">
+        <f t="shared" si="118"/>
         <v>37647</v>
       </c>
-      <c r="H92" s="6">
-        <f t="shared" si="98"/>
+      <c r="H93" s="6">
+        <f t="shared" si="118"/>
         <v>34569</v>
       </c>
-      <c r="I92" s="6">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <f>+SUM(J87:J91)</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="6">
-        <f t="shared" ref="K92:P92" si="99">+SUM(K87:K91)</f>
-        <v>0</v>
-      </c>
-      <c r="L92" s="6">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="6">
-        <f t="shared" si="99"/>
+      <c r="I93" s="6">
+        <f t="shared" si="118"/>
+        <v>35410</v>
+      </c>
+      <c r="J93" s="6">
+        <f>+SUM(J88:J92)</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" ref="K93:P93" si="119">+SUM(K88:K92)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="6">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="6">
+        <f t="shared" si="119"/>
         <v>29767</v>
       </c>
-      <c r="N92" s="6">
-        <f t="shared" si="99"/>
+      <c r="N93" s="6">
+        <f t="shared" si="119"/>
         <v>29006</v>
       </c>
-      <c r="O92" s="6">
-        <f t="shared" si="99"/>
+      <c r="O93" s="6">
+        <f t="shared" si="119"/>
         <v>26962</v>
       </c>
-      <c r="P92" s="6">
-        <f t="shared" si="99"/>
+      <c r="P93" s="6">
+        <f t="shared" si="119"/>
         <v>26626</v>
       </c>
-      <c r="R92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S92" s="4"/>
-      <c r="T92" s="6">
-        <f t="shared" ref="T92:V92" si="100">+SUM(T87:T91)</f>
+      <c r="R93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6">
+        <f t="shared" ref="T93:U93" si="120">+SUM(T88:T92)</f>
         <v>31909</v>
       </c>
-      <c r="U92" s="24"/>
-      <c r="V92" s="6">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="W92" s="6">
-        <f t="shared" ref="W92:X92" si="101">+SUM(W87:W91)</f>
+      <c r="U93" s="22">
+        <f t="shared" si="120"/>
+        <v>35410</v>
+      </c>
+      <c r="V93" s="6">
+        <f t="shared" ref="V93:W93" si="121">+SUM(V88:V92)</f>
         <v>29767</v>
       </c>
-      <c r="X92" s="6">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="W93" s="6">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>83</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5">
-        <v>5285</v>
-      </c>
-      <c r="F93" s="5">
-        <v>5404</v>
-      </c>
-      <c r="G93" s="5">
-        <v>5464</v>
-      </c>
-      <c r="H93" s="5">
-        <v>5429</v>
-      </c>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="M93" s="5">
-        <v>5500</v>
-      </c>
-      <c r="N93" s="5">
-        <v>5566</v>
-      </c>
-      <c r="O93" s="5">
-        <v>5557</v>
-      </c>
-      <c r="P93" s="5">
-        <v>5142</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T93" s="5">
-        <f>E93</f>
-        <v>5285</v>
-      </c>
-      <c r="U93" s="25"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5">
-        <f>M93</f>
-        <v>5500</v>
-      </c>
-      <c r="X93" s="5"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>84</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5">
-        <v>6747</v>
+        <v>5285</v>
       </c>
       <c r="F94" s="5">
-        <v>6750</v>
+        <v>5404</v>
       </c>
       <c r="G94" s="5">
-        <v>6547</v>
+        <v>5464</v>
       </c>
       <c r="H94" s="5">
-        <v>6364</v>
-      </c>
-      <c r="I94" s="5"/>
+        <v>5429</v>
+      </c>
+      <c r="I94" s="5">
+        <v>5467</v>
+      </c>
       <c r="J94" s="5"/>
       <c r="M94" s="5">
-        <v>6341</v>
+        <v>5500</v>
       </c>
       <c r="N94" s="5">
-        <v>7051</v>
+        <v>5566</v>
       </c>
       <c r="O94" s="5">
-        <v>6970</v>
+        <v>5557</v>
       </c>
       <c r="P94" s="5">
-        <v>6999</v>
+        <v>5142</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S94" s="5"/>
       <c r="T94" s="5">
         <f>E94</f>
-        <v>6747</v>
-      </c>
-      <c r="U94" s="25"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5">
+        <v>5285</v>
+      </c>
+      <c r="U94" s="23">
+        <f t="shared" ref="U94:U97" si="122">I94</f>
+        <v>5467</v>
+      </c>
+      <c r="V94" s="5">
         <f>M94</f>
-        <v>6341</v>
-      </c>
-      <c r="X94" s="5"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5500</v>
+      </c>
+      <c r="W94" s="5"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5">
-        <v>1023</v>
+        <v>6747</v>
       </c>
       <c r="F95" s="5">
-        <v>999</v>
+        <v>6750</v>
       </c>
       <c r="G95" s="5">
-        <v>1002</v>
+        <v>6547</v>
       </c>
       <c r="H95" s="5">
-        <v>983</v>
-      </c>
-      <c r="I95" s="5"/>
+        <v>6364</v>
+      </c>
+      <c r="I95" s="5">
+        <v>6544</v>
+      </c>
       <c r="J95" s="5"/>
       <c r="M95" s="5">
-        <v>1211</v>
+        <v>6341</v>
       </c>
       <c r="N95" s="5">
-        <v>1285</v>
+        <v>7051</v>
       </c>
       <c r="O95" s="5">
-        <v>1293</v>
+        <v>6970</v>
       </c>
       <c r="P95" s="5">
-        <v>1291</v>
+        <v>6999</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S95" s="5"/>
       <c r="T95" s="5">
         <f>E95</f>
-        <v>1023</v>
-      </c>
-      <c r="U95" s="25"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5">
+        <v>6747</v>
+      </c>
+      <c r="U95" s="23">
+        <f t="shared" si="122"/>
+        <v>6544</v>
+      </c>
+      <c r="V95" s="5">
         <f>M95</f>
-        <v>1211</v>
-      </c>
-      <c r="X95" s="5"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+        <v>6341</v>
+      </c>
+      <c r="W95" s="5"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5">
-        <v>1369</v>
+        <v>1023</v>
       </c>
       <c r="F96" s="5">
-        <v>1466</v>
+        <v>999</v>
       </c>
       <c r="G96" s="5">
-        <v>1488</v>
+        <v>1002</v>
       </c>
       <c r="H96" s="5">
-        <v>1354</v>
-      </c>
-      <c r="I96" s="5"/>
+        <v>983</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1088</v>
+      </c>
       <c r="J96" s="5"/>
       <c r="M96" s="5">
-        <v>1304</v>
+        <v>1211</v>
       </c>
       <c r="N96" s="5">
-        <v>1327</v>
+        <v>1285</v>
       </c>
       <c r="O96" s="5">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="P96" s="5">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S96" s="5"/>
       <c r="T96" s="5">
         <f>E96</f>
+        <v>1023</v>
+      </c>
+      <c r="U96" s="23">
+        <f t="shared" si="122"/>
+        <v>1088</v>
+      </c>
+      <c r="V96" s="5">
+        <f>M96</f>
+        <v>1211</v>
+      </c>
+      <c r="W96" s="5"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5">
         <v>1369</v>
       </c>
-      <c r="U96" s="25"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5">
-        <f>M96</f>
+      <c r="F97" s="5">
+        <v>1466</v>
+      </c>
+      <c r="G97" s="5">
+        <v>1488</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1354</v>
+      </c>
+      <c r="I97" s="5">
+        <v>1332</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="M97" s="5">
         <v>1304</v>
       </c>
-      <c r="X96" s="5"/>
-    </row>
-    <row r="97" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="N97" s="5">
+        <v>1327</v>
+      </c>
+      <c r="O97" s="5">
+        <v>1288</v>
+      </c>
+      <c r="P97" s="5">
+        <v>1313</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5">
+        <f>E97</f>
+        <v>1369</v>
+      </c>
+      <c r="U97" s="23">
+        <f t="shared" si="122"/>
+        <v>1332</v>
+      </c>
+      <c r="V97" s="5">
+        <f>M97</f>
+        <v>1304</v>
+      </c>
+      <c r="W97" s="5"/>
+    </row>
+    <row r="98" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="6">
-        <f t="shared" ref="B97:I97" si="102">+SUM(B93:B96)</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="6">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="D97" s="6">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="6">
-        <f t="shared" si="102"/>
+      <c r="B98" s="6">
+        <f t="shared" ref="B98:I98" si="123">+SUM(B94:B97)</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <f t="shared" si="123"/>
         <v>14424</v>
       </c>
-      <c r="F97" s="6">
-        <f t="shared" si="102"/>
+      <c r="F98" s="6">
+        <f t="shared" si="123"/>
         <v>14619</v>
       </c>
-      <c r="G97" s="6">
-        <f t="shared" si="102"/>
+      <c r="G98" s="6">
+        <f t="shared" si="123"/>
         <v>14501</v>
       </c>
-      <c r="H97" s="6">
-        <f t="shared" si="102"/>
+      <c r="H98" s="6">
+        <f t="shared" si="123"/>
         <v>14130</v>
       </c>
-      <c r="I97" s="6">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
-        <f>+SUM(J93:J96)</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <f t="shared" ref="K97:P97" si="103">+SUM(K93:K96)</f>
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="6">
-        <f t="shared" si="103"/>
+      <c r="I98" s="6">
+        <f t="shared" si="123"/>
+        <v>14431</v>
+      </c>
+      <c r="J98" s="6">
+        <f>+SUM(J94:J97)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <f t="shared" ref="K98:P98" si="124">+SUM(K94:K97)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="6">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="6">
+        <f t="shared" si="124"/>
         <v>14356</v>
       </c>
-      <c r="N97" s="6">
-        <f t="shared" si="103"/>
+      <c r="N98" s="6">
+        <f t="shared" si="124"/>
         <v>15229</v>
       </c>
-      <c r="O97" s="6">
-        <f t="shared" si="103"/>
+      <c r="O98" s="6">
+        <f t="shared" si="124"/>
         <v>15108</v>
       </c>
-      <c r="P97" s="6">
-        <f t="shared" si="103"/>
+      <c r="P98" s="6">
+        <f t="shared" si="124"/>
         <v>14745</v>
       </c>
-      <c r="R97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S97" s="4"/>
-      <c r="T97" s="6">
-        <f t="shared" ref="T97:V97" si="104">+SUM(T93:T96)</f>
+      <c r="R98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6">
+        <f t="shared" ref="T98:U98" si="125">+SUM(T94:T97)</f>
         <v>14424</v>
       </c>
-      <c r="U97" s="24"/>
-      <c r="V97" s="6">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="W97" s="6">
-        <f t="shared" ref="W97:X97" si="105">+SUM(W93:W96)</f>
+      <c r="U98" s="22">
+        <f t="shared" si="125"/>
+        <v>14431</v>
+      </c>
+      <c r="V98" s="6">
+        <f t="shared" ref="V98:W98" si="126">+SUM(V94:V97)</f>
         <v>14356</v>
       </c>
-      <c r="X97" s="6">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="W98" s="6">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>88</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5">
-        <v>554</v>
-      </c>
-      <c r="F98" s="5">
-        <v>552</v>
-      </c>
-      <c r="G98" s="5">
-        <v>510</v>
-      </c>
-      <c r="H98" s="5">
-        <v>500</v>
-      </c>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="M98" s="5">
-        <v>573</v>
-      </c>
-      <c r="N98" s="5">
-        <v>573</v>
-      </c>
-      <c r="O98" s="5">
-        <v>570</v>
-      </c>
-      <c r="P98" s="5">
-        <v>578</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T98" s="5">
-        <f>E98</f>
-        <v>554</v>
-      </c>
-      <c r="U98" s="25"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5">
-        <f>M98</f>
-        <v>573</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>89</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5">
-        <v>5597</v>
+        <v>554</v>
       </c>
       <c r="F99" s="5">
-        <v>5614</v>
+        <v>552</v>
       </c>
       <c r="G99" s="5">
-        <v>5596</v>
+        <v>510</v>
       </c>
       <c r="H99" s="5">
-        <v>5532</v>
-      </c>
-      <c r="I99" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="I99" s="5">
+        <v>502</v>
+      </c>
       <c r="J99" s="5"/>
       <c r="M99" s="5">
-        <v>5876</v>
+        <v>573</v>
       </c>
       <c r="N99" s="5">
-        <v>5940</v>
+        <v>573</v>
       </c>
       <c r="O99" s="5">
-        <v>6002</v>
+        <v>570</v>
       </c>
       <c r="P99" s="5">
-        <v>6119</v>
+        <v>578</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S99" s="5"/>
       <c r="T99" s="5">
         <f>E99</f>
-        <v>5597</v>
-      </c>
-      <c r="U99" s="25"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5">
+        <v>554</v>
+      </c>
+      <c r="U99" s="23">
+        <f t="shared" ref="U99:U103" si="127">I99</f>
+        <v>502</v>
+      </c>
+      <c r="V99" s="5">
         <f>M99</f>
-        <v>5876</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5">
-        <v>19112</v>
+        <v>5597</v>
       </c>
       <c r="F100" s="5">
-        <v>19096</v>
+        <v>5614</v>
       </c>
       <c r="G100" s="5">
-        <v>18994</v>
+        <v>5596</v>
       </c>
       <c r="H100" s="5">
-        <v>18941</v>
-      </c>
-      <c r="I100" s="5"/>
+        <v>5532</v>
+      </c>
+      <c r="I100" s="5">
+        <v>5639</v>
+      </c>
       <c r="J100" s="5"/>
       <c r="M100" s="5">
-        <v>20223</v>
+        <v>5876</v>
       </c>
       <c r="N100" s="5">
-        <v>20298</v>
+        <v>5940</v>
       </c>
       <c r="O100" s="5">
-        <v>20397</v>
+        <v>6002</v>
       </c>
       <c r="P100" s="5">
-        <v>20659</v>
+        <v>6119</v>
       </c>
       <c r="R100" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S100" s="5"/>
       <c r="T100" s="5">
         <f>E100</f>
-        <v>19112</v>
-      </c>
-      <c r="U100" s="25"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5">
+        <v>5597</v>
+      </c>
+      <c r="U100" s="23">
+        <f t="shared" si="127"/>
+        <v>5639</v>
+      </c>
+      <c r="V100" s="5">
         <f>M100</f>
-        <v>20223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5">
-        <v>960</v>
+        <v>19112</v>
       </c>
       <c r="F101" s="5">
-        <v>1086</v>
+        <v>19096</v>
       </c>
       <c r="G101" s="5">
-        <v>1175</v>
+        <v>18994</v>
       </c>
       <c r="H101" s="5">
-        <v>1221</v>
-      </c>
-      <c r="I101" s="5"/>
+        <v>18941</v>
+      </c>
+      <c r="I101" s="5">
+        <v>19194</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="M101" s="5">
-        <v>1360</v>
+        <v>20223</v>
       </c>
       <c r="N101" s="5">
-        <v>1421</v>
+        <v>20298</v>
       </c>
       <c r="O101" s="5">
-        <v>1458</v>
+        <v>20397</v>
       </c>
       <c r="P101" s="5">
-        <v>1559</v>
+        <v>20659</v>
       </c>
       <c r="R101" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S101" s="5"/>
       <c r="T101" s="5">
         <f>E101</f>
-        <v>960</v>
-      </c>
-      <c r="U101" s="25"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5">
+        <v>19112</v>
+      </c>
+      <c r="U101" s="23">
+        <f t="shared" si="127"/>
+        <v>19194</v>
+      </c>
+      <c r="V101" s="5">
         <f>M101</f>
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+        <v>20223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5">
-        <v>-16420</v>
+        <v>960</v>
       </c>
       <c r="F102" s="5">
-        <v>-16554</v>
+        <v>1086</v>
       </c>
       <c r="G102" s="5">
-        <v>-16595</v>
+        <v>1175</v>
       </c>
       <c r="H102" s="5">
-        <v>-16589</v>
-      </c>
-      <c r="I102" s="5"/>
+        <v>1221</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1440</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="M102" s="5">
-        <v>-17524</v>
+        <v>1360</v>
       </c>
       <c r="N102" s="5">
-        <v>-17636</v>
+        <v>1421</v>
       </c>
       <c r="O102" s="5">
-        <v>-17799</v>
+        <v>1458</v>
       </c>
       <c r="P102" s="5">
-        <v>-18087</v>
+        <v>1559</v>
       </c>
       <c r="R102" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S102" s="5"/>
       <c r="T102" s="5">
         <f>E102</f>
+        <v>960</v>
+      </c>
+      <c r="U102" s="23">
+        <f t="shared" si="127"/>
+        <v>1440</v>
+      </c>
+      <c r="V102" s="5">
+        <f>M102</f>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5">
         <v>-16420</v>
       </c>
-      <c r="U102" s="25"/>
-      <c r="V102" s="5"/>
-      <c r="W102" s="5">
-        <f>M102</f>
+      <c r="F103" s="5">
+        <v>-16554</v>
+      </c>
+      <c r="G103" s="5">
+        <v>-16595</v>
+      </c>
+      <c r="H103" s="5">
+        <v>-16589</v>
+      </c>
+      <c r="I103" s="5">
+        <v>-16842</v>
+      </c>
+      <c r="J103" s="5"/>
+      <c r="M103" s="5">
         <v>-17524</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="N103" s="5">
+        <v>-17636</v>
+      </c>
+      <c r="O103" s="5">
+        <v>-17799</v>
+      </c>
+      <c r="P103" s="5">
+        <v>-18087</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5">
+        <f>E103</f>
+        <v>-16420</v>
+      </c>
+      <c r="U103" s="23">
+        <f t="shared" si="127"/>
+        <v>-16842</v>
+      </c>
+      <c r="V103" s="5">
+        <f>M103</f>
+        <v>-17524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="6">
-        <f t="shared" ref="B103:I103" si="106">+SUM(B98:B102)</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="6">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="6">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="6">
-        <f t="shared" si="106"/>
+      <c r="B104" s="6">
+        <f t="shared" ref="B104:I104" si="128">+SUM(B99:B103)</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="6">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <f t="shared" si="128"/>
         <v>9803</v>
       </c>
-      <c r="F103" s="6">
-        <f t="shared" si="106"/>
+      <c r="F104" s="6">
+        <f t="shared" si="128"/>
         <v>9794</v>
       </c>
-      <c r="G103" s="6">
-        <f t="shared" si="106"/>
+      <c r="G104" s="6">
+        <f t="shared" si="128"/>
         <v>9680</v>
       </c>
-      <c r="H103" s="6">
-        <f t="shared" si="106"/>
+      <c r="H104" s="6">
+        <f t="shared" si="128"/>
         <v>9605</v>
       </c>
-      <c r="I103" s="6">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
-        <f>+SUM(J98:J102)</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="6">
-        <f t="shared" ref="K103:N103" si="107">+SUM(K98:K102)</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="6">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="6">
-        <f t="shared" si="107"/>
+      <c r="I104" s="6">
+        <f t="shared" si="128"/>
+        <v>9933</v>
+      </c>
+      <c r="J104" s="6">
+        <f>+SUM(J99:J103)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <f t="shared" ref="K104:N104" si="129">+SUM(K99:K103)</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="6">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="6">
+        <f t="shared" si="129"/>
         <v>10508</v>
       </c>
-      <c r="N103" s="6">
-        <f t="shared" si="107"/>
+      <c r="N104" s="6">
+        <f t="shared" si="129"/>
         <v>10596</v>
       </c>
-      <c r="O103" s="6">
-        <f t="shared" ref="O103:P103" si="108">+SUM(O98:O102)</f>
+      <c r="O104" s="6">
+        <f t="shared" ref="O104:P104" si="130">+SUM(O99:O103)</f>
         <v>10628</v>
       </c>
-      <c r="P103" s="6">
-        <f t="shared" si="108"/>
+      <c r="P104" s="6">
+        <f t="shared" si="130"/>
         <v>10828</v>
       </c>
-      <c r="R103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S103" s="4"/>
-      <c r="T103" s="6">
-        <f t="shared" ref="T103:V103" si="109">+SUM(T98:T102)</f>
+      <c r="R104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6">
+        <f t="shared" ref="T104:U104" si="131">+SUM(T99:T103)</f>
         <v>9803</v>
       </c>
-      <c r="U103" s="24"/>
-      <c r="V103" s="6">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="W103" s="6">
-        <f t="shared" ref="W103:X103" si="110">+SUM(W98:W102)</f>
+      <c r="U104" s="22">
+        <f t="shared" si="131"/>
+        <v>9933</v>
+      </c>
+      <c r="V104" s="6">
+        <f t="shared" ref="V104:W104" si="132">+SUM(V99:V103)</f>
         <v>10508</v>
       </c>
-      <c r="X103" s="6">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+      <c r="W104" s="6">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="6">
-        <f t="shared" ref="B104:I104" si="111">+B103+B97+B92</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="6">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="D104" s="6">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="E104" s="6">
-        <f t="shared" si="111"/>
+      <c r="B105" s="6">
+        <f t="shared" ref="B105:I105" si="133">+B104+B98+B93</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="6">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <f t="shared" si="133"/>
         <v>56136</v>
       </c>
-      <c r="F104" s="6">
-        <f t="shared" si="111"/>
+      <c r="F105" s="6">
+        <f t="shared" si="133"/>
         <v>64866</v>
       </c>
-      <c r="G104" s="6">
-        <f t="shared" si="111"/>
+      <c r="G105" s="6">
+        <f t="shared" si="133"/>
         <v>61828</v>
       </c>
-      <c r="H104" s="6">
-        <f t="shared" si="111"/>
+      <c r="H105" s="6">
+        <f t="shared" si="133"/>
         <v>58304</v>
       </c>
-      <c r="I104" s="6">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
-        <f>+J103+J97+J92</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="6">
-        <f t="shared" ref="K104:N104" si="112">+K103+K97+K92</f>
-        <v>0</v>
-      </c>
-      <c r="L104" s="6">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="6">
-        <f t="shared" si="112"/>
+      <c r="I105" s="6">
+        <f t="shared" si="133"/>
+        <v>59774</v>
+      </c>
+      <c r="J105" s="6">
+        <f>+J104+J98+J93</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="6">
+        <f t="shared" ref="K105:N105" si="134">+K104+K98+K93</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="6">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="6">
+        <f t="shared" si="134"/>
         <v>54631</v>
       </c>
-      <c r="N104" s="6">
-        <f t="shared" si="112"/>
+      <c r="N105" s="6">
+        <f t="shared" si="134"/>
         <v>54831</v>
       </c>
-      <c r="O104" s="6">
-        <f t="shared" ref="O104:P104" si="113">+O103+O97+O92</f>
+      <c r="O105" s="6">
+        <f t="shared" ref="O105:P105" si="135">+O104+O98+O93</f>
         <v>52698</v>
       </c>
-      <c r="P104" s="6">
-        <f t="shared" si="113"/>
+      <c r="P105" s="6">
+        <f t="shared" si="135"/>
         <v>52199</v>
       </c>
-      <c r="R104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S104" s="4"/>
-      <c r="T104" s="6">
-        <f t="shared" ref="T104:V104" si="114">+T103+T97+T92</f>
+      <c r="R105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6">
+        <f t="shared" ref="T105:U105" si="136">+T104+T98+T93</f>
         <v>56136</v>
       </c>
-      <c r="U104" s="24"/>
-      <c r="V104" s="6">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="W104" s="6">
-        <f t="shared" ref="W104:X104" si="115">+W103+W97+W92</f>
+      <c r="U105" s="22">
+        <f t="shared" si="136"/>
+        <v>59774</v>
+      </c>
+      <c r="V105" s="6">
+        <f t="shared" ref="V105:W105" si="137">+V104+V98+V93</f>
         <v>54631</v>
       </c>
-      <c r="X104" s="6">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A105" s="3"/>
-      <c r="M105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="R105" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="W105" s="6">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A106" s="3"/>
+      <c r="M106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="R106" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>94</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5">
-        <v>958</v>
-      </c>
-      <c r="F106" s="5">
-        <v>3777</v>
-      </c>
-      <c r="G106" s="5">
-        <v>2352</v>
-      </c>
-      <c r="H106" s="5">
-        <v>181</v>
-      </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="M106" s="5">
-        <v>105</v>
-      </c>
-      <c r="N106" s="5">
-        <v>1734</v>
-      </c>
-      <c r="O106" s="5">
-        <v>2312</v>
-      </c>
-      <c r="P106" s="5">
-        <v>1733</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T106" s="5">
-        <f>E106</f>
-        <v>958</v>
-      </c>
-      <c r="U106" s="25"/>
-      <c r="V106" s="5"/>
-      <c r="W106" s="5">
-        <f>M106</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>95</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5">
-        <v>6388</v>
+        <v>958</v>
       </c>
       <c r="F107" s="5">
-        <v>6135</v>
+        <v>3777</v>
       </c>
       <c r="G107" s="5">
-        <v>5601</v>
+        <v>2352</v>
       </c>
       <c r="H107" s="5">
-        <v>6543</v>
-      </c>
-      <c r="I107" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="I107" s="5">
+        <v>503</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="M107" s="5">
-        <v>6313</v>
+        <v>105</v>
       </c>
       <c r="N107" s="5">
-        <v>5599</v>
+        <v>1734</v>
       </c>
       <c r="O107" s="5">
-        <v>5035</v>
+        <v>2312</v>
       </c>
       <c r="P107" s="5">
-        <v>4911</v>
+        <v>1733</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S107" s="5"/>
       <c r="T107" s="5">
-        <f>E107</f>
-        <v>6388</v>
-      </c>
-      <c r="U107" s="25"/>
-      <c r="V107" s="5"/>
-      <c r="W107" s="5">
-        <f>M107</f>
-        <v>6313</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" ref="T107:T112" si="138">E107</f>
+        <v>958</v>
+      </c>
+      <c r="U107" s="23">
+        <f t="shared" ref="U107:U112" si="139">I107</f>
+        <v>503</v>
+      </c>
+      <c r="V107" s="5">
+        <f t="shared" ref="V107:V112" si="140">M107</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5">
-        <v>8965</v>
+        <v>6388</v>
       </c>
       <c r="F108" s="5">
-        <v>11425</v>
+        <v>6135</v>
       </c>
       <c r="G108" s="5">
-        <v>11307</v>
+        <v>5601</v>
       </c>
       <c r="H108" s="5">
-        <v>10359</v>
-      </c>
-      <c r="I108" s="5"/>
+        <v>6543</v>
+      </c>
+      <c r="I108" s="5">
+        <v>7803</v>
+      </c>
       <c r="J108" s="5"/>
       <c r="M108" s="5">
-        <v>7867</v>
+        <v>6313</v>
       </c>
       <c r="N108" s="5">
-        <v>8176</v>
+        <v>5599</v>
       </c>
       <c r="O108" s="5">
-        <v>7468</v>
+        <v>5035</v>
       </c>
       <c r="P108" s="5">
-        <v>7669</v>
+        <v>4911</v>
       </c>
       <c r="R108" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S108" s="5"/>
       <c r="T108" s="5">
-        <f>E108</f>
-        <v>8965</v>
-      </c>
-      <c r="U108" s="25"/>
-      <c r="V108" s="5"/>
-      <c r="W108" s="5">
-        <f>M108</f>
-        <v>7867</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="138"/>
+        <v>6388</v>
+      </c>
+      <c r="U108" s="23">
+        <f t="shared" si="139"/>
+        <v>7803</v>
+      </c>
+      <c r="V108" s="5">
+        <f t="shared" si="140"/>
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5">
-        <v>4790</v>
+        <v>8965</v>
       </c>
       <c r="F109" s="5">
-        <v>6363</v>
+        <v>11425</v>
       </c>
       <c r="G109" s="5">
-        <v>5014</v>
+        <v>11307</v>
       </c>
       <c r="H109" s="5">
-        <v>4686</v>
-      </c>
-      <c r="I109" s="5"/>
+        <v>10359</v>
+      </c>
+      <c r="I109" s="5">
+        <v>9856</v>
+      </c>
       <c r="J109" s="5"/>
       <c r="M109" s="5">
-        <v>4076</v>
+        <v>7867</v>
       </c>
       <c r="N109" s="5">
-        <v>3922</v>
+        <v>8176</v>
       </c>
       <c r="O109" s="5">
-        <v>3569</v>
+        <v>7468</v>
       </c>
       <c r="P109" s="5">
-        <v>3671</v>
+        <v>7669</v>
       </c>
       <c r="R109" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S109" s="5"/>
       <c r="T109" s="5">
-        <f>E109</f>
-        <v>4790</v>
-      </c>
-      <c r="U109" s="25"/>
-      <c r="V109" s="5"/>
-      <c r="W109" s="5">
-        <f>M109</f>
-        <v>4076</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="138"/>
+        <v>8965</v>
+      </c>
+      <c r="U109" s="23">
+        <f t="shared" si="139"/>
+        <v>9856</v>
+      </c>
+      <c r="V109" s="5">
+        <f t="shared" si="140"/>
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5">
-        <v>277</v>
+        <v>4790</v>
       </c>
       <c r="F110" s="5">
-        <v>280</v>
+        <v>6363</v>
       </c>
       <c r="G110" s="5">
-        <v>282</v>
+        <v>5014</v>
       </c>
       <c r="H110" s="5">
-        <v>279</v>
-      </c>
-      <c r="I110" s="5"/>
+        <v>4686</v>
+      </c>
+      <c r="I110" s="5">
+        <v>292</v>
+      </c>
       <c r="J110" s="5"/>
       <c r="M110" s="5">
-        <v>300</v>
+        <v>4076</v>
       </c>
       <c r="N110" s="5">
-        <v>298</v>
+        <v>3922</v>
       </c>
       <c r="O110" s="5">
-        <v>299</v>
+        <v>3569</v>
       </c>
       <c r="P110" s="5">
-        <v>294</v>
+        <v>3671</v>
       </c>
       <c r="R110" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S110" s="5"/>
       <c r="T110" s="5">
-        <f>E110</f>
-        <v>277</v>
-      </c>
-      <c r="U110" s="25"/>
-      <c r="V110" s="5"/>
-      <c r="W110" s="5">
-        <f>M110</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="138"/>
+        <v>4790</v>
+      </c>
+      <c r="U110" s="23">
+        <f t="shared" si="139"/>
+        <v>292</v>
+      </c>
+      <c r="V110" s="5">
+        <f t="shared" si="140"/>
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5">
-        <v>570</v>
+        <v>277</v>
       </c>
       <c r="F111" s="5">
-        <v>543</v>
+        <v>280</v>
       </c>
       <c r="G111" s="5">
-        <v>1104</v>
+        <v>282</v>
       </c>
       <c r="H111" s="5">
-        <v>888</v>
-      </c>
-      <c r="I111" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="I111" s="5">
+        <v>4795</v>
+      </c>
       <c r="J111" s="5"/>
       <c r="M111" s="5">
+        <v>300</v>
+      </c>
+      <c r="N111" s="5">
+        <v>298</v>
+      </c>
+      <c r="O111" s="5">
+        <v>299</v>
+      </c>
+      <c r="P111" s="5">
+        <v>294</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5">
+        <f t="shared" si="138"/>
+        <v>277</v>
+      </c>
+      <c r="U111" s="23">
+        <f t="shared" si="139"/>
+        <v>4795</v>
+      </c>
+      <c r="V111" s="5">
+        <f t="shared" si="140"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5">
+        <v>570</v>
+      </c>
+      <c r="F112" s="5">
+        <v>543</v>
+      </c>
+      <c r="G112" s="5">
+        <v>1104</v>
+      </c>
+      <c r="H112" s="5">
+        <v>888</v>
+      </c>
+      <c r="I112" s="5">
+        <v>942</v>
+      </c>
+      <c r="J112" s="5"/>
+      <c r="M112" s="5">
         <v>1</v>
       </c>
-      <c r="N111" s="5">
+      <c r="N112" s="5">
         <v>1</v>
       </c>
-      <c r="O111" s="5">
+      <c r="O112" s="5">
         <v>1</v>
       </c>
-      <c r="P111" s="5">
+      <c r="P112" s="5">
         <v>725</v>
       </c>
-      <c r="R111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T111" s="5">
-        <f>E111</f>
+      <c r="R112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5">
+        <f t="shared" si="138"/>
         <v>570</v>
       </c>
-      <c r="U111" s="25"/>
-      <c r="V111" s="5"/>
-      <c r="W111" s="5">
-        <f>M111</f>
+      <c r="U112" s="23">
+        <f t="shared" si="139"/>
+        <v>942</v>
+      </c>
+      <c r="V112" s="5">
+        <f t="shared" si="140"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B112" s="6">
-        <f t="shared" ref="B112:I112" si="116">+SUM(B106:B111)</f>
-        <v>0</v>
-      </c>
-      <c r="C112" s="6">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="D112" s="6">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="E112" s="6">
-        <f t="shared" si="116"/>
+      <c r="B113" s="6">
+        <f t="shared" ref="B113:I113" si="141">+SUM(B107:B112)</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="141"/>
         <v>21948</v>
       </c>
-      <c r="F112" s="6">
-        <f t="shared" si="116"/>
+      <c r="F113" s="6">
+        <f t="shared" si="141"/>
         <v>28523</v>
       </c>
-      <c r="G112" s="6">
-        <f t="shared" si="116"/>
+      <c r="G113" s="6">
+        <f t="shared" si="141"/>
         <v>25660</v>
       </c>
-      <c r="H112" s="6">
-        <f t="shared" si="116"/>
+      <c r="H113" s="6">
+        <f t="shared" si="141"/>
         <v>22936</v>
       </c>
-      <c r="I112" s="6">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="6">
-        <f>+SUM(J106:J111)</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="6">
-        <f t="shared" ref="K112:P112" si="117">+SUM(K106:K111)</f>
-        <v>0</v>
-      </c>
-      <c r="L112" s="6">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="6">
-        <f t="shared" si="117"/>
+      <c r="I113" s="6">
+        <f t="shared" si="141"/>
+        <v>24191</v>
+      </c>
+      <c r="J113" s="6">
+        <f>+SUM(J107:J112)</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" ref="K113:P113" si="142">+SUM(K107:K112)</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="6">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="6">
+        <f t="shared" si="142"/>
         <v>18662</v>
       </c>
-      <c r="N112" s="6">
-        <f t="shared" si="117"/>
+      <c r="N113" s="6">
+        <f t="shared" si="142"/>
         <v>19730</v>
       </c>
-      <c r="O112" s="6">
-        <f t="shared" si="117"/>
+      <c r="O113" s="6">
+        <f t="shared" si="142"/>
         <v>18684</v>
       </c>
-      <c r="P112" s="6">
-        <f t="shared" si="117"/>
+      <c r="P113" s="6">
+        <f t="shared" si="142"/>
         <v>19003</v>
       </c>
-      <c r="R112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S112" s="4"/>
-      <c r="T112" s="6">
-        <f t="shared" ref="T112:V112" si="118">+SUM(T106:T111)</f>
+      <c r="R113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6">
+        <f t="shared" ref="T113:U113" si="143">+SUM(T107:T112)</f>
         <v>21948</v>
       </c>
-      <c r="U112" s="24"/>
-      <c r="V112" s="6">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="W112" s="6">
-        <f t="shared" ref="W112:X112" si="119">+SUM(W106:W111)</f>
+      <c r="U113" s="22">
+        <f t="shared" si="143"/>
+        <v>24191</v>
+      </c>
+      <c r="V113" s="6">
+        <f t="shared" ref="V113:W113" si="144">+SUM(V107:V112)</f>
         <v>18662</v>
       </c>
-      <c r="X112" s="6">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="W113" s="6">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>26</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5">
-        <v>8011</v>
-      </c>
-      <c r="F113" s="5">
-        <v>8752</v>
-      </c>
-      <c r="G113" s="5">
-        <v>8062</v>
-      </c>
-      <c r="H113" s="5">
-        <v>7971</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="M113" s="5">
-        <v>8259</v>
-      </c>
-      <c r="N113" s="5">
-        <v>8245</v>
-      </c>
-      <c r="O113" s="5">
-        <v>8247</v>
-      </c>
-      <c r="P113" s="5">
-        <v>7578</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T113" s="5">
-        <f>E113</f>
-        <v>8011</v>
-      </c>
-      <c r="U113" s="25"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5">
-        <f>M113</f>
-        <v>8259</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>100</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5">
-        <v>1412</v>
+        <v>8011</v>
       </c>
       <c r="F114" s="5">
-        <v>1604</v>
+        <v>8752</v>
       </c>
       <c r="G114" s="5">
-        <v>1579</v>
+        <v>8062</v>
       </c>
       <c r="H114" s="5">
-        <v>1639</v>
-      </c>
-      <c r="I114" s="5"/>
+        <v>7971</v>
+      </c>
+      <c r="I114" s="5">
+        <v>7735</v>
+      </c>
       <c r="J114" s="5"/>
       <c r="M114" s="5">
-        <v>1309</v>
+        <v>8259</v>
       </c>
       <c r="N114" s="5">
-        <v>1291</v>
+        <v>8245</v>
       </c>
       <c r="O114" s="5">
-        <v>1289</v>
+        <v>8247</v>
       </c>
       <c r="P114" s="5">
-        <v>1278</v>
+        <v>7578</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S114" s="5"/>
       <c r="T114" s="5">
         <f>E114</f>
-        <v>1412</v>
-      </c>
-      <c r="U114" s="25"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5">
+        <v>8011</v>
+      </c>
+      <c r="U114" s="23">
+        <f t="shared" ref="U114:U117" si="145">I114</f>
+        <v>7735</v>
+      </c>
+      <c r="V114" s="5">
         <f>M114</f>
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5">
-        <v>765</v>
+        <v>1412</v>
       </c>
       <c r="F115" s="5">
-        <v>739</v>
+        <v>1604</v>
       </c>
       <c r="G115" s="5">
-        <v>738</v>
+        <v>1579</v>
       </c>
       <c r="H115" s="5">
-        <v>723</v>
-      </c>
-      <c r="I115" s="5"/>
+        <v>1639</v>
+      </c>
+      <c r="I115" s="5">
+        <v>1402</v>
+      </c>
       <c r="J115" s="5"/>
       <c r="M115" s="5">
-        <v>931</v>
+        <v>1309</v>
       </c>
       <c r="N115" s="5">
-        <v>1010</v>
+        <v>1291</v>
       </c>
       <c r="O115" s="5">
-        <v>1017</v>
+        <v>1289</v>
       </c>
       <c r="P115" s="5">
-        <v>1019</v>
+        <v>1278</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S115" s="5"/>
       <c r="T115" s="5">
         <f>E115</f>
-        <v>765</v>
-      </c>
-      <c r="U115" s="25"/>
-      <c r="V115" s="5"/>
-      <c r="W115" s="5">
+        <v>1412</v>
+      </c>
+      <c r="U115" s="23">
+        <f t="shared" si="145"/>
+        <v>1402</v>
+      </c>
+      <c r="V115" s="5">
         <f>M115</f>
-        <v>931</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5">
-        <v>1233</v>
+        <v>765</v>
       </c>
       <c r="F116" s="5">
-        <v>1231</v>
+        <v>739</v>
       </c>
       <c r="G116" s="5">
-        <v>1102</v>
+        <v>738</v>
       </c>
       <c r="H116" s="5">
-        <v>1016</v>
-      </c>
-      <c r="I116" s="5"/>
+        <v>723</v>
+      </c>
+      <c r="I116" s="5">
+        <v>816</v>
+      </c>
       <c r="J116" s="5"/>
       <c r="M116" s="5">
-        <v>1005</v>
+        <v>931</v>
       </c>
       <c r="N116" s="5">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="O116" s="5">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="P116" s="5">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S116" s="5"/>
       <c r="T116" s="5">
         <f>E116</f>
+        <v>765</v>
+      </c>
+      <c r="U116" s="23">
+        <f t="shared" si="145"/>
+        <v>816</v>
+      </c>
+      <c r="V116" s="5">
+        <f>M116</f>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5">
         <v>1233</v>
       </c>
-      <c r="U116" s="25"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="5">
-        <f>M116</f>
+      <c r="F117" s="5">
+        <v>1231</v>
+      </c>
+      <c r="G117" s="5">
+        <v>1102</v>
+      </c>
+      <c r="H117" s="5">
+        <v>1016</v>
+      </c>
+      <c r="I117" s="5">
+        <v>1014</v>
+      </c>
+      <c r="J117" s="5"/>
+      <c r="M117" s="5">
         <v>1005</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
+      <c r="N117" s="5">
+        <v>1016</v>
+      </c>
+      <c r="O117" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P117" s="5">
+        <v>1054</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5">
+        <f>E117</f>
+        <v>1233</v>
+      </c>
+      <c r="U117" s="23">
+        <f t="shared" si="145"/>
+        <v>1014</v>
+      </c>
+      <c r="V117" s="5">
+        <f>M117</f>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B117" s="6">
-        <f t="shared" ref="B117:I117" si="120">+SUM(B113:B116)</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="6">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="D117" s="6">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="E117" s="6">
-        <f t="shared" si="120"/>
+      <c r="B118" s="6">
+        <f t="shared" ref="B118:I118" si="146">+SUM(B114:B117)</f>
+        <v>0</v>
+      </c>
+      <c r="C118" s="6">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="D118" s="6">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="6">
+        <f t="shared" si="146"/>
         <v>11421</v>
       </c>
-      <c r="F117" s="6">
-        <f t="shared" si="120"/>
+      <c r="F118" s="6">
+        <f t="shared" si="146"/>
         <v>12326</v>
       </c>
-      <c r="G117" s="6">
-        <f t="shared" si="120"/>
+      <c r="G118" s="6">
+        <f t="shared" si="146"/>
         <v>11481</v>
       </c>
-      <c r="H117" s="6">
-        <f t="shared" si="120"/>
+      <c r="H118" s="6">
+        <f t="shared" si="146"/>
         <v>11349</v>
       </c>
-      <c r="I117" s="6">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="6">
-        <f>+SUM(J113:J116)</f>
-        <v>0</v>
-      </c>
-      <c r="K117" s="6">
-        <f t="shared" ref="K117:N117" si="121">+SUM(K113:K116)</f>
-        <v>0</v>
-      </c>
-      <c r="L117" s="6">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="6">
-        <f t="shared" si="121"/>
+      <c r="I118" s="6">
+        <f t="shared" si="146"/>
+        <v>10967</v>
+      </c>
+      <c r="J118" s="6">
+        <f>+SUM(J114:J117)</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="6">
+        <f t="shared" ref="K118:N118" si="147">+SUM(K114:K117)</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="6">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="6">
+        <f t="shared" si="147"/>
         <v>11504</v>
       </c>
-      <c r="N117" s="6">
-        <f t="shared" si="121"/>
+      <c r="N118" s="6">
+        <f t="shared" si="147"/>
         <v>11562</v>
       </c>
-      <c r="O117" s="6">
-        <f t="shared" ref="O117:P117" si="122">+SUM(O113:O116)</f>
+      <c r="O118" s="6">
+        <f t="shared" ref="O118:P118" si="148">+SUM(O114:O117)</f>
         <v>11553</v>
       </c>
-      <c r="P117" s="6">
-        <f t="shared" si="122"/>
+      <c r="P118" s="6">
+        <f t="shared" si="148"/>
         <v>10929</v>
       </c>
-      <c r="R117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S117" s="4"/>
-      <c r="T117" s="6">
-        <f t="shared" ref="T117:V117" si="123">+SUM(T113:T116)</f>
+      <c r="R118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6">
+        <f t="shared" ref="T118:U118" si="149">+SUM(T114:T117)</f>
         <v>11421</v>
       </c>
-      <c r="U117" s="24"/>
-      <c r="V117" s="6">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="W117" s="6">
-        <f t="shared" ref="W117:X117" si="124">+SUM(W113:W116)</f>
+      <c r="U118" s="22">
+        <f t="shared" si="149"/>
+        <v>10967</v>
+      </c>
+      <c r="V118" s="6">
+        <f t="shared" ref="V118:W118" si="150">+SUM(V114:V117)</f>
         <v>11504</v>
       </c>
-      <c r="X117" s="6">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+      <c r="W118" s="6">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B118" s="6">
-        <f t="shared" ref="B118:I118" si="125">+B117+B112</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="6">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="D118" s="6">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="6">
-        <f t="shared" si="125"/>
+      <c r="B119" s="6">
+        <f t="shared" ref="B119:I119" si="151">+B118+B113</f>
+        <v>0</v>
+      </c>
+      <c r="C119" s="6">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="6">
+        <f t="shared" si="151"/>
         <v>33369</v>
       </c>
-      <c r="F118" s="6">
-        <f t="shared" si="125"/>
+      <c r="F119" s="6">
+        <f t="shared" si="151"/>
         <v>40849</v>
       </c>
-      <c r="G118" s="6">
-        <f t="shared" si="125"/>
+      <c r="G119" s="6">
+        <f t="shared" si="151"/>
         <v>37141</v>
       </c>
-      <c r="H118" s="6">
-        <f t="shared" si="125"/>
+      <c r="H119" s="6">
+        <f t="shared" si="151"/>
         <v>34285</v>
       </c>
-      <c r="I118" s="6">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="6">
-        <f>+J117+J112</f>
-        <v>0</v>
-      </c>
-      <c r="K118" s="6">
-        <f t="shared" ref="K118:N118" si="126">+K117+K112</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="6">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="6">
-        <f t="shared" si="126"/>
+      <c r="I119" s="6">
+        <f t="shared" si="151"/>
+        <v>35158</v>
+      </c>
+      <c r="J119" s="6">
+        <f>+J118+J113</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="6">
+        <f t="shared" ref="K119:N119" si="152">+K118+K113</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="6">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="6">
+        <f t="shared" si="152"/>
         <v>30166</v>
       </c>
-      <c r="N118" s="6">
-        <f t="shared" si="126"/>
+      <c r="N119" s="6">
+        <f t="shared" si="152"/>
         <v>31292</v>
       </c>
-      <c r="O118" s="6">
-        <f t="shared" ref="O118:P118" si="127">+O117+O112</f>
+      <c r="O119" s="6">
+        <f t="shared" ref="O119:P119" si="153">+O118+O113</f>
         <v>30237</v>
       </c>
-      <c r="P118" s="6">
-        <f t="shared" si="127"/>
+      <c r="P119" s="6">
+        <f t="shared" si="153"/>
         <v>29932</v>
       </c>
-      <c r="R118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S118" s="4"/>
-      <c r="T118" s="6">
-        <f t="shared" ref="T118:V118" si="128">+T117+T112</f>
+      <c r="R119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6">
+        <f t="shared" ref="T119:U119" si="154">+T118+T113</f>
         <v>33369</v>
       </c>
-      <c r="U118" s="24"/>
-      <c r="V118" s="6">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="W118" s="6">
-        <f t="shared" ref="W118:X118" si="129">+W117+W112</f>
+      <c r="U119" s="22">
+        <f t="shared" si="154"/>
+        <v>35158</v>
+      </c>
+      <c r="V119" s="6">
+        <f t="shared" ref="V119:W119" si="155">+V118+V113</f>
         <v>30166</v>
       </c>
-      <c r="X118" s="6">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="W119" s="6">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5">
-        <v>259</v>
-      </c>
-      <c r="F119" s="5">
-        <v>262</v>
-      </c>
-      <c r="G119" s="5">
-        <v>261</v>
-      </c>
-      <c r="H119" s="5">
-        <v>290</v>
-      </c>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="M119" s="5">
-        <v>320</v>
-      </c>
-      <c r="N119" s="5">
-        <v>307</v>
-      </c>
-      <c r="O119" s="5">
-        <v>302</v>
-      </c>
-      <c r="P119" s="5">
-        <v>283</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
+      <c r="E120" s="5">
+        <v>259</v>
+      </c>
+      <c r="F120" s="5">
+        <v>262</v>
+      </c>
+      <c r="G120" s="5">
+        <v>261</v>
+      </c>
+      <c r="H120" s="5">
+        <v>290</v>
+      </c>
+      <c r="I120" s="5">
+        <v>299</v>
+      </c>
       <c r="J120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="M120" s="5">
+        <v>320</v>
+      </c>
+      <c r="N120" s="5">
+        <v>307</v>
+      </c>
+      <c r="O120" s="5">
+        <v>302</v>
+      </c>
+      <c r="P120" s="5">
+        <v>283</v>
+      </c>
       <c r="R120" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>27</v>
-      </c>
+      <c r="T120" s="5">
+        <f>E120</f>
+        <v>259</v>
+      </c>
+      <c r="U120" s="23">
+        <f t="shared" ref="U120" si="156">I120</f>
+        <v>299</v>
+      </c>
+      <c r="V120">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="5">
-        <v>2994</v>
-      </c>
-      <c r="F121" s="5">
-        <v>3028</v>
-      </c>
-      <c r="G121" s="5">
-        <v>3066</v>
-      </c>
-      <c r="H121" s="5">
-        <v>3110</v>
-      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-      <c r="M121" s="5">
-        <v>3154</v>
-      </c>
-      <c r="N121" s="5">
-        <v>2720</v>
-      </c>
-      <c r="O121">
-        <v>3200</v>
-      </c>
-      <c r="P121">
-        <v>3208</v>
-      </c>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
       <c r="R121" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T121" s="5">
-        <f>E121</f>
-        <v>2994</v>
-      </c>
-      <c r="U121" s="25"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="5">
-        <f>M121</f>
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5">
-        <v>21655</v>
+        <v>2994</v>
       </c>
       <c r="F122" s="5">
-        <v>22483</v>
+        <v>3028</v>
       </c>
       <c r="G122" s="5">
-        <v>23292</v>
+        <v>3066</v>
       </c>
       <c r="H122" s="5">
-        <v>23099</v>
-      </c>
-      <c r="I122" s="5"/>
+        <v>3110</v>
+      </c>
+      <c r="I122" s="5">
+        <v>3147</v>
+      </c>
       <c r="J122" s="5"/>
       <c r="M122" s="5">
-        <v>23465</v>
+        <v>3154</v>
       </c>
       <c r="N122" s="5">
-        <v>23069</v>
+        <v>2720</v>
       </c>
       <c r="O122">
-        <v>21828</v>
+        <v>3200</v>
       </c>
       <c r="P122">
-        <v>21606</v>
+        <v>3208</v>
       </c>
       <c r="R122" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S122" s="5"/>
       <c r="T122" s="5">
         <f>E122</f>
-        <v>21655</v>
-      </c>
-      <c r="U122" s="25"/>
-      <c r="V122" s="5"/>
-      <c r="W122" s="5">
+        <v>2994</v>
+      </c>
+      <c r="U122" s="23">
+        <f t="shared" ref="U122:U125" si="157">I122</f>
+        <v>3147</v>
+      </c>
+      <c r="V122" s="5">
         <f>M122</f>
-        <v>23465</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5">
-        <v>-2172</v>
+        <v>21655</v>
       </c>
       <c r="F123" s="5">
-        <v>-1789</v>
+        <v>22483</v>
       </c>
       <c r="G123" s="5">
-        <v>-1965</v>
+        <v>23292</v>
       </c>
       <c r="H123" s="5">
-        <v>-2212</v>
-      </c>
-      <c r="I123" s="5"/>
+        <v>23099</v>
+      </c>
+      <c r="I123" s="5">
+        <v>23646</v>
+      </c>
       <c r="J123" s="5"/>
       <c r="M123" s="5">
-        <v>-2487</v>
+        <v>23465</v>
       </c>
       <c r="N123" s="5">
-        <v>-2570</v>
+        <v>23069</v>
       </c>
       <c r="O123">
-        <v>-2880</v>
+        <v>21828</v>
       </c>
       <c r="P123">
-        <v>-2840</v>
+        <v>21606</v>
       </c>
       <c r="R123" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S123" s="5"/>
       <c r="T123" s="5">
         <f>E123</f>
-        <v>-2172</v>
-      </c>
-      <c r="U123" s="25"/>
-      <c r="V123" s="5"/>
-      <c r="W123" s="5">
+        <v>21655</v>
+      </c>
+      <c r="U123" s="23">
+        <f t="shared" si="157"/>
+        <v>23646</v>
+      </c>
+      <c r="V123" s="5">
         <f>M123</f>
-        <v>-2487</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+        <v>23465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5">
-        <v>31</v>
+        <v>-2172</v>
       </c>
       <c r="F124" s="5">
-        <v>33</v>
+        <v>-1789</v>
       </c>
       <c r="G124" s="5">
-        <v>33</v>
+        <v>-1965</v>
       </c>
       <c r="H124" s="5">
-        <v>32</v>
-      </c>
-      <c r="I124" s="5"/>
+        <v>-2212</v>
+      </c>
+      <c r="I124" s="5">
+        <v>-2509</v>
+      </c>
       <c r="J124" s="5"/>
       <c r="M124" s="5">
-        <v>13</v>
+        <v>-2487</v>
       </c>
       <c r="N124" s="5">
-        <v>13</v>
+        <v>-2570</v>
       </c>
       <c r="O124">
-        <v>11</v>
+        <v>-2880</v>
       </c>
       <c r="P124">
-        <v>10</v>
+        <v>-2840</v>
       </c>
       <c r="R124" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S124" s="5"/>
       <c r="T124" s="5">
         <f>E124</f>
+        <v>-2172</v>
+      </c>
+      <c r="U124" s="23">
+        <f t="shared" si="157"/>
+        <v>-2509</v>
+      </c>
+      <c r="V124" s="5">
+        <f>M124</f>
+        <v>-2487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5">
         <v>31</v>
       </c>
-      <c r="U124" s="25"/>
-      <c r="V124" s="5"/>
-      <c r="W124" s="5">
-        <f>M124</f>
+      <c r="F125" s="5">
+        <v>33</v>
+      </c>
+      <c r="G125" s="5">
+        <v>33</v>
+      </c>
+      <c r="H125" s="5">
+        <v>32</v>
+      </c>
+      <c r="I125" s="5">
+        <v>33</v>
+      </c>
+      <c r="J125" s="5"/>
+      <c r="M125" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+      <c r="N125" s="5">
+        <v>13</v>
+      </c>
+      <c r="O125">
+        <v>11</v>
+      </c>
+      <c r="P125">
+        <v>10</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5">
+        <f>E125</f>
+        <v>31</v>
+      </c>
+      <c r="U125" s="23">
+        <f t="shared" si="157"/>
+        <v>33</v>
+      </c>
+      <c r="V125" s="5">
+        <f>M125</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B125" s="6">
-        <f t="shared" ref="B125:I125" si="130">+SUM(B121:B124)</f>
-        <v>0</v>
-      </c>
-      <c r="C125" s="6">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="D125" s="6">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="E125" s="6">
-        <f t="shared" si="130"/>
+      <c r="B126" s="6">
+        <f t="shared" ref="B126:I126" si="158">+SUM(B122:B125)</f>
+        <v>0</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="D126" s="6">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="6">
+        <f t="shared" si="158"/>
         <v>22508</v>
       </c>
-      <c r="F125" s="6">
-        <f t="shared" si="130"/>
+      <c r="F126" s="6">
+        <f t="shared" si="158"/>
         <v>23755</v>
       </c>
-      <c r="G125" s="6">
-        <f t="shared" si="130"/>
+      <c r="G126" s="6">
+        <f t="shared" si="158"/>
         <v>24426</v>
       </c>
-      <c r="H125" s="6">
-        <f t="shared" si="130"/>
+      <c r="H126" s="6">
+        <f t="shared" si="158"/>
         <v>24029</v>
       </c>
-      <c r="I125" s="6">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="6">
-        <f>+SUM(J121:J124)</f>
-        <v>0</v>
-      </c>
-      <c r="K125" s="6">
-        <f t="shared" ref="K125:N125" si="131">+SUM(K121:K124)</f>
-        <v>0</v>
-      </c>
-      <c r="L125" s="6">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="6">
-        <f t="shared" si="131"/>
+      <c r="I126" s="6">
+        <f t="shared" si="158"/>
+        <v>24317</v>
+      </c>
+      <c r="J126" s="6">
+        <f>+SUM(J122:J125)</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="6">
+        <f t="shared" ref="K126:N126" si="159">+SUM(K122:K125)</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="6">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="6">
+        <f t="shared" si="159"/>
         <v>24145</v>
       </c>
-      <c r="N125" s="6">
-        <f t="shared" si="131"/>
+      <c r="N126" s="6">
+        <f t="shared" si="159"/>
         <v>23232</v>
       </c>
-      <c r="O125" s="6">
-        <f t="shared" ref="O125:P125" si="132">+SUM(O121:O124)</f>
+      <c r="O126" s="6">
+        <f t="shared" ref="O126:P126" si="160">+SUM(O122:O125)</f>
         <v>22159</v>
       </c>
-      <c r="P125" s="6">
-        <f t="shared" si="132"/>
+      <c r="P126" s="6">
+        <f t="shared" si="160"/>
         <v>21984</v>
       </c>
-      <c r="R125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S125" s="4"/>
-      <c r="T125" s="6">
-        <f t="shared" ref="T125:V125" si="133">+SUM(T121:T124)</f>
+      <c r="R126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6">
+        <f t="shared" ref="T126:U126" si="161">+SUM(T122:T125)</f>
         <v>22508</v>
       </c>
-      <c r="U125" s="24"/>
-      <c r="V125" s="6">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="W125" s="6">
-        <f t="shared" ref="W125:X125" si="134">+SUM(W121:W124)</f>
+      <c r="U126" s="22">
+        <f t="shared" si="161"/>
+        <v>24317</v>
+      </c>
+      <c r="V126" s="6">
+        <f t="shared" ref="V126:W126" si="162">+SUM(V122:V125)</f>
         <v>24145</v>
       </c>
-      <c r="X125" s="6">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
+      <c r="W126" s="6">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="6">
-        <f t="shared" ref="B126:I126" si="135">+B125+B119+B118</f>
-        <v>0</v>
-      </c>
-      <c r="C126" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="D126" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="E126" s="6">
-        <f t="shared" si="135"/>
+      <c r="B127" s="6">
+        <f t="shared" ref="B127:I127" si="163">+B126+B120+B119</f>
+        <v>0</v>
+      </c>
+      <c r="C127" s="6">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="6">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="6">
+        <f t="shared" si="163"/>
         <v>56136</v>
       </c>
-      <c r="F126" s="6">
-        <f t="shared" si="135"/>
+      <c r="F127" s="6">
+        <f t="shared" si="163"/>
         <v>64866</v>
       </c>
-      <c r="G126" s="6">
-        <f t="shared" si="135"/>
+      <c r="G127" s="6">
+        <f t="shared" si="163"/>
         <v>61828</v>
       </c>
-      <c r="H126" s="6">
-        <f t="shared" si="135"/>
+      <c r="H127" s="6">
+        <f t="shared" si="163"/>
         <v>58604</v>
       </c>
-      <c r="I126" s="6">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="6">
-        <f>+J125+J119+J118</f>
-        <v>0</v>
-      </c>
-      <c r="K126" s="6">
-        <f t="shared" ref="K126:N126" si="136">+K125+K119+K118</f>
-        <v>0</v>
-      </c>
-      <c r="L126" s="6">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="6">
-        <f t="shared" si="136"/>
+      <c r="I127" s="6">
+        <f t="shared" si="163"/>
+        <v>59774</v>
+      </c>
+      <c r="J127" s="6">
+        <f>+J126+J120+J119</f>
+        <v>0</v>
+      </c>
+      <c r="K127" s="6">
+        <f t="shared" ref="K127:N127" si="164">+K126+K120+K119</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="6">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="6">
+        <f t="shared" si="164"/>
         <v>54631</v>
       </c>
-      <c r="N126" s="6">
-        <f t="shared" si="136"/>
+      <c r="N127" s="6">
+        <f t="shared" si="164"/>
         <v>54831</v>
       </c>
-      <c r="O126" s="6">
-        <f t="shared" ref="O126:P126" si="137">+O125+O119+O118</f>
+      <c r="O127" s="6">
+        <f t="shared" ref="O127:P127" si="165">+O126+O120+O119</f>
         <v>52698</v>
       </c>
-      <c r="P126" s="6">
-        <f t="shared" si="137"/>
+      <c r="P127" s="6">
+        <f t="shared" si="165"/>
         <v>52199</v>
       </c>
-      <c r="R126" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S126" s="4"/>
-      <c r="T126" s="6">
-        <f t="shared" ref="T126:V126" si="138">+T125+T119+T118</f>
-        <v>55877</v>
-      </c>
-      <c r="U126" s="24"/>
-      <c r="V126" s="6">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="W126" s="6">
-        <f t="shared" ref="W126:X126" si="139">+W125+W119+W118</f>
+      <c r="R127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6">
+        <f t="shared" ref="T127:U127" si="166">+T126+T120+T119</f>
+        <v>56136</v>
+      </c>
+      <c r="U127" s="22">
+        <f t="shared" si="166"/>
+        <v>59774</v>
+      </c>
+      <c r="V127" s="6">
+        <f t="shared" ref="V127:W127" si="167">+V126+V120+V119</f>
         <v>54631</v>
       </c>
-      <c r="X126" s="6">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
+      <c r="W127" s="6">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
@@ -9218,27 +9535,38 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
